--- a/source/reference_documents/templates/AVCMDS Worksheet template.xlsx
+++ b/source/reference_documents/templates/AVCMDS Worksheet template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charleswilson/Documents/projects/AVCDL/source/reference_documents/working_material/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles.wilson/Documents/projects/AVCDL/distribution/reference_documents/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7201B76D-F5BD-9E4A-B99D-D5C7CFAE7B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A564C-15A5-764B-893A-0F25F61DCE29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20400" yWindow="3460" windowWidth="21760" windowHeight="36860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19100" yWindow="3420" windowWidth="21760" windowHeight="36860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVCMDS form" sheetId="1" r:id="rId1"/>
@@ -1622,9 +1622,6 @@
   </si>
   <si>
     <t>SAHD-16</t>
-  </si>
-  <si>
-    <t>Have additional hardening methods not included in 2.3.19 been used to harden the device?</t>
   </si>
   <si>
     <t>See Notes</t>
@@ -1972,10 +1969,13 @@
     <t>Does the device employ any mechanisms for software integrity checking?</t>
   </si>
   <si>
-    <t>Rev 3</t>
-  </si>
-  <si>
     <t>Manufacturer Disclosure Statement for Autonomous Vehicle Cybersecurity (AVCMDS)</t>
+  </si>
+  <si>
+    <t>Have additional hardening methods not included here been used to harden the device?</t>
+  </si>
+  <si>
+    <t>Rev 4</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1986,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2238,7 +2238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2342,8 +2342,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2351,25 +2351,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2379,7 +2361,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2601,10 +2613,10 @@
   <dimension ref="A1:Y972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
@@ -2618,18 +2630,18 @@
     <col min="21" max="25" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24">
-      <c r="A1" s="56" t="s">
-        <v>631</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -2649,11 +2661,11 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2676,7 +2688,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +2725,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f>C15</f>
         <v>44251</v>
@@ -2755,8 +2767,8 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="19">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -2782,7 +2794,7 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="20">
+    <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -2825,8 +2837,8 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -2852,7 +2864,7 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
         <v>13</v>
       </c>
@@ -2881,7 +2893,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="16">
+    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
@@ -2914,7 +2926,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:25" ht="16">
+    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
@@ -2947,7 +2959,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="16">
+    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
@@ -2980,7 +2992,7 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" ht="16">
+    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
@@ -3013,7 +3025,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="16">
+    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
@@ -3046,7 +3058,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" ht="16">
+    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
@@ -3079,7 +3091,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:25" ht="16">
+    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>31</v>
       </c>
@@ -3112,7 +3124,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:25" ht="32">
+    <row r="16" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
@@ -3145,7 +3157,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:25" ht="16">
+    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
@@ -3178,7 +3190,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:25" ht="32">
+    <row r="18" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>38</v>
       </c>
@@ -3211,7 +3223,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:25" ht="16">
+    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3256,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:25" ht="16">
+    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>42</v>
       </c>
@@ -3277,7 +3289,7 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:25" ht="16">
+    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
@@ -3310,7 +3322,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:25" ht="16">
+    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
@@ -3343,7 +3355,7 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:25" ht="16">
+    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>49</v>
       </c>
@@ -3376,8 +3388,8 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="53"/>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -3403,7 +3415,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
         <v>51</v>
       </c>
@@ -3432,7 +3444,7 @@
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
     </row>
-    <row r="26" spans="1:25" ht="32">
+    <row r="26" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>52</v>
       </c>
@@ -3469,7 +3481,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>57</v>
       </c>
@@ -3506,7 +3518,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="32">
+    <row r="28" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>59</v>
       </c>
@@ -3543,7 +3555,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="32">
+    <row r="29" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>61</v>
       </c>
@@ -3576,7 +3588,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="32">
+    <row r="30" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>63</v>
       </c>
@@ -3609,7 +3621,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3654,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="32">
+    <row r="32" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>67</v>
       </c>
@@ -3679,12 +3691,12 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="33" customHeight="1">
+    <row r="33" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>54</v>
@@ -3716,7 +3728,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="32">
+    <row r="34" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>70</v>
       </c>
@@ -3753,7 +3765,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="32">
+    <row r="35" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>72</v>
       </c>
@@ -3786,7 +3798,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="48">
+    <row r="36" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>74</v>
       </c>
@@ -3823,7 +3835,7 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" ht="32">
+    <row r="37" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>76</v>
       </c>
@@ -3860,7 +3872,7 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>78</v>
       </c>
@@ -3897,7 +3909,7 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="32">
+    <row r="39" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>80</v>
       </c>
@@ -3934,7 +3946,7 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" ht="48">
+    <row r="40" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>82</v>
       </c>
@@ -3971,7 +3983,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" ht="32">
+    <row r="41" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>84</v>
       </c>
@@ -4008,7 +4020,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" ht="32">
+    <row r="42" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>86</v>
       </c>
@@ -4045,7 +4057,7 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" ht="32">
+    <row r="43" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>88</v>
       </c>
@@ -4082,7 +4094,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="32">
+    <row r="44" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>90</v>
       </c>
@@ -4119,7 +4131,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" ht="32">
+    <row r="45" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>92</v>
       </c>
@@ -4152,7 +4164,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" ht="32">
+    <row r="46" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>94</v>
       </c>
@@ -4185,7 +4197,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" ht="32">
+    <row r="47" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>96</v>
       </c>
@@ -4222,8 +4234,8 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="53"/>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -4249,7 +4261,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
         <v>98</v>
       </c>
@@ -4278,8 +4290,8 @@
       <c r="X49" s="27"/>
       <c r="Y49" s="27"/>
     </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="52" t="s">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="44"/>
@@ -4307,7 +4319,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:25" ht="32">
+    <row r="51" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>100</v>
       </c>
@@ -4340,8 +4352,8 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A52" s="43"/>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="47"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -4367,7 +4379,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
         <v>102</v>
       </c>
@@ -4396,8 +4408,8 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="44"/>
@@ -4425,7 +4437,7 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:25" ht="32">
+    <row r="55" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
         <v>104</v>
       </c>
@@ -4464,7 +4476,7 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
         <v>109</v>
       </c>
@@ -4497,7 +4509,7 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
         <v>111</v>
       </c>
@@ -4536,7 +4548,7 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:25" ht="32">
+    <row r="58" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>115</v>
       </c>
@@ -4575,7 +4587,7 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>117</v>
       </c>
@@ -4606,7 +4618,7 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>119</v>
       </c>
@@ -4645,7 +4657,7 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:25" ht="32">
+    <row r="61" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
         <v>121</v>
       </c>
@@ -4678,7 +4690,7 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>123</v>
       </c>
@@ -4709,7 +4721,7 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>125</v>
       </c>
@@ -4748,7 +4760,7 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:25" ht="32">
+    <row r="64" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>127</v>
       </c>
@@ -4781,7 +4793,7 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>129</v>
       </c>
@@ -4820,7 +4832,7 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>131</v>
       </c>
@@ -4859,7 +4871,7 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>133</v>
       </c>
@@ -4898,7 +4910,7 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="30" t="s">
         <v>135</v>
       </c>
@@ -4937,7 +4949,7 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:25" ht="32">
+    <row r="69" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>137</v>
       </c>
@@ -4976,7 +4988,7 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:25" ht="32">
+    <row r="70" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>139</v>
       </c>
@@ -5015,7 +5027,7 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>141</v>
       </c>
@@ -5054,7 +5066,7 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>143</v>
       </c>
@@ -5093,7 +5105,7 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
         <v>145</v>
       </c>
@@ -5132,7 +5144,7 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
         <v>147</v>
       </c>
@@ -5171,7 +5183,7 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>149</v>
       </c>
@@ -5210,7 +5222,7 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>151</v>
       </c>
@@ -5249,7 +5261,7 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>153</v>
       </c>
@@ -5288,7 +5300,7 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:25" ht="32">
+    <row r="78" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="32" t="s">
         <v>155</v>
       </c>
@@ -5327,7 +5339,7 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
         <v>157</v>
       </c>
@@ -5366,7 +5378,7 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="32" t="s">
         <v>159</v>
       </c>
@@ -5399,7 +5411,7 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
         <v>161</v>
       </c>
@@ -5432,7 +5444,7 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
         <v>163</v>
       </c>
@@ -5465,7 +5477,7 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
         <v>165</v>
       </c>
@@ -5498,7 +5510,7 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="32" t="s">
         <v>167</v>
       </c>
@@ -5537,7 +5549,7 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="32" t="s">
         <v>169</v>
       </c>
@@ -5570,7 +5582,7 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="32" t="s">
         <v>171</v>
       </c>
@@ -5609,8 +5621,8 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="43"/>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="47"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -5636,7 +5648,7 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="46" t="s">
         <v>173</v>
       </c>
@@ -5665,8 +5677,8 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="52" t="s">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="43" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="44"/>
@@ -5694,7 +5706,7 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:25" ht="32">
+    <row r="90" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="30" t="s">
         <v>175</v>
       </c>
@@ -5733,7 +5745,7 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:25" ht="32">
+    <row r="91" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="30" t="s">
         <v>180</v>
       </c>
@@ -5772,7 +5784,7 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:25" ht="48">
+    <row r="92" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="s">
         <v>182</v>
       </c>
@@ -5811,7 +5823,7 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="30" t="s">
         <v>184</v>
       </c>
@@ -5850,7 +5862,7 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
         <v>186</v>
       </c>
@@ -5883,8 +5895,8 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="43"/>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="47"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -5910,7 +5922,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="46" t="s">
         <v>188</v>
       </c>
@@ -5939,8 +5951,8 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A97" s="52" t="s">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="43" t="s">
         <v>189</v>
       </c>
       <c r="B97" s="44"/>
@@ -5968,7 +5980,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:25" ht="64">
+    <row r="98" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="30" t="s">
         <v>190</v>
       </c>
@@ -6001,7 +6013,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="30" t="s">
         <v>192</v>
       </c>
@@ -6034,7 +6046,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:25" ht="32">
+    <row r="100" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="30" t="s">
         <v>194</v>
       </c>
@@ -6067,7 +6079,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:25" ht="32">
+    <row r="101" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="30" t="s">
         <v>196</v>
       </c>
@@ -6100,7 +6112,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:25" ht="32">
+    <row r="102" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="30" t="s">
         <v>198</v>
       </c>
@@ -6133,7 +6145,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:25" ht="48">
+    <row r="103" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="30" t="s">
         <v>200</v>
       </c>
@@ -6166,7 +6178,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:25" ht="16">
+    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="30" t="s">
         <v>202</v>
       </c>
@@ -6199,7 +6211,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:25" ht="32">
+    <row r="105" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="30" t="s">
         <v>204</v>
       </c>
@@ -6232,7 +6244,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:25" ht="32">
+    <row r="106" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="30" t="s">
         <v>205</v>
       </c>
@@ -6265,7 +6277,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:25" ht="32">
+    <row r="107" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="30" t="s">
         <v>206</v>
       </c>
@@ -6298,7 +6310,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:25" ht="48">
+    <row r="108" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A108" s="30" t="s">
         <v>207</v>
       </c>
@@ -6331,7 +6343,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:25" ht="32">
+    <row r="109" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="30" t="s">
         <v>208</v>
       </c>
@@ -6364,7 +6376,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:25" ht="32">
+    <row r="110" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="30" t="s">
         <v>210</v>
       </c>
@@ -6397,7 +6409,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:25" ht="32">
+    <row r="111" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="30" t="s">
         <v>211</v>
       </c>
@@ -6430,7 +6442,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:25" ht="32">
+    <row r="112" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="30" t="s">
         <v>212</v>
       </c>
@@ -6463,7 +6475,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:25" ht="48">
+    <row r="113" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="30" t="s">
         <v>213</v>
       </c>
@@ -6496,7 +6508,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="30" t="s">
         <v>214</v>
       </c>
@@ -6529,7 +6541,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:25" ht="32">
+    <row r="115" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>216</v>
       </c>
@@ -6562,7 +6574,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:25" ht="32">
+    <row r="116" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="30" t="s">
         <v>217</v>
       </c>
@@ -6595,7 +6607,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:25" ht="32">
+    <row r="117" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>218</v>
       </c>
@@ -6628,7 +6640,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:25" ht="48">
+    <row r="118" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="30" t="s">
         <v>219</v>
       </c>
@@ -6661,7 +6673,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:25" ht="48">
+    <row r="119" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="30" t="s">
         <v>220</v>
       </c>
@@ -6694,7 +6706,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:25" ht="32">
+    <row r="120" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="30" t="s">
         <v>222</v>
       </c>
@@ -6727,7 +6739,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:25" ht="32">
+    <row r="121" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="30" t="s">
         <v>223</v>
       </c>
@@ -6760,7 +6772,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" ht="32">
+    <row r="122" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="30" t="s">
         <v>224</v>
       </c>
@@ -6793,7 +6805,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:25" ht="48">
+    <row r="123" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="30" t="s">
         <v>225</v>
       </c>
@@ -6826,7 +6838,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:25" ht="32">
+    <row r="124" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="30" t="s">
         <v>226</v>
       </c>
@@ -6859,7 +6871,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="30" t="s">
         <v>228</v>
       </c>
@@ -6892,7 +6904,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:25" ht="32">
+    <row r="126" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="30" t="s">
         <v>230</v>
       </c>
@@ -6925,7 +6937,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:25" ht="32">
+    <row r="127" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="30" t="s">
         <v>232</v>
       </c>
@@ -6958,7 +6970,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:25" ht="32">
+    <row r="128" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="30" t="s">
         <v>234</v>
       </c>
@@ -6991,7 +7003,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:25" ht="32">
+    <row r="129" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="30" t="s">
         <v>236</v>
       </c>
@@ -7024,7 +7036,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
         <v>238</v>
       </c>
@@ -7057,7 +7069,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="30" t="s">
         <v>240</v>
       </c>
@@ -7090,7 +7102,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="54"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -7117,7 +7129,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="46" t="s">
         <v>242</v>
       </c>
@@ -7146,8 +7158,8 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A134" s="52" t="s">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="43" t="s">
         <v>243</v>
       </c>
       <c r="B134" s="44"/>
@@ -7175,7 +7187,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:25" ht="32">
+    <row r="135" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="30" t="s">
         <v>244</v>
       </c>
@@ -7214,8 +7226,8 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A136" s="43"/>
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="47"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -7241,7 +7253,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="46" t="s">
         <v>248</v>
       </c>
@@ -7270,8 +7282,8 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A138" s="52" t="s">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="43" t="s">
         <v>249</v>
       </c>
       <c r="B138" s="44"/>
@@ -7299,7 +7311,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:25" ht="32">
+    <row r="139" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="16" t="s">
         <v>250</v>
       </c>
@@ -7332,7 +7344,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:25" ht="32">
+    <row r="140" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="30" t="s">
         <v>252</v>
       </c>
@@ -7371,7 +7383,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="s">
         <v>257</v>
       </c>
@@ -7404,7 +7416,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="30" t="s">
         <v>259</v>
       </c>
@@ -7443,7 +7455,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="30" t="s">
         <v>261</v>
       </c>
@@ -7476,7 +7488,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:25" ht="32">
+    <row r="144" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="30" t="s">
         <v>263</v>
       </c>
@@ -7509,7 +7521,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:25" ht="32">
+    <row r="145" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="30" t="s">
         <v>265</v>
       </c>
@@ -7548,8 +7560,8 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A146" s="43"/>
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="47"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -7575,7 +7587,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="46" t="s">
         <v>267</v>
       </c>
@@ -7604,8 +7616,8 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A148" s="52" t="s">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B148" s="44"/>
@@ -7633,7 +7645,7 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:25" ht="32">
+    <row r="149" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="30" t="s">
         <v>269</v>
       </c>
@@ -7672,7 +7684,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:25" ht="32">
+    <row r="150" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="30" t="s">
         <v>274</v>
       </c>
@@ -7711,8 +7723,8 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A151" s="43"/>
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="47"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44"/>
@@ -7738,7 +7750,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="46" t="s">
         <v>276</v>
       </c>
@@ -7767,8 +7779,8 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A153" s="52" t="s">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="43" t="s">
         <v>277</v>
       </c>
       <c r="B153" s="44"/>
@@ -7796,7 +7808,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="30" t="s">
         <v>278</v>
       </c>
@@ -7833,7 +7845,7 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:25" ht="32">
+    <row r="155" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="30" t="s">
         <v>282</v>
       </c>
@@ -7872,7 +7884,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
         <v>286</v>
       </c>
@@ -7911,7 +7923,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
         <v>290</v>
       </c>
@@ -7950,7 +7962,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:25" ht="32">
+    <row r="158" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
         <v>294</v>
       </c>
@@ -7989,7 +8001,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
         <v>298</v>
       </c>
@@ -8028,7 +8040,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
         <v>300</v>
       </c>
@@ -8061,7 +8073,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:25" ht="32">
+    <row r="161" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
         <v>302</v>
       </c>
@@ -8094,7 +8106,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
         <v>304</v>
       </c>
@@ -8127,7 +8139,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:25" ht="32">
+    <row r="163" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
         <v>306</v>
       </c>
@@ -8160,7 +8172,7 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:25" ht="32">
+    <row r="164" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="30" t="s">
         <v>308</v>
       </c>
@@ -8201,7 +8213,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:25" ht="32">
+    <row r="165" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="30" t="s">
         <v>313</v>
       </c>
@@ -8240,7 +8252,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="30" t="s">
         <v>315</v>
       </c>
@@ -8279,7 +8291,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:25" ht="32">
+    <row r="167" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="30" t="s">
         <v>318</v>
       </c>
@@ -8318,7 +8330,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="30" t="s">
         <v>322</v>
       </c>
@@ -8353,8 +8365,8 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A169" s="43"/>
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="47"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
       <c r="D169" s="44"/>
@@ -8380,7 +8392,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="46" t="s">
         <v>324</v>
       </c>
@@ -8409,8 +8421,8 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A171" s="52" t="s">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="43" t="s">
         <v>325</v>
       </c>
       <c r="B171" s="44"/>
@@ -8438,7 +8450,7 @@
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
     </row>
-    <row r="172" spans="1:25" ht="48" customHeight="1">
+    <row r="172" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="30" t="s">
         <v>326</v>
       </c>
@@ -8477,7 +8489,7 @@
       <c r="X172" s="5"/>
       <c r="Y172" s="5"/>
     </row>
-    <row r="173" spans="1:25" ht="32">
+    <row r="173" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="30" t="s">
         <v>330</v>
       </c>
@@ -8516,7 +8528,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="30" t="s">
         <v>334</v>
       </c>
@@ -8549,7 +8561,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="30" t="s">
         <v>336</v>
       </c>
@@ -8582,8 +8594,8 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A176" s="43"/>
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="47"/>
       <c r="B176" s="44"/>
       <c r="C176" s="44"/>
       <c r="D176" s="44"/>
@@ -8609,7 +8621,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="46" t="s">
         <v>338</v>
       </c>
@@ -8638,8 +8650,8 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A178" s="52" t="s">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="43" t="s">
         <v>339</v>
       </c>
       <c r="B178" s="44"/>
@@ -8667,7 +8679,7 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="30" t="s">
         <v>340</v>
       </c>
@@ -8700,7 +8712,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="30" t="s">
         <v>342</v>
       </c>
@@ -8733,7 +8745,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="30" t="s">
         <v>344</v>
       </c>
@@ -8766,7 +8778,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="30" t="s">
         <v>346</v>
       </c>
@@ -8799,7 +8811,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:25" ht="32">
+    <row r="183" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="30" t="s">
         <v>348</v>
       </c>
@@ -8832,7 +8844,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:25" ht="32">
+    <row r="184" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="30" t="s">
         <v>350</v>
       </c>
@@ -8865,7 +8877,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="30" t="s">
         <v>352</v>
       </c>
@@ -8898,7 +8910,7 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="30" t="s">
         <v>354</v>
       </c>
@@ -8931,7 +8943,7 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="30" t="s">
         <v>356</v>
       </c>
@@ -8964,7 +8976,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="30" t="s">
         <v>358</v>
       </c>
@@ -8997,7 +9009,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="30" t="s">
         <v>360</v>
       </c>
@@ -9032,7 +9044,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:25" ht="32">
+    <row r="190" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="30" t="s">
         <v>363</v>
       </c>
@@ -9065,7 +9077,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="30" t="s">
         <v>365</v>
       </c>
@@ -9098,7 +9110,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:25" ht="32">
+    <row r="192" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="30" t="s">
         <v>367</v>
       </c>
@@ -9131,7 +9143,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="30" t="s">
         <v>369</v>
       </c>
@@ -9164,7 +9176,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="30" t="s">
         <v>371</v>
       </c>
@@ -9197,7 +9209,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="30" t="s">
         <v>373</v>
       </c>
@@ -9230,7 +9242,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="30" t="s">
         <v>375</v>
       </c>
@@ -9263,7 +9275,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:25" ht="32">
+    <row r="197" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="30" t="s">
         <v>377</v>
       </c>
@@ -9296,7 +9308,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="54"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
@@ -9323,7 +9335,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="46" t="s">
         <v>379</v>
       </c>
@@ -9352,8 +9364,8 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A200" s="52" t="s">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="43" t="s">
         <v>380</v>
       </c>
       <c r="B200" s="44"/>
@@ -9381,7 +9393,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:25" ht="32">
+    <row r="201" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="30" t="s">
         <v>381</v>
       </c>
@@ -9420,7 +9432,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:25" ht="32">
+    <row r="202" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="16" t="s">
         <v>384</v>
       </c>
@@ -9459,7 +9471,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:25" ht="32">
+    <row r="203" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="30" t="s">
         <v>386</v>
       </c>
@@ -9498,7 +9510,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:25" ht="32">
+    <row r="204" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="30" t="s">
         <v>389</v>
       </c>
@@ -9537,7 +9549,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:25" ht="32">
+    <row r="205" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="30" t="s">
         <v>391</v>
       </c>
@@ -9576,7 +9588,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="31" t="s">
         <v>395</v>
       </c>
@@ -9609,7 +9621,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="30" t="s">
         <v>397</v>
       </c>
@@ -9644,7 +9656,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:25" ht="32">
+    <row r="208" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="30" t="s">
         <v>399</v>
       </c>
@@ -9683,7 +9695,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="30" t="s">
         <v>401</v>
       </c>
@@ -9716,7 +9728,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="30" t="s">
         <v>403</v>
       </c>
@@ -9749,7 +9761,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="30" t="s">
         <v>405</v>
       </c>
@@ -9788,7 +9800,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="30" t="s">
         <v>407</v>
       </c>
@@ -9827,7 +9839,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="30" t="s">
         <v>409</v>
       </c>
@@ -9866,7 +9878,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="30" t="s">
         <v>411</v>
       </c>
@@ -9899,7 +9911,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="30" t="s">
         <v>413</v>
       </c>
@@ -9932,7 +9944,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="30" t="s">
         <v>415</v>
       </c>
@@ -9965,7 +9977,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="30" t="s">
         <v>417</v>
       </c>
@@ -9998,8 +10010,8 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A218" s="43"/>
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="47"/>
       <c r="B218" s="44"/>
       <c r="C218" s="44"/>
       <c r="D218" s="44"/>
@@ -10025,7 +10037,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="46" t="s">
         <v>419</v>
       </c>
@@ -10054,8 +10066,8 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A220" s="52" t="s">
+    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="43" t="s">
         <v>420</v>
       </c>
       <c r="B220" s="44"/>
@@ -10083,7 +10095,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1">
+    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="16" t="s">
         <v>421</v>
       </c>
@@ -10122,7 +10134,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:25" ht="32">
+    <row r="222" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="16" t="s">
         <v>426</v>
       </c>
@@ -10161,7 +10173,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:25" ht="34" customHeight="1">
+    <row r="223" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="16" t="s">
         <v>428</v>
       </c>
@@ -10200,7 +10212,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:25" ht="32">
+    <row r="224" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="16" t="s">
         <v>430</v>
       </c>
@@ -10239,8 +10251,8 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A225" s="43"/>
+    <row r="225" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="47"/>
       <c r="B225" s="44"/>
       <c r="C225" s="44"/>
       <c r="D225" s="44"/>
@@ -10266,7 +10278,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:25" ht="15.75" customHeight="1">
+    <row r="226" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="46" t="s">
         <v>432</v>
       </c>
@@ -10295,8 +10307,8 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A227" s="52" t="s">
+    <row r="227" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="43" t="s">
         <v>433</v>
       </c>
       <c r="B227" s="44"/>
@@ -10324,7 +10336,7 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="228" spans="1:25" ht="32">
+    <row r="228" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="16" t="s">
         <v>434</v>
       </c>
@@ -10363,7 +10375,7 @@
       <c r="X228" s="5"/>
       <c r="Y228" s="5"/>
     </row>
-    <row r="229" spans="1:25" ht="32">
+    <row r="229" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="16" t="s">
         <v>438</v>
       </c>
@@ -10402,7 +10414,7 @@
       <c r="X229" s="5"/>
       <c r="Y229" s="5"/>
     </row>
-    <row r="230" spans="1:25" ht="32">
+    <row r="230" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="16" t="s">
         <v>442</v>
       </c>
@@ -10443,7 +10455,7 @@
       <c r="X230" s="5"/>
       <c r="Y230" s="5"/>
     </row>
-    <row r="231" spans="1:25" ht="15.75" customHeight="1">
+    <row r="231" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="16" t="s">
         <v>445</v>
       </c>
@@ -10482,8 +10494,8 @@
       <c r="X231" s="5"/>
       <c r="Y231" s="5"/>
     </row>
-    <row r="232" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A232" s="53"/>
+    <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="52"/>
       <c r="B232" s="44"/>
       <c r="C232" s="44"/>
       <c r="D232" s="44"/>
@@ -10509,7 +10521,7 @@
       <c r="X232" s="5"/>
       <c r="Y232" s="5"/>
     </row>
-    <row r="233" spans="1:25" ht="17.25" customHeight="1">
+    <row r="233" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="46" t="s">
         <v>447</v>
       </c>
@@ -10538,8 +10550,8 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="5"/>
     </row>
-    <row r="234" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A234" s="52" t="s">
+    <row r="234" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="43" t="s">
         <v>448</v>
       </c>
       <c r="B234" s="44"/>
@@ -10567,7 +10579,7 @@
       <c r="X234" s="5"/>
       <c r="Y234" s="5"/>
     </row>
-    <row r="235" spans="1:25" ht="15.75" customHeight="1">
+    <row r="235" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="16" t="s">
         <v>449</v>
       </c>
@@ -10600,7 +10612,7 @@
       <c r="X235" s="5"/>
       <c r="Y235" s="5"/>
     </row>
-    <row r="236" spans="1:25" ht="15.75" customHeight="1">
+    <row r="236" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="31" t="s">
         <v>451</v>
       </c>
@@ -10633,7 +10645,7 @@
       <c r="X236" s="5"/>
       <c r="Y236" s="5"/>
     </row>
-    <row r="237" spans="1:25" ht="15.75" customHeight="1">
+    <row r="237" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="31" t="s">
         <v>453</v>
       </c>
@@ -10666,7 +10678,7 @@
       <c r="X237" s="5"/>
       <c r="Y237" s="5"/>
     </row>
-    <row r="238" spans="1:25" ht="15.75" customHeight="1">
+    <row r="238" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="31" t="s">
         <v>455</v>
       </c>
@@ -10699,7 +10711,7 @@
       <c r="X238" s="5"/>
       <c r="Y238" s="5"/>
     </row>
-    <row r="239" spans="1:25" ht="15.75" customHeight="1">
+    <row r="239" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="31" t="s">
         <v>457</v>
       </c>
@@ -10732,7 +10744,7 @@
       <c r="X239" s="5"/>
       <c r="Y239" s="5"/>
     </row>
-    <row r="240" spans="1:25" ht="15.75" customHeight="1">
+    <row r="240" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="31" t="s">
         <v>459</v>
       </c>
@@ -10765,7 +10777,7 @@
       <c r="X240" s="5"/>
       <c r="Y240" s="5"/>
     </row>
-    <row r="241" spans="1:25" ht="32">
+    <row r="241" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="16" t="s">
         <v>461</v>
       </c>
@@ -10798,7 +10810,7 @@
       <c r="X241" s="5"/>
       <c r="Y241" s="5"/>
     </row>
-    <row r="242" spans="1:25" ht="15.75" customHeight="1">
+    <row r="242" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="16" t="s">
         <v>463</v>
       </c>
@@ -10831,7 +10843,7 @@
       <c r="X242" s="5"/>
       <c r="Y242" s="5"/>
     </row>
-    <row r="243" spans="1:25" ht="15.75" customHeight="1">
+    <row r="243" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="16" t="s">
         <v>465</v>
       </c>
@@ -10864,7 +10876,7 @@
       <c r="X243" s="5"/>
       <c r="Y243" s="5"/>
     </row>
-    <row r="244" spans="1:25" ht="15.75" customHeight="1">
+    <row r="244" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="16" t="s">
         <v>467</v>
       </c>
@@ -10897,7 +10909,7 @@
       <c r="X244" s="5"/>
       <c r="Y244" s="5"/>
     </row>
-    <row r="245" spans="1:25" ht="15.75" customHeight="1">
+    <row r="245" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="16" t="s">
         <v>469</v>
       </c>
@@ -10930,7 +10942,7 @@
       <c r="X245" s="5"/>
       <c r="Y245" s="5"/>
     </row>
-    <row r="246" spans="1:25" ht="32">
+    <row r="246" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="16" t="s">
         <v>471</v>
       </c>
@@ -10963,7 +10975,7 @@
       <c r="X246" s="5"/>
       <c r="Y246" s="5"/>
     </row>
-    <row r="247" spans="1:25" ht="15.75" customHeight="1">
+    <row r="247" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="16" t="s">
         <v>473</v>
       </c>
@@ -10996,8 +11008,8 @@
       <c r="X247" s="5"/>
       <c r="Y247" s="5"/>
     </row>
-    <row r="248" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A248" s="43"/>
+    <row r="248" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="47"/>
       <c r="B248" s="44"/>
       <c r="C248" s="44"/>
       <c r="D248" s="44"/>
@@ -11023,7 +11035,7 @@
       <c r="X248" s="5"/>
       <c r="Y248" s="5"/>
     </row>
-    <row r="249" spans="1:25" ht="15.75" customHeight="1">
+    <row r="249" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="46" t="s">
         <v>475</v>
       </c>
@@ -11052,8 +11064,8 @@
       <c r="X249" s="5"/>
       <c r="Y249" s="5"/>
     </row>
-    <row r="250" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A250" s="52" t="s">
+    <row r="250" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="43" t="s">
         <v>476</v>
       </c>
       <c r="B250" s="44"/>
@@ -11081,7 +11093,7 @@
       <c r="X250" s="5"/>
       <c r="Y250" s="5"/>
     </row>
-    <row r="251" spans="1:25" ht="15.75" customHeight="1">
+    <row r="251" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16" t="s">
         <v>477</v>
       </c>
@@ -11120,7 +11132,7 @@
       <c r="X251" s="5"/>
       <c r="Y251" s="5"/>
     </row>
-    <row r="252" spans="1:25" ht="15.75" customHeight="1">
+    <row r="252" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16" t="s">
         <v>482</v>
       </c>
@@ -11159,12 +11171,12 @@
       <c r="X252" s="5"/>
       <c r="Y252" s="5"/>
     </row>
-    <row r="253" spans="1:25" ht="16">
+    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="16" t="s">
         <v>486</v>
       </c>
       <c r="B253" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C253" s="23" t="s">
         <v>35</v>
@@ -11192,7 +11204,7 @@
       <c r="X253" s="5"/>
       <c r="Y253" s="5"/>
     </row>
-    <row r="254" spans="1:25" ht="32">
+    <row r="254" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="16" t="s">
         <v>487</v>
       </c>
@@ -11225,7 +11237,7 @@
       <c r="X254" s="5"/>
       <c r="Y254" s="5"/>
     </row>
-    <row r="255" spans="1:25" ht="48">
+    <row r="255" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="16" t="s">
         <v>489</v>
       </c>
@@ -11264,7 +11276,7 @@
       <c r="X255" s="5"/>
       <c r="Y255" s="5"/>
     </row>
-    <row r="256" spans="1:25" ht="33" customHeight="1">
+    <row r="256" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16" t="s">
         <v>491</v>
       </c>
@@ -11303,7 +11315,7 @@
       <c r="X256" s="5"/>
       <c r="Y256" s="5"/>
     </row>
-    <row r="257" spans="1:25" ht="32">
+    <row r="257" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="16" t="s">
         <v>495</v>
       </c>
@@ -11342,7 +11354,7 @@
       <c r="X257" s="5"/>
       <c r="Y257" s="5"/>
     </row>
-    <row r="258" spans="1:25" ht="15.75" customHeight="1">
+    <row r="258" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="16" t="s">
         <v>498</v>
       </c>
@@ -11381,7 +11393,7 @@
       <c r="X258" s="5"/>
       <c r="Y258" s="5"/>
     </row>
-    <row r="259" spans="1:25" ht="32">
+    <row r="259" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A259" s="16" t="s">
         <v>500</v>
       </c>
@@ -11420,7 +11432,7 @@
       <c r="X259" s="5"/>
       <c r="Y259" s="5"/>
     </row>
-    <row r="260" spans="1:25" ht="32">
+    <row r="260" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="16" t="s">
         <v>502</v>
       </c>
@@ -11459,7 +11471,7 @@
       <c r="X260" s="5"/>
       <c r="Y260" s="5"/>
     </row>
-    <row r="261" spans="1:25" ht="32">
+    <row r="261" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="16" t="s">
         <v>504</v>
       </c>
@@ -11498,7 +11510,7 @@
       <c r="X261" s="5"/>
       <c r="Y261" s="5"/>
     </row>
-    <row r="262" spans="1:25" ht="32">
+    <row r="262" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="16" t="s">
         <v>506</v>
       </c>
@@ -11537,7 +11549,7 @@
       <c r="X262" s="5"/>
       <c r="Y262" s="5"/>
     </row>
-    <row r="263" spans="1:25" ht="32">
+    <row r="263" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="16" t="s">
         <v>508</v>
       </c>
@@ -11576,7 +11588,7 @@
       <c r="X263" s="5"/>
       <c r="Y263" s="5"/>
     </row>
-    <row r="264" spans="1:25" ht="32">
+    <row r="264" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="16" t="s">
         <v>511</v>
       </c>
@@ -11615,7 +11627,7 @@
       <c r="X264" s="5"/>
       <c r="Y264" s="5"/>
     </row>
-    <row r="265" spans="1:25" ht="48">
+    <row r="265" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A265" s="16" t="s">
         <v>514</v>
       </c>
@@ -11654,7 +11666,7 @@
       <c r="X265" s="5"/>
       <c r="Y265" s="5"/>
     </row>
-    <row r="266" spans="1:25" ht="32">
+    <row r="266" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="16" t="s">
         <v>516</v>
       </c>
@@ -11687,7 +11699,7 @@
       <c r="X266" s="5"/>
       <c r="Y266" s="5"/>
     </row>
-    <row r="267" spans="1:25" ht="32">
+    <row r="267" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="16" t="s">
         <v>518</v>
       </c>
@@ -11720,7 +11732,7 @@
       <c r="X267" s="5"/>
       <c r="Y267" s="5"/>
     </row>
-    <row r="268" spans="1:25" ht="32">
+    <row r="268" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="16" t="s">
         <v>520</v>
       </c>
@@ -11753,7 +11765,7 @@
       <c r="X268" s="5"/>
       <c r="Y268" s="5"/>
     </row>
-    <row r="269" spans="1:25" ht="15.75" customHeight="1">
+    <row r="269" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="16" t="s">
         <v>522</v>
       </c>
@@ -11786,7 +11798,7 @@
       <c r="X269" s="5"/>
       <c r="Y269" s="5"/>
     </row>
-    <row r="270" spans="1:25" ht="15.75" customHeight="1">
+    <row r="270" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="16" t="s">
         <v>524</v>
       </c>
@@ -11819,7 +11831,7 @@
       <c r="X270" s="5"/>
       <c r="Y270" s="5"/>
     </row>
-    <row r="271" spans="1:25" ht="15.75" customHeight="1">
+    <row r="271" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16" t="s">
         <v>526</v>
       </c>
@@ -11852,23 +11864,23 @@
       <c r="X271" s="5"/>
       <c r="Y271" s="5"/>
     </row>
-    <row r="272" spans="1:25" ht="32">
-      <c r="A272" s="16" t="s">
+    <row r="272" spans="1:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="62" t="s">
+        <v>630</v>
+      </c>
+      <c r="C272" s="61" t="s">
         <v>529</v>
       </c>
-      <c r="C272" s="23" t="s">
+      <c r="D272" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="D272" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="20"/>
+      <c r="E272" s="63"/>
+      <c r="F272" s="63"/>
+      <c r="G272" s="63"/>
+      <c r="H272" s="31"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
@@ -11887,8 +11899,8 @@
       <c r="X272" s="5"/>
       <c r="Y272" s="5"/>
     </row>
-    <row r="273" spans="1:25">
-      <c r="A273" s="55"/>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A273" s="56"/>
       <c r="B273" s="44"/>
       <c r="C273" s="44"/>
       <c r="D273" s="44"/>
@@ -11897,9 +11909,9 @@
       <c r="G273" s="44"/>
       <c r="H273" s="45"/>
     </row>
-    <row r="274" spans="1:25" ht="15.75" customHeight="1">
+    <row r="274" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="46" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B274" s="44"/>
       <c r="C274" s="44"/>
@@ -11926,9 +11938,9 @@
       <c r="X274" s="5"/>
       <c r="Y274" s="5"/>
     </row>
-    <row r="275" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A275" s="52" t="s">
-        <v>533</v>
+    <row r="275" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="43" t="s">
+        <v>532</v>
       </c>
       <c r="B275" s="44"/>
       <c r="C275" s="44"/>
@@ -11955,25 +11967,25 @@
       <c r="X275" s="5"/>
       <c r="Y275" s="5"/>
     </row>
-    <row r="276" spans="1:25" ht="15.75" customHeight="1">
+    <row r="276" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B276" s="17" t="s">
         <v>534</v>
-      </c>
-      <c r="B276" s="17" t="s">
-        <v>535</v>
       </c>
       <c r="C276" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D276" s="19"/>
       <c r="E276" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F276" s="4" t="s">
+      <c r="G276" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="H276" s="20"/>
       <c r="I276" s="5"/>
@@ -11994,27 +12006,27 @@
       <c r="X276" s="5"/>
       <c r="Y276" s="5"/>
     </row>
-    <row r="277" spans="1:25" ht="32">
+    <row r="277" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="B277" s="17" t="s">
         <v>539</v>
-      </c>
-      <c r="B277" s="17" t="s">
-        <v>540</v>
       </c>
       <c r="C277" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D277" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F277" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E277" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F277" s="4" t="s">
+      <c r="G277" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="H277" s="20"/>
       <c r="I277" s="5"/>
@@ -12035,25 +12047,25 @@
       <c r="X277" s="5"/>
       <c r="Y277" s="5"/>
     </row>
-    <row r="278" spans="1:25" ht="15.75" customHeight="1">
+    <row r="278" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" s="17" t="s">
         <v>544</v>
-      </c>
-      <c r="B278" s="17" t="s">
-        <v>545</v>
       </c>
       <c r="C278" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D278" s="19"/>
       <c r="E278" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F278" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G278" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="H278" s="20"/>
       <c r="I278" s="5"/>
@@ -12074,12 +12086,12 @@
       <c r="X278" s="5"/>
       <c r="Y278" s="5"/>
     </row>
-    <row r="279" spans="1:25" ht="15.75" customHeight="1">
+    <row r="279" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" s="17" t="s">
         <v>548</v>
-      </c>
-      <c r="B279" s="17" t="s">
-        <v>549</v>
       </c>
       <c r="C279" s="23" t="s">
         <v>44</v>
@@ -12107,12 +12119,12 @@
       <c r="X279" s="5"/>
       <c r="Y279" s="5"/>
     </row>
-    <row r="280" spans="1:25" ht="32">
+    <row r="280" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B280" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="B280" s="17" t="s">
-        <v>551</v>
       </c>
       <c r="C280" s="23" t="s">
         <v>35</v>
@@ -12140,8 +12152,8 @@
       <c r="X280" s="5"/>
       <c r="Y280" s="5"/>
     </row>
-    <row r="281" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A281" s="53"/>
+    <row r="281" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="52"/>
       <c r="B281" s="44"/>
       <c r="C281" s="44"/>
       <c r="D281" s="44"/>
@@ -12167,9 +12179,9 @@
       <c r="X281" s="5"/>
       <c r="Y281" s="5"/>
     </row>
-    <row r="282" spans="1:25" ht="15.75" customHeight="1">
+    <row r="282" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B282" s="44"/>
       <c r="C282" s="44"/>
@@ -12196,9 +12208,9 @@
       <c r="X282" s="5"/>
       <c r="Y282" s="5"/>
     </row>
-    <row r="283" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A283" s="52" t="s">
-        <v>553</v>
+    <row r="283" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="43" t="s">
+        <v>552</v>
       </c>
       <c r="B283" s="44"/>
       <c r="C283" s="44"/>
@@ -12225,25 +12237,25 @@
       <c r="X283" s="5"/>
       <c r="Y283" s="5"/>
     </row>
-    <row r="284" spans="1:25" ht="15.75" customHeight="1">
+    <row r="284" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="B284" s="17" t="s">
         <v>554</v>
-      </c>
-      <c r="B284" s="17" t="s">
-        <v>555</v>
       </c>
       <c r="C284" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D284" s="19"/>
       <c r="E284" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H284" s="20"/>
       <c r="I284" s="5"/>
@@ -12264,12 +12276,12 @@
       <c r="X284" s="5"/>
       <c r="Y284" s="5"/>
     </row>
-    <row r="285" spans="1:25" ht="15.75" customHeight="1">
+    <row r="285" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B285" s="17" t="s">
         <v>558</v>
-      </c>
-      <c r="B285" s="17" t="s">
-        <v>559</v>
       </c>
       <c r="C285" s="23" t="s">
         <v>44</v>
@@ -12297,12 +12309,12 @@
       <c r="X285" s="5"/>
       <c r="Y285" s="5"/>
     </row>
-    <row r="286" spans="1:25" ht="15.75" customHeight="1">
+    <row r="286" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B286" s="17" t="s">
         <v>560</v>
-      </c>
-      <c r="B286" s="17" t="s">
-        <v>561</v>
       </c>
       <c r="C286" s="23" t="s">
         <v>44</v>
@@ -12330,12 +12342,12 @@
       <c r="X286" s="5"/>
       <c r="Y286" s="5"/>
     </row>
-    <row r="287" spans="1:25" ht="15.75" customHeight="1">
+    <row r="287" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B287" s="17" t="s">
         <v>562</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>563</v>
       </c>
       <c r="C287" s="23" t="s">
         <v>44</v>
@@ -12363,25 +12375,25 @@
       <c r="X287" s="5"/>
       <c r="Y287" s="5"/>
     </row>
-    <row r="288" spans="1:25" ht="15.75" customHeight="1">
+    <row r="288" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B288" s="17" t="s">
         <v>564</v>
-      </c>
-      <c r="B288" s="17" t="s">
-        <v>565</v>
       </c>
       <c r="C288" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D288" s="19"/>
       <c r="E288" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H288" s="20"/>
       <c r="I288" s="5"/>
@@ -12402,12 +12414,12 @@
       <c r="X288" s="5"/>
       <c r="Y288" s="5"/>
     </row>
-    <row r="289" spans="1:25" ht="15.75" customHeight="1">
+    <row r="289" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B289" s="17" t="s">
         <v>566</v>
-      </c>
-      <c r="B289" s="17" t="s">
-        <v>567</v>
       </c>
       <c r="C289" s="23" t="s">
         <v>35</v>
@@ -12435,12 +12447,12 @@
       <c r="X289" s="5"/>
       <c r="Y289" s="5"/>
     </row>
-    <row r="290" spans="1:25" ht="15.75" customHeight="1">
+    <row r="290" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B290" s="17" t="s">
         <v>568</v>
-      </c>
-      <c r="B290" s="17" t="s">
-        <v>569</v>
       </c>
       <c r="C290" s="23" t="s">
         <v>35</v>
@@ -12468,8 +12480,8 @@
       <c r="X290" s="5"/>
       <c r="Y290" s="5"/>
     </row>
-    <row r="291" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A291" s="43"/>
+    <row r="291" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="47"/>
       <c r="B291" s="44"/>
       <c r="C291" s="44"/>
       <c r="D291" s="44"/>
@@ -12495,9 +12507,9 @@
       <c r="X291" s="5"/>
       <c r="Y291" s="5"/>
     </row>
-    <row r="292" spans="1:25" ht="15.75" customHeight="1">
+    <row r="292" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B292" s="44"/>
       <c r="C292" s="44"/>
@@ -12524,9 +12536,9 @@
       <c r="X292" s="5"/>
       <c r="Y292" s="5"/>
     </row>
-    <row r="293" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A293" s="52" t="s">
-        <v>571</v>
+    <row r="293" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="43" t="s">
+        <v>570</v>
       </c>
       <c r="B293" s="44"/>
       <c r="C293" s="44"/>
@@ -12553,19 +12565,19 @@
       <c r="X293" s="5"/>
       <c r="Y293" s="5"/>
     </row>
-    <row r="294" spans="1:25" ht="32">
+    <row r="294" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B294" s="17" t="s">
         <v>572</v>
-      </c>
-      <c r="B294" s="17" t="s">
-        <v>573</v>
       </c>
       <c r="C294" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D294" s="19"/>
       <c r="E294" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F294" s="4" t="s">
         <v>320</v>
@@ -12592,19 +12604,19 @@
       <c r="X294" s="5"/>
       <c r="Y294" s="5"/>
     </row>
-    <row r="295" spans="1:25" ht="32">
+    <row r="295" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A295" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="B295" s="17" t="s">
         <v>575</v>
-      </c>
-      <c r="B295" s="17" t="s">
-        <v>576</v>
       </c>
       <c r="C295" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D295" s="19"/>
       <c r="E295" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F295" s="4" t="s">
         <v>320</v>
@@ -12631,12 +12643,12 @@
       <c r="X295" s="5"/>
       <c r="Y295" s="5"/>
     </row>
-    <row r="296" spans="1:25" ht="15.75" customHeight="1">
+    <row r="296" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>577</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>578</v>
       </c>
       <c r="C296" s="23" t="s">
         <v>35</v>
@@ -12664,19 +12676,19 @@
       <c r="X296" s="5"/>
       <c r="Y296" s="5"/>
     </row>
-    <row r="297" spans="1:25" ht="32">
+    <row r="297" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="B297" s="17" t="s">
         <v>579</v>
-      </c>
-      <c r="B297" s="17" t="s">
-        <v>580</v>
       </c>
       <c r="C297" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D297" s="19"/>
       <c r="E297" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F297" s="4" t="s">
         <v>320</v>
@@ -12703,19 +12715,19 @@
       <c r="X297" s="5"/>
       <c r="Y297" s="5"/>
     </row>
-    <row r="298" spans="1:25" ht="15.75" customHeight="1">
+    <row r="298" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B298" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="B298" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="C298" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D298" s="19"/>
       <c r="E298" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F298" s="4" t="s">
         <v>320</v>
@@ -12742,12 +12754,12 @@
       <c r="X298" s="5"/>
       <c r="Y298" s="5"/>
     </row>
-    <row r="299" spans="1:25" ht="15.75" customHeight="1">
+    <row r="299" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B299" s="24" t="s">
         <v>583</v>
-      </c>
-      <c r="B299" s="24" t="s">
-        <v>584</v>
       </c>
       <c r="C299" s="23" t="s">
         <v>35</v>
@@ -12775,8 +12787,8 @@
       <c r="X299" s="5"/>
       <c r="Y299" s="5"/>
     </row>
-    <row r="300" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A300" s="43"/>
+    <row r="300" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="47"/>
       <c r="B300" s="44"/>
       <c r="C300" s="44"/>
       <c r="D300" s="44"/>
@@ -12802,9 +12814,9 @@
       <c r="X300" s="5"/>
       <c r="Y300" s="5"/>
     </row>
-    <row r="301" spans="1:25" ht="15.75" customHeight="1">
+    <row r="301" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="46" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B301" s="44"/>
       <c r="C301" s="44"/>
@@ -12831,9 +12843,9 @@
       <c r="X301" s="5"/>
       <c r="Y301" s="5"/>
     </row>
-    <row r="302" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A302" s="52" t="s">
-        <v>586</v>
+    <row r="302" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="43" t="s">
+        <v>585</v>
       </c>
       <c r="B302" s="44"/>
       <c r="C302" s="44"/>
@@ -12860,25 +12872,25 @@
       <c r="X302" s="5"/>
       <c r="Y302" s="5"/>
     </row>
-    <row r="303" spans="1:25" ht="32">
+    <row r="303" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B303" s="17" t="s">
         <v>587</v>
-      </c>
-      <c r="B303" s="17" t="s">
-        <v>588</v>
       </c>
       <c r="C303" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D303" s="19"/>
       <c r="E303" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F303" s="4" t="s">
+      <c r="G303" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="G303" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="H303" s="20"/>
       <c r="I303" s="5"/>
@@ -12899,12 +12911,12 @@
       <c r="X303" s="5"/>
       <c r="Y303" s="5"/>
     </row>
-    <row r="304" spans="1:25" ht="15.75" customHeight="1">
+    <row r="304" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="B304" s="17" t="s">
-        <v>593</v>
       </c>
       <c r="C304" s="23" t="s">
         <v>35</v>
@@ -12932,8 +12944,8 @@
       <c r="X304" s="5"/>
       <c r="Y304" s="5"/>
     </row>
-    <row r="305" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A305" s="53"/>
+    <row r="305" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="52"/>
       <c r="B305" s="44"/>
       <c r="C305" s="44"/>
       <c r="D305" s="44"/>
@@ -12959,9 +12971,9 @@
       <c r="X305" s="5"/>
       <c r="Y305" s="5"/>
     </row>
-    <row r="306" spans="1:25" ht="15.75" customHeight="1">
+    <row r="306" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B306" s="44"/>
       <c r="C306" s="44"/>
@@ -12988,9 +13000,9 @@
       <c r="X306" s="5"/>
       <c r="Y306" s="5"/>
     </row>
-    <row r="307" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A307" s="52" t="s">
-        <v>595</v>
+    <row r="307" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="43" t="s">
+        <v>594</v>
       </c>
       <c r="B307" s="44"/>
       <c r="C307" s="44"/>
@@ -13017,12 +13029,12 @@
       <c r="X307" s="5"/>
       <c r="Y307" s="5"/>
     </row>
-    <row r="308" spans="1:25" ht="15.75" customHeight="1">
+    <row r="308" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B308" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="B308" s="17" t="s">
-        <v>597</v>
       </c>
       <c r="C308" s="23" t="s">
         <v>35</v>
@@ -13030,10 +13042,10 @@
       <c r="D308" s="19"/>
       <c r="E308" s="33"/>
       <c r="F308" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="G308" s="35" t="s">
         <v>598</v>
-      </c>
-      <c r="G308" s="35" t="s">
-        <v>599</v>
       </c>
       <c r="H308" s="20"/>
       <c r="I308" s="5"/>
@@ -13054,12 +13066,12 @@
       <c r="X308" s="5"/>
       <c r="Y308" s="5"/>
     </row>
-    <row r="309" spans="1:25" ht="32">
+    <row r="309" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A309" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B309" s="17" t="s">
         <v>600</v>
-      </c>
-      <c r="B309" s="17" t="s">
-        <v>601</v>
       </c>
       <c r="C309" s="23" t="s">
         <v>44</v>
@@ -13087,12 +13099,12 @@
       <c r="X309" s="5"/>
       <c r="Y309" s="5"/>
     </row>
-    <row r="310" spans="1:25" ht="15.75" customHeight="1">
+    <row r="310" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="B310" s="17" t="s">
         <v>602</v>
-      </c>
-      <c r="B310" s="17" t="s">
-        <v>603</v>
       </c>
       <c r="C310" s="23" t="s">
         <v>44</v>
@@ -13120,12 +13132,12 @@
       <c r="X310" s="5"/>
       <c r="Y310" s="5"/>
     </row>
-    <row r="311" spans="1:25" ht="32">
+    <row r="311" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A311" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B311" s="24" t="s">
         <v>604</v>
-      </c>
-      <c r="B311" s="24" t="s">
-        <v>605</v>
       </c>
       <c r="C311" s="23" t="s">
         <v>44</v>
@@ -13133,10 +13145,10 @@
       <c r="D311" s="19"/>
       <c r="E311" s="33"/>
       <c r="F311" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="G311" s="35" t="s">
         <v>598</v>
-      </c>
-      <c r="G311" s="35" t="s">
-        <v>599</v>
       </c>
       <c r="H311" s="20"/>
       <c r="I311" s="5"/>
@@ -13157,12 +13169,12 @@
       <c r="X311" s="5"/>
       <c r="Y311" s="5"/>
     </row>
-    <row r="312" spans="1:25" ht="32">
+    <row r="312" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A312" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="B312" s="17" t="s">
         <v>606</v>
-      </c>
-      <c r="B312" s="17" t="s">
-        <v>607</v>
       </c>
       <c r="C312" s="23" t="s">
         <v>44</v>
@@ -13190,12 +13202,12 @@
       <c r="X312" s="5"/>
       <c r="Y312" s="5"/>
     </row>
-    <row r="313" spans="1:25" ht="32">
+    <row r="313" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B313" s="17" t="s">
         <v>608</v>
-      </c>
-      <c r="B313" s="17" t="s">
-        <v>609</v>
       </c>
       <c r="C313" s="23" t="s">
         <v>44</v>
@@ -13223,8 +13235,8 @@
       <c r="X313" s="5"/>
       <c r="Y313" s="5"/>
     </row>
-    <row r="314" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A314" s="53"/>
+    <row r="314" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="52"/>
       <c r="B314" s="44"/>
       <c r="C314" s="44"/>
       <c r="D314" s="44"/>
@@ -13250,9 +13262,9 @@
       <c r="X314" s="5"/>
       <c r="Y314" s="5"/>
     </row>
-    <row r="315" spans="1:25" ht="15.75" customHeight="1">
+    <row r="315" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B315" s="44"/>
       <c r="C315" s="44"/>
@@ -13279,10 +13291,10 @@
       <c r="X315" s="5"/>
       <c r="Y315" s="5"/>
     </row>
-    <row r="316" spans="1:25" ht="15.75" customHeight="1">
+    <row r="316" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="37"/>
       <c r="B316" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C316" s="39"/>
       <c r="D316" s="39"/>
@@ -13308,9 +13320,9 @@
       <c r="X316" s="5"/>
       <c r="Y316" s="5"/>
     </row>
-    <row r="317" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A317" s="53" t="s">
-        <v>612</v>
+    <row r="317" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="52" t="s">
+        <v>611</v>
       </c>
       <c r="B317" s="44"/>
       <c r="C317" s="44"/>
@@ -13337,9 +13349,9 @@
       <c r="X317" s="5"/>
       <c r="Y317" s="5"/>
     </row>
-    <row r="318" spans="1:25" ht="15.75" customHeight="1">
+    <row r="318" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B318" s="44"/>
       <c r="C318" s="44"/>
@@ -13366,19 +13378,19 @@
       <c r="X318" s="5"/>
       <c r="Y318" s="5"/>
     </row>
-    <row r="319" spans="1:25">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="B319" s="55" t="s">
         <v>614</v>
-      </c>
-      <c r="B319" s="47" t="s">
-        <v>615</v>
       </c>
       <c r="C319" s="44"/>
       <c r="D319" s="45"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
-      <c r="H319" s="49"/>
+      <c r="H319" s="58"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
       <c r="K319" s="5"/>
@@ -13397,19 +13409,19 @@
       <c r="X319" s="5"/>
       <c r="Y319" s="5"/>
     </row>
-    <row r="320" spans="1:25">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="B320" s="55" t="s">
         <v>616</v>
-      </c>
-      <c r="B320" s="47" t="s">
-        <v>617</v>
       </c>
       <c r="C320" s="44"/>
       <c r="D320" s="45"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
-      <c r="H320" s="50"/>
+      <c r="H320" s="59"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
       <c r="K320" s="5"/>
@@ -13428,19 +13440,19 @@
       <c r="X320" s="5"/>
       <c r="Y320" s="5"/>
     </row>
-    <row r="321" spans="1:25" ht="15.75" customHeight="1">
+    <row r="321" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="B321" s="55" t="s">
         <v>618</v>
-      </c>
-      <c r="B321" s="47" t="s">
-        <v>619</v>
       </c>
       <c r="C321" s="44"/>
       <c r="D321" s="45"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
-      <c r="H321" s="50"/>
+      <c r="H321" s="59"/>
       <c r="I321" s="5"/>
       <c r="J321" s="5"/>
       <c r="K321" s="5"/>
@@ -13459,19 +13471,19 @@
       <c r="X321" s="5"/>
       <c r="Y321" s="5"/>
     </row>
-    <row r="322" spans="1:25" ht="15.75" customHeight="1">
+    <row r="322" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="B322" s="55" t="s">
         <v>620</v>
-      </c>
-      <c r="B322" s="47" t="s">
-        <v>621</v>
       </c>
       <c r="C322" s="44"/>
       <c r="D322" s="45"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
-      <c r="H322" s="50"/>
+      <c r="H322" s="59"/>
       <c r="I322" s="5"/>
       <c r="J322" s="5"/>
       <c r="K322" s="5"/>
@@ -13490,19 +13502,19 @@
       <c r="X322" s="5"/>
       <c r="Y322" s="5"/>
     </row>
-    <row r="323" spans="1:25" ht="15.75" customHeight="1">
+    <row r="323" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="B323" s="64" t="s">
         <v>622</v>
-      </c>
-      <c r="B323" s="47" t="s">
-        <v>623</v>
       </c>
       <c r="C323" s="44"/>
       <c r="D323" s="45"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
-      <c r="H323" s="50"/>
+      <c r="H323" s="59"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
       <c r="K323" s="5"/>
@@ -13521,19 +13533,19 @@
       <c r="X323" s="5"/>
       <c r="Y323" s="5"/>
     </row>
-    <row r="324" spans="1:25" ht="15.75" customHeight="1">
+    <row r="324" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="B324" s="55" t="s">
         <v>624</v>
-      </c>
-      <c r="B324" s="47" t="s">
-        <v>625</v>
       </c>
       <c r="C324" s="44"/>
       <c r="D324" s="45"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
-      <c r="H324" s="50"/>
+      <c r="H324" s="59"/>
       <c r="I324" s="5"/>
       <c r="J324" s="5"/>
       <c r="K324" s="5"/>
@@ -13552,19 +13564,19 @@
       <c r="X324" s="5"/>
       <c r="Y324" s="5"/>
     </row>
-    <row r="325" spans="1:25" ht="15.75" customHeight="1">
+    <row r="325" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="B325" s="57" t="s">
         <v>626</v>
-      </c>
-      <c r="B325" s="48" t="s">
-        <v>627</v>
       </c>
       <c r="C325" s="44"/>
       <c r="D325" s="45"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
-      <c r="H325" s="51"/>
+      <c r="H325" s="60"/>
       <c r="I325" s="5"/>
       <c r="J325" s="5"/>
       <c r="K325" s="5"/>
@@ -13583,7 +13595,7 @@
       <c r="X325" s="5"/>
       <c r="Y325" s="5"/>
     </row>
-    <row r="326" spans="1:25" ht="15.75" customHeight="1">
+    <row r="326" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="40"/>
       <c r="C326" s="41"/>
@@ -13610,7 +13622,7 @@
       <c r="X326" s="5"/>
       <c r="Y326" s="5"/>
     </row>
-    <row r="327" spans="1:25" ht="15.75" customHeight="1">
+    <row r="327" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="40"/>
       <c r="C327" s="41"/>
@@ -13637,7 +13649,7 @@
       <c r="X327" s="5"/>
       <c r="Y327" s="5"/>
     </row>
-    <row r="328" spans="1:25" ht="15.75" customHeight="1">
+    <row r="328" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="40"/>
       <c r="C328" s="41"/>
@@ -13664,7 +13676,7 @@
       <c r="X328" s="5"/>
       <c r="Y328" s="5"/>
     </row>
-    <row r="329" spans="1:25" ht="15.75" customHeight="1">
+    <row r="329" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="40"/>
       <c r="C329" s="41"/>
@@ -13691,7 +13703,7 @@
       <c r="X329" s="5"/>
       <c r="Y329" s="5"/>
     </row>
-    <row r="330" spans="1:25" ht="15.75" customHeight="1">
+    <row r="330" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="40"/>
       <c r="C330" s="41"/>
@@ -13718,7 +13730,7 @@
       <c r="X330" s="5"/>
       <c r="Y330" s="5"/>
     </row>
-    <row r="331" spans="1:25" ht="15.75" customHeight="1">
+    <row r="331" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="40"/>
       <c r="C331" s="41"/>
@@ -13745,7 +13757,7 @@
       <c r="X331" s="5"/>
       <c r="Y331" s="5"/>
     </row>
-    <row r="332" spans="1:25" ht="15.75" customHeight="1">
+    <row r="332" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="40"/>
       <c r="C332" s="41"/>
@@ -13772,7 +13784,7 @@
       <c r="X332" s="5"/>
       <c r="Y332" s="5"/>
     </row>
-    <row r="333" spans="1:25" ht="15.75" customHeight="1">
+    <row r="333" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="40"/>
       <c r="C333" s="41"/>
@@ -13799,7 +13811,7 @@
       <c r="X333" s="5"/>
       <c r="Y333" s="5"/>
     </row>
-    <row r="334" spans="1:25" ht="15.75" customHeight="1">
+    <row r="334" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="40"/>
       <c r="C334" s="41"/>
@@ -13826,7 +13838,7 @@
       <c r="X334" s="5"/>
       <c r="Y334" s="5"/>
     </row>
-    <row r="335" spans="1:25" ht="15.75" customHeight="1">
+    <row r="335" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="40"/>
       <c r="C335" s="41"/>
@@ -13853,7 +13865,7 @@
       <c r="X335" s="5"/>
       <c r="Y335" s="5"/>
     </row>
-    <row r="336" spans="1:25" ht="15.75" customHeight="1">
+    <row r="336" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="40"/>
       <c r="C336" s="41"/>
@@ -13880,7 +13892,7 @@
       <c r="X336" s="5"/>
       <c r="Y336" s="5"/>
     </row>
-    <row r="337" spans="1:25" ht="15.75" customHeight="1">
+    <row r="337" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="40"/>
       <c r="C337" s="41"/>
@@ -13907,7 +13919,7 @@
       <c r="X337" s="5"/>
       <c r="Y337" s="5"/>
     </row>
-    <row r="338" spans="1:25" ht="15.75" customHeight="1">
+    <row r="338" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="40"/>
       <c r="C338" s="41"/>
@@ -13934,7 +13946,7 @@
       <c r="X338" s="5"/>
       <c r="Y338" s="5"/>
     </row>
-    <row r="339" spans="1:25" ht="15.75" customHeight="1">
+    <row r="339" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="40"/>
       <c r="C339" s="41"/>
@@ -13961,7 +13973,7 @@
       <c r="X339" s="5"/>
       <c r="Y339" s="5"/>
     </row>
-    <row r="340" spans="1:25" ht="15.75" customHeight="1">
+    <row r="340" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="40"/>
       <c r="C340" s="41"/>
@@ -13988,7 +14000,7 @@
       <c r="X340" s="5"/>
       <c r="Y340" s="5"/>
     </row>
-    <row r="341" spans="1:25" ht="15.75" customHeight="1">
+    <row r="341" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="40"/>
       <c r="C341" s="41"/>
@@ -14015,7 +14027,7 @@
       <c r="X341" s="5"/>
       <c r="Y341" s="5"/>
     </row>
-    <row r="342" spans="1:25" ht="15.75" customHeight="1">
+    <row r="342" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="40"/>
       <c r="C342" s="41"/>
@@ -14042,7 +14054,7 @@
       <c r="X342" s="5"/>
       <c r="Y342" s="5"/>
     </row>
-    <row r="343" spans="1:25" ht="15.75" customHeight="1">
+    <row r="343" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="40"/>
       <c r="C343" s="41"/>
@@ -14069,7 +14081,7 @@
       <c r="X343" s="5"/>
       <c r="Y343" s="5"/>
     </row>
-    <row r="344" spans="1:25" ht="15.75" customHeight="1">
+    <row r="344" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="40"/>
       <c r="C344" s="41"/>
@@ -14096,7 +14108,7 @@
       <c r="X344" s="5"/>
       <c r="Y344" s="5"/>
     </row>
-    <row r="345" spans="1:25" ht="15.75" customHeight="1">
+    <row r="345" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="40"/>
       <c r="C345" s="41"/>
@@ -14123,7 +14135,7 @@
       <c r="X345" s="5"/>
       <c r="Y345" s="5"/>
     </row>
-    <row r="346" spans="1:25" ht="15.75" customHeight="1">
+    <row r="346" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="40"/>
       <c r="C346" s="41"/>
@@ -14150,7 +14162,7 @@
       <c r="X346" s="5"/>
       <c r="Y346" s="5"/>
     </row>
-    <row r="347" spans="1:25" ht="15.75" customHeight="1">
+    <row r="347" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="40"/>
       <c r="C347" s="41"/>
@@ -14177,7 +14189,7 @@
       <c r="X347" s="5"/>
       <c r="Y347" s="5"/>
     </row>
-    <row r="348" spans="1:25" ht="15.75" customHeight="1">
+    <row r="348" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="40"/>
       <c r="C348" s="41"/>
@@ -14204,7 +14216,7 @@
       <c r="X348" s="5"/>
       <c r="Y348" s="5"/>
     </row>
-    <row r="349" spans="1:25" ht="15.75" customHeight="1">
+    <row r="349" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="40"/>
       <c r="C349" s="41"/>
@@ -14231,7 +14243,7 @@
       <c r="X349" s="5"/>
       <c r="Y349" s="5"/>
     </row>
-    <row r="350" spans="1:25" ht="15.75" customHeight="1">
+    <row r="350" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="40"/>
       <c r="C350" s="41"/>
@@ -14258,7 +14270,7 @@
       <c r="X350" s="5"/>
       <c r="Y350" s="5"/>
     </row>
-    <row r="351" spans="1:25" ht="15.75" customHeight="1">
+    <row r="351" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="40"/>
       <c r="C351" s="41"/>
@@ -14285,7 +14297,7 @@
       <c r="X351" s="5"/>
       <c r="Y351" s="5"/>
     </row>
-    <row r="352" spans="1:25" ht="15.75" customHeight="1">
+    <row r="352" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="40"/>
       <c r="C352" s="41"/>
@@ -14312,7 +14324,7 @@
       <c r="X352" s="5"/>
       <c r="Y352" s="5"/>
     </row>
-    <row r="353" spans="1:25" ht="15.75" customHeight="1">
+    <row r="353" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="40"/>
       <c r="C353" s="41"/>
@@ -14339,7 +14351,7 @@
       <c r="X353" s="5"/>
       <c r="Y353" s="5"/>
     </row>
-    <row r="354" spans="1:25" ht="15.75" customHeight="1">
+    <row r="354" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="40"/>
       <c r="C354" s="41"/>
@@ -14366,7 +14378,7 @@
       <c r="X354" s="5"/>
       <c r="Y354" s="5"/>
     </row>
-    <row r="355" spans="1:25" ht="15.75" customHeight="1">
+    <row r="355" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="40"/>
       <c r="C355" s="41"/>
@@ -14393,7 +14405,7 @@
       <c r="X355" s="5"/>
       <c r="Y355" s="5"/>
     </row>
-    <row r="356" spans="1:25" ht="15.75" customHeight="1">
+    <row r="356" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="40"/>
       <c r="C356" s="41"/>
@@ -14420,7 +14432,7 @@
       <c r="X356" s="5"/>
       <c r="Y356" s="5"/>
     </row>
-    <row r="357" spans="1:25" ht="15.75" customHeight="1">
+    <row r="357" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="40"/>
       <c r="C357" s="41"/>
@@ -14447,7 +14459,7 @@
       <c r="X357" s="5"/>
       <c r="Y357" s="5"/>
     </row>
-    <row r="358" spans="1:25" ht="15.75" customHeight="1">
+    <row r="358" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="40"/>
       <c r="C358" s="41"/>
@@ -14474,7 +14486,7 @@
       <c r="X358" s="5"/>
       <c r="Y358" s="5"/>
     </row>
-    <row r="359" spans="1:25" ht="15.75" customHeight="1">
+    <row r="359" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="40"/>
       <c r="C359" s="41"/>
@@ -14501,7 +14513,7 @@
       <c r="X359" s="5"/>
       <c r="Y359" s="5"/>
     </row>
-    <row r="360" spans="1:25" ht="15.75" customHeight="1">
+    <row r="360" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="40"/>
       <c r="C360" s="41"/>
@@ -14528,7 +14540,7 @@
       <c r="X360" s="5"/>
       <c r="Y360" s="5"/>
     </row>
-    <row r="361" spans="1:25" ht="15.75" customHeight="1">
+    <row r="361" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="40"/>
       <c r="C361" s="41"/>
@@ -14555,7 +14567,7 @@
       <c r="X361" s="5"/>
       <c r="Y361" s="5"/>
     </row>
-    <row r="362" spans="1:25" ht="15.75" customHeight="1">
+    <row r="362" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="40"/>
       <c r="C362" s="41"/>
@@ -14582,7 +14594,7 @@
       <c r="X362" s="5"/>
       <c r="Y362" s="5"/>
     </row>
-    <row r="363" spans="1:25" ht="15.75" customHeight="1">
+    <row r="363" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="40"/>
       <c r="C363" s="41"/>
@@ -14609,7 +14621,7 @@
       <c r="X363" s="5"/>
       <c r="Y363" s="5"/>
     </row>
-    <row r="364" spans="1:25" ht="15.75" customHeight="1">
+    <row r="364" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="40"/>
       <c r="C364" s="41"/>
@@ -14636,7 +14648,7 @@
       <c r="X364" s="5"/>
       <c r="Y364" s="5"/>
     </row>
-    <row r="365" spans="1:25" ht="15.75" customHeight="1">
+    <row r="365" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="40"/>
       <c r="C365" s="41"/>
@@ -14663,7 +14675,7 @@
       <c r="X365" s="5"/>
       <c r="Y365" s="5"/>
     </row>
-    <row r="366" spans="1:25" ht="15.75" customHeight="1">
+    <row r="366" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="40"/>
       <c r="C366" s="41"/>
@@ -14690,7 +14702,7 @@
       <c r="X366" s="5"/>
       <c r="Y366" s="5"/>
     </row>
-    <row r="367" spans="1:25" ht="15.75" customHeight="1">
+    <row r="367" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="40"/>
       <c r="C367" s="41"/>
@@ -14717,7 +14729,7 @@
       <c r="X367" s="5"/>
       <c r="Y367" s="5"/>
     </row>
-    <row r="368" spans="1:25" ht="15.75" customHeight="1">
+    <row r="368" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="40"/>
       <c r="C368" s="41"/>
@@ -14744,7 +14756,7 @@
       <c r="X368" s="5"/>
       <c r="Y368" s="5"/>
     </row>
-    <row r="369" spans="1:25" ht="15.75" customHeight="1">
+    <row r="369" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="40"/>
       <c r="C369" s="41"/>
@@ -14771,7 +14783,7 @@
       <c r="X369" s="5"/>
       <c r="Y369" s="5"/>
     </row>
-    <row r="370" spans="1:25" ht="15.75" customHeight="1">
+    <row r="370" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="40"/>
       <c r="C370" s="41"/>
@@ -14798,7 +14810,7 @@
       <c r="X370" s="5"/>
       <c r="Y370" s="5"/>
     </row>
-    <row r="371" spans="1:25" ht="15.75" customHeight="1">
+    <row r="371" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="40"/>
       <c r="C371" s="41"/>
@@ -14825,7 +14837,7 @@
       <c r="X371" s="5"/>
       <c r="Y371" s="5"/>
     </row>
-    <row r="372" spans="1:25" ht="15.75" customHeight="1">
+    <row r="372" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="40"/>
       <c r="C372" s="41"/>
@@ -14852,7 +14864,7 @@
       <c r="X372" s="5"/>
       <c r="Y372" s="5"/>
     </row>
-    <row r="373" spans="1:25" ht="15.75" customHeight="1">
+    <row r="373" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="40"/>
       <c r="C373" s="41"/>
@@ -14879,7 +14891,7 @@
       <c r="X373" s="5"/>
       <c r="Y373" s="5"/>
     </row>
-    <row r="374" spans="1:25" ht="15.75" customHeight="1">
+    <row r="374" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="40"/>
       <c r="C374" s="41"/>
@@ -14906,7 +14918,7 @@
       <c r="X374" s="5"/>
       <c r="Y374" s="5"/>
     </row>
-    <row r="375" spans="1:25" ht="15.75" customHeight="1">
+    <row r="375" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="40"/>
       <c r="C375" s="41"/>
@@ -14933,7 +14945,7 @@
       <c r="X375" s="5"/>
       <c r="Y375" s="5"/>
     </row>
-    <row r="376" spans="1:25" ht="15.75" customHeight="1">
+    <row r="376" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="40"/>
       <c r="C376" s="41"/>
@@ -14960,7 +14972,7 @@
       <c r="X376" s="5"/>
       <c r="Y376" s="5"/>
     </row>
-    <row r="377" spans="1:25" ht="15.75" customHeight="1">
+    <row r="377" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="40"/>
       <c r="C377" s="41"/>
@@ -14987,7 +14999,7 @@
       <c r="X377" s="5"/>
       <c r="Y377" s="5"/>
     </row>
-    <row r="378" spans="1:25" ht="15.75" customHeight="1">
+    <row r="378" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="40"/>
       <c r="C378" s="41"/>
@@ -15014,7 +15026,7 @@
       <c r="X378" s="5"/>
       <c r="Y378" s="5"/>
     </row>
-    <row r="379" spans="1:25" ht="15.75" customHeight="1">
+    <row r="379" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="40"/>
       <c r="C379" s="41"/>
@@ -15041,7 +15053,7 @@
       <c r="X379" s="5"/>
       <c r="Y379" s="5"/>
     </row>
-    <row r="380" spans="1:25" ht="15.75" customHeight="1">
+    <row r="380" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="40"/>
       <c r="C380" s="41"/>
@@ -15068,7 +15080,7 @@
       <c r="X380" s="5"/>
       <c r="Y380" s="5"/>
     </row>
-    <row r="381" spans="1:25" ht="15.75" customHeight="1">
+    <row r="381" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="40"/>
       <c r="C381" s="41"/>
@@ -15095,7 +15107,7 @@
       <c r="X381" s="5"/>
       <c r="Y381" s="5"/>
     </row>
-    <row r="382" spans="1:25" ht="15.75" customHeight="1">
+    <row r="382" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="40"/>
       <c r="C382" s="41"/>
@@ -15122,7 +15134,7 @@
       <c r="X382" s="5"/>
       <c r="Y382" s="5"/>
     </row>
-    <row r="383" spans="1:25" ht="15.75" customHeight="1">
+    <row r="383" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="40"/>
       <c r="C383" s="41"/>
@@ -15149,7 +15161,7 @@
       <c r="X383" s="5"/>
       <c r="Y383" s="5"/>
     </row>
-    <row r="384" spans="1:25" ht="15.75" customHeight="1">
+    <row r="384" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="40"/>
       <c r="C384" s="41"/>
@@ -15176,7 +15188,7 @@
       <c r="X384" s="5"/>
       <c r="Y384" s="5"/>
     </row>
-    <row r="385" spans="1:25" ht="15.75" customHeight="1">
+    <row r="385" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="40"/>
       <c r="C385" s="41"/>
@@ -15203,7 +15215,7 @@
       <c r="X385" s="5"/>
       <c r="Y385" s="5"/>
     </row>
-    <row r="386" spans="1:25" ht="15.75" customHeight="1">
+    <row r="386" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="40"/>
       <c r="C386" s="41"/>
@@ -15230,7 +15242,7 @@
       <c r="X386" s="5"/>
       <c r="Y386" s="5"/>
     </row>
-    <row r="387" spans="1:25" ht="15.75" customHeight="1">
+    <row r="387" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="40"/>
       <c r="C387" s="41"/>
@@ -15257,7 +15269,7 @@
       <c r="X387" s="5"/>
       <c r="Y387" s="5"/>
     </row>
-    <row r="388" spans="1:25" ht="15.75" customHeight="1">
+    <row r="388" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="40"/>
       <c r="C388" s="41"/>
@@ -15284,7 +15296,7 @@
       <c r="X388" s="5"/>
       <c r="Y388" s="5"/>
     </row>
-    <row r="389" spans="1:25" ht="15.75" customHeight="1">
+    <row r="389" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="40"/>
       <c r="C389" s="41"/>
@@ -15311,7 +15323,7 @@
       <c r="X389" s="5"/>
       <c r="Y389" s="5"/>
     </row>
-    <row r="390" spans="1:25" ht="15.75" customHeight="1">
+    <row r="390" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="40"/>
       <c r="C390" s="41"/>
@@ -15338,7 +15350,7 @@
       <c r="X390" s="5"/>
       <c r="Y390" s="5"/>
     </row>
-    <row r="391" spans="1:25" ht="15.75" customHeight="1">
+    <row r="391" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="40"/>
       <c r="C391" s="41"/>
@@ -15365,7 +15377,7 @@
       <c r="X391" s="5"/>
       <c r="Y391" s="5"/>
     </row>
-    <row r="392" spans="1:25" ht="15.75" customHeight="1">
+    <row r="392" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="40"/>
       <c r="C392" s="41"/>
@@ -15392,7 +15404,7 @@
       <c r="X392" s="5"/>
       <c r="Y392" s="5"/>
     </row>
-    <row r="393" spans="1:25" ht="15.75" customHeight="1">
+    <row r="393" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="40"/>
       <c r="C393" s="41"/>
@@ -15419,7 +15431,7 @@
       <c r="X393" s="5"/>
       <c r="Y393" s="5"/>
     </row>
-    <row r="394" spans="1:25" ht="15.75" customHeight="1">
+    <row r="394" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="40"/>
       <c r="C394" s="41"/>
@@ -15446,7 +15458,7 @@
       <c r="X394" s="5"/>
       <c r="Y394" s="5"/>
     </row>
-    <row r="395" spans="1:25" ht="15.75" customHeight="1">
+    <row r="395" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="40"/>
       <c r="C395" s="41"/>
@@ -15473,7 +15485,7 @@
       <c r="X395" s="5"/>
       <c r="Y395" s="5"/>
     </row>
-    <row r="396" spans="1:25" ht="15.75" customHeight="1">
+    <row r="396" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="40"/>
       <c r="C396" s="41"/>
@@ -15500,7 +15512,7 @@
       <c r="X396" s="5"/>
       <c r="Y396" s="5"/>
     </row>
-    <row r="397" spans="1:25" ht="15.75" customHeight="1">
+    <row r="397" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="40"/>
       <c r="C397" s="41"/>
@@ -15527,7 +15539,7 @@
       <c r="X397" s="5"/>
       <c r="Y397" s="5"/>
     </row>
-    <row r="398" spans="1:25" ht="15.75" customHeight="1">
+    <row r="398" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="40"/>
       <c r="C398" s="41"/>
@@ -15554,7 +15566,7 @@
       <c r="X398" s="5"/>
       <c r="Y398" s="5"/>
     </row>
-    <row r="399" spans="1:25" ht="15.75" customHeight="1">
+    <row r="399" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="40"/>
       <c r="C399" s="41"/>
@@ -15581,7 +15593,7 @@
       <c r="X399" s="5"/>
       <c r="Y399" s="5"/>
     </row>
-    <row r="400" spans="1:25" ht="15.75" customHeight="1">
+    <row r="400" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="40"/>
       <c r="C400" s="41"/>
@@ -15608,7 +15620,7 @@
       <c r="X400" s="5"/>
       <c r="Y400" s="5"/>
     </row>
-    <row r="401" spans="1:25" ht="15.75" customHeight="1">
+    <row r="401" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="40"/>
       <c r="C401" s="41"/>
@@ -15635,7 +15647,7 @@
       <c r="X401" s="5"/>
       <c r="Y401" s="5"/>
     </row>
-    <row r="402" spans="1:25" ht="15.75" customHeight="1">
+    <row r="402" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="40"/>
       <c r="C402" s="41"/>
@@ -15662,7 +15674,7 @@
       <c r="X402" s="5"/>
       <c r="Y402" s="5"/>
     </row>
-    <row r="403" spans="1:25" ht="15.75" customHeight="1">
+    <row r="403" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="40"/>
       <c r="C403" s="41"/>
@@ -15689,7 +15701,7 @@
       <c r="X403" s="5"/>
       <c r="Y403" s="5"/>
     </row>
-    <row r="404" spans="1:25" ht="15.75" customHeight="1">
+    <row r="404" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="40"/>
       <c r="C404" s="41"/>
@@ -15716,7 +15728,7 @@
       <c r="X404" s="5"/>
       <c r="Y404" s="5"/>
     </row>
-    <row r="405" spans="1:25" ht="15.75" customHeight="1">
+    <row r="405" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="40"/>
       <c r="C405" s="41"/>
@@ -15743,7 +15755,7 @@
       <c r="X405" s="5"/>
       <c r="Y405" s="5"/>
     </row>
-    <row r="406" spans="1:25" ht="15.75" customHeight="1">
+    <row r="406" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="40"/>
       <c r="C406" s="41"/>
@@ -15770,7 +15782,7 @@
       <c r="X406" s="5"/>
       <c r="Y406" s="5"/>
     </row>
-    <row r="407" spans="1:25" ht="15.75" customHeight="1">
+    <row r="407" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="40"/>
       <c r="C407" s="41"/>
@@ -15797,7 +15809,7 @@
       <c r="X407" s="5"/>
       <c r="Y407" s="5"/>
     </row>
-    <row r="408" spans="1:25" ht="15.75" customHeight="1">
+    <row r="408" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="40"/>
       <c r="C408" s="41"/>
@@ -15824,7 +15836,7 @@
       <c r="X408" s="5"/>
       <c r="Y408" s="5"/>
     </row>
-    <row r="409" spans="1:25" ht="15.75" customHeight="1">
+    <row r="409" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="40"/>
       <c r="C409" s="41"/>
@@ -15851,7 +15863,7 @@
       <c r="X409" s="5"/>
       <c r="Y409" s="5"/>
     </row>
-    <row r="410" spans="1:25" ht="15.75" customHeight="1">
+    <row r="410" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="40"/>
       <c r="C410" s="41"/>
@@ -15878,7 +15890,7 @@
       <c r="X410" s="5"/>
       <c r="Y410" s="5"/>
     </row>
-    <row r="411" spans="1:25" ht="15.75" customHeight="1">
+    <row r="411" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="40"/>
       <c r="C411" s="41"/>
@@ -15905,7 +15917,7 @@
       <c r="X411" s="5"/>
       <c r="Y411" s="5"/>
     </row>
-    <row r="412" spans="1:25" ht="15.75" customHeight="1">
+    <row r="412" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="40"/>
       <c r="C412" s="41"/>
@@ -15932,7 +15944,7 @@
       <c r="X412" s="5"/>
       <c r="Y412" s="5"/>
     </row>
-    <row r="413" spans="1:25" ht="15.75" customHeight="1">
+    <row r="413" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="40"/>
       <c r="C413" s="41"/>
@@ -15959,7 +15971,7 @@
       <c r="X413" s="5"/>
       <c r="Y413" s="5"/>
     </row>
-    <row r="414" spans="1:25" ht="15.75" customHeight="1">
+    <row r="414" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="40"/>
       <c r="C414" s="41"/>
@@ -15986,7 +15998,7 @@
       <c r="X414" s="5"/>
       <c r="Y414" s="5"/>
     </row>
-    <row r="415" spans="1:25" ht="15.75" customHeight="1">
+    <row r="415" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="40"/>
       <c r="C415" s="41"/>
@@ -16013,7 +16025,7 @@
       <c r="X415" s="5"/>
       <c r="Y415" s="5"/>
     </row>
-    <row r="416" spans="1:25" ht="15.75" customHeight="1">
+    <row r="416" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="40"/>
       <c r="C416" s="41"/>
@@ -16040,7 +16052,7 @@
       <c r="X416" s="5"/>
       <c r="Y416" s="5"/>
     </row>
-    <row r="417" spans="1:25" ht="15.75" customHeight="1">
+    <row r="417" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="40"/>
       <c r="C417" s="41"/>
@@ -16067,7 +16079,7 @@
       <c r="X417" s="5"/>
       <c r="Y417" s="5"/>
     </row>
-    <row r="418" spans="1:25" ht="15.75" customHeight="1">
+    <row r="418" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="40"/>
       <c r="C418" s="41"/>
@@ -16094,7 +16106,7 @@
       <c r="X418" s="5"/>
       <c r="Y418" s="5"/>
     </row>
-    <row r="419" spans="1:25" ht="15.75" customHeight="1">
+    <row r="419" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="40"/>
       <c r="C419" s="41"/>
@@ -16121,7 +16133,7 @@
       <c r="X419" s="5"/>
       <c r="Y419" s="5"/>
     </row>
-    <row r="420" spans="1:25" ht="15.75" customHeight="1">
+    <row r="420" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="40"/>
       <c r="C420" s="41"/>
@@ -16148,7 +16160,7 @@
       <c r="X420" s="5"/>
       <c r="Y420" s="5"/>
     </row>
-    <row r="421" spans="1:25" ht="15.75" customHeight="1">
+    <row r="421" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="40"/>
       <c r="C421" s="41"/>
@@ -16175,7 +16187,7 @@
       <c r="X421" s="5"/>
       <c r="Y421" s="5"/>
     </row>
-    <row r="422" spans="1:25" ht="15.75" customHeight="1">
+    <row r="422" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="40"/>
       <c r="C422" s="41"/>
@@ -16202,7 +16214,7 @@
       <c r="X422" s="5"/>
       <c r="Y422" s="5"/>
     </row>
-    <row r="423" spans="1:25" ht="15.75" customHeight="1">
+    <row r="423" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="40"/>
       <c r="C423" s="41"/>
@@ -16229,7 +16241,7 @@
       <c r="X423" s="5"/>
       <c r="Y423" s="5"/>
     </row>
-    <row r="424" spans="1:25" ht="15.75" customHeight="1">
+    <row r="424" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="40"/>
       <c r="C424" s="41"/>
@@ -16256,7 +16268,7 @@
       <c r="X424" s="5"/>
       <c r="Y424" s="5"/>
     </row>
-    <row r="425" spans="1:25" ht="15.75" customHeight="1">
+    <row r="425" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="40"/>
       <c r="C425" s="41"/>
@@ -16283,7 +16295,7 @@
       <c r="X425" s="5"/>
       <c r="Y425" s="5"/>
     </row>
-    <row r="426" spans="1:25" ht="15.75" customHeight="1">
+    <row r="426" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="40"/>
       <c r="C426" s="41"/>
@@ -16310,7 +16322,7 @@
       <c r="X426" s="5"/>
       <c r="Y426" s="5"/>
     </row>
-    <row r="427" spans="1:25" ht="15.75" customHeight="1">
+    <row r="427" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="40"/>
       <c r="C427" s="41"/>
@@ -16337,7 +16349,7 @@
       <c r="X427" s="5"/>
       <c r="Y427" s="5"/>
     </row>
-    <row r="428" spans="1:25" ht="15.75" customHeight="1">
+    <row r="428" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="40"/>
       <c r="C428" s="41"/>
@@ -16364,7 +16376,7 @@
       <c r="X428" s="5"/>
       <c r="Y428" s="5"/>
     </row>
-    <row r="429" spans="1:25" ht="15.75" customHeight="1">
+    <row r="429" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="40"/>
       <c r="C429" s="41"/>
@@ -16391,7 +16403,7 @@
       <c r="X429" s="5"/>
       <c r="Y429" s="5"/>
     </row>
-    <row r="430" spans="1:25" ht="15.75" customHeight="1">
+    <row r="430" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="40"/>
       <c r="C430" s="41"/>
@@ -16418,7 +16430,7 @@
       <c r="X430" s="5"/>
       <c r="Y430" s="5"/>
     </row>
-    <row r="431" spans="1:25" ht="15.75" customHeight="1">
+    <row r="431" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="40"/>
       <c r="C431" s="41"/>
@@ -16445,7 +16457,7 @@
       <c r="X431" s="5"/>
       <c r="Y431" s="5"/>
     </row>
-    <row r="432" spans="1:25" ht="15.75" customHeight="1">
+    <row r="432" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="40"/>
       <c r="C432" s="41"/>
@@ -16472,7 +16484,7 @@
       <c r="X432" s="5"/>
       <c r="Y432" s="5"/>
     </row>
-    <row r="433" spans="1:25" ht="15.75" customHeight="1">
+    <row r="433" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="40"/>
       <c r="C433" s="41"/>
@@ -16499,7 +16511,7 @@
       <c r="X433" s="5"/>
       <c r="Y433" s="5"/>
     </row>
-    <row r="434" spans="1:25" ht="15.75" customHeight="1">
+    <row r="434" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="40"/>
       <c r="C434" s="41"/>
@@ -16526,7 +16538,7 @@
       <c r="X434" s="5"/>
       <c r="Y434" s="5"/>
     </row>
-    <row r="435" spans="1:25" ht="15.75" customHeight="1">
+    <row r="435" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="40"/>
       <c r="C435" s="41"/>
@@ -16553,7 +16565,7 @@
       <c r="X435" s="5"/>
       <c r="Y435" s="5"/>
     </row>
-    <row r="436" spans="1:25" ht="15.75" customHeight="1">
+    <row r="436" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="40"/>
       <c r="C436" s="41"/>
@@ -16580,7 +16592,7 @@
       <c r="X436" s="5"/>
       <c r="Y436" s="5"/>
     </row>
-    <row r="437" spans="1:25" ht="15.75" customHeight="1">
+    <row r="437" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="40"/>
       <c r="C437" s="41"/>
@@ -16607,7 +16619,7 @@
       <c r="X437" s="5"/>
       <c r="Y437" s="5"/>
     </row>
-    <row r="438" spans="1:25" ht="15.75" customHeight="1">
+    <row r="438" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="40"/>
       <c r="C438" s="41"/>
@@ -16634,7 +16646,7 @@
       <c r="X438" s="5"/>
       <c r="Y438" s="5"/>
     </row>
-    <row r="439" spans="1:25" ht="15.75" customHeight="1">
+    <row r="439" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="40"/>
       <c r="C439" s="41"/>
@@ -16661,7 +16673,7 @@
       <c r="X439" s="5"/>
       <c r="Y439" s="5"/>
     </row>
-    <row r="440" spans="1:25" ht="15.75" customHeight="1">
+    <row r="440" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="40"/>
       <c r="C440" s="41"/>
@@ -16688,7 +16700,7 @@
       <c r="X440" s="5"/>
       <c r="Y440" s="5"/>
     </row>
-    <row r="441" spans="1:25" ht="15.75" customHeight="1">
+    <row r="441" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="40"/>
       <c r="C441" s="41"/>
@@ -16715,7 +16727,7 @@
       <c r="X441" s="5"/>
       <c r="Y441" s="5"/>
     </row>
-    <row r="442" spans="1:25" ht="15.75" customHeight="1">
+    <row r="442" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="40"/>
       <c r="C442" s="41"/>
@@ -16742,7 +16754,7 @@
       <c r="X442" s="5"/>
       <c r="Y442" s="5"/>
     </row>
-    <row r="443" spans="1:25" ht="15.75" customHeight="1">
+    <row r="443" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="40"/>
       <c r="C443" s="41"/>
@@ -16769,7 +16781,7 @@
       <c r="X443" s="5"/>
       <c r="Y443" s="5"/>
     </row>
-    <row r="444" spans="1:25" ht="15.75" customHeight="1">
+    <row r="444" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="40"/>
       <c r="C444" s="41"/>
@@ -16796,7 +16808,7 @@
       <c r="X444" s="5"/>
       <c r="Y444" s="5"/>
     </row>
-    <row r="445" spans="1:25" ht="15.75" customHeight="1">
+    <row r="445" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="40"/>
       <c r="C445" s="41"/>
@@ -16823,7 +16835,7 @@
       <c r="X445" s="5"/>
       <c r="Y445" s="5"/>
     </row>
-    <row r="446" spans="1:25" ht="15.75" customHeight="1">
+    <row r="446" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="40"/>
       <c r="C446" s="41"/>
@@ -16850,7 +16862,7 @@
       <c r="X446" s="5"/>
       <c r="Y446" s="5"/>
     </row>
-    <row r="447" spans="1:25" ht="15.75" customHeight="1">
+    <row r="447" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="40"/>
       <c r="C447" s="41"/>
@@ -16877,7 +16889,7 @@
       <c r="X447" s="5"/>
       <c r="Y447" s="5"/>
     </row>
-    <row r="448" spans="1:25" ht="15.75" customHeight="1">
+    <row r="448" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="40"/>
       <c r="C448" s="41"/>
@@ -16904,7 +16916,7 @@
       <c r="X448" s="5"/>
       <c r="Y448" s="5"/>
     </row>
-    <row r="449" spans="1:25" ht="15.75" customHeight="1">
+    <row r="449" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="40"/>
       <c r="C449" s="41"/>
@@ -16931,7 +16943,7 @@
       <c r="X449" s="5"/>
       <c r="Y449" s="5"/>
     </row>
-    <row r="450" spans="1:25" ht="15.75" customHeight="1">
+    <row r="450" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="40"/>
       <c r="C450" s="41"/>
@@ -16958,7 +16970,7 @@
       <c r="X450" s="5"/>
       <c r="Y450" s="5"/>
     </row>
-    <row r="451" spans="1:25" ht="15.75" customHeight="1">
+    <row r="451" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="40"/>
       <c r="C451" s="41"/>
@@ -16985,7 +16997,7 @@
       <c r="X451" s="5"/>
       <c r="Y451" s="5"/>
     </row>
-    <row r="452" spans="1:25" ht="15.75" customHeight="1">
+    <row r="452" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="40"/>
       <c r="C452" s="41"/>
@@ -17012,7 +17024,7 @@
       <c r="X452" s="5"/>
       <c r="Y452" s="5"/>
     </row>
-    <row r="453" spans="1:25" ht="15.75" customHeight="1">
+    <row r="453" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="40"/>
       <c r="C453" s="41"/>
@@ -17039,7 +17051,7 @@
       <c r="X453" s="5"/>
       <c r="Y453" s="5"/>
     </row>
-    <row r="454" spans="1:25" ht="15.75" customHeight="1">
+    <row r="454" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="40"/>
       <c r="C454" s="41"/>
@@ -17066,7 +17078,7 @@
       <c r="X454" s="5"/>
       <c r="Y454" s="5"/>
     </row>
-    <row r="455" spans="1:25" ht="15.75" customHeight="1">
+    <row r="455" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="40"/>
       <c r="C455" s="41"/>
@@ -17093,7 +17105,7 @@
       <c r="X455" s="5"/>
       <c r="Y455" s="5"/>
     </row>
-    <row r="456" spans="1:25" ht="15.75" customHeight="1">
+    <row r="456" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="40"/>
       <c r="C456" s="41"/>
@@ -17120,7 +17132,7 @@
       <c r="X456" s="5"/>
       <c r="Y456" s="5"/>
     </row>
-    <row r="457" spans="1:25" ht="15.75" customHeight="1">
+    <row r="457" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="40"/>
       <c r="C457" s="41"/>
@@ -17147,7 +17159,7 @@
       <c r="X457" s="5"/>
       <c r="Y457" s="5"/>
     </row>
-    <row r="458" spans="1:25" ht="15.75" customHeight="1">
+    <row r="458" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="40"/>
       <c r="C458" s="41"/>
@@ -17174,7 +17186,7 @@
       <c r="X458" s="5"/>
       <c r="Y458" s="5"/>
     </row>
-    <row r="459" spans="1:25" ht="15.75" customHeight="1">
+    <row r="459" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="40"/>
       <c r="C459" s="41"/>
@@ -17201,7 +17213,7 @@
       <c r="X459" s="5"/>
       <c r="Y459" s="5"/>
     </row>
-    <row r="460" spans="1:25" ht="15.75" customHeight="1">
+    <row r="460" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="40"/>
       <c r="C460" s="41"/>
@@ -17228,7 +17240,7 @@
       <c r="X460" s="5"/>
       <c r="Y460" s="5"/>
     </row>
-    <row r="461" spans="1:25" ht="15.75" customHeight="1">
+    <row r="461" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="40"/>
       <c r="C461" s="41"/>
@@ -17255,7 +17267,7 @@
       <c r="X461" s="5"/>
       <c r="Y461" s="5"/>
     </row>
-    <row r="462" spans="1:25" ht="15.75" customHeight="1">
+    <row r="462" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="40"/>
       <c r="C462" s="41"/>
@@ -17282,7 +17294,7 @@
       <c r="X462" s="5"/>
       <c r="Y462" s="5"/>
     </row>
-    <row r="463" spans="1:25" ht="15.75" customHeight="1">
+    <row r="463" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="40"/>
       <c r="C463" s="41"/>
@@ -17309,7 +17321,7 @@
       <c r="X463" s="5"/>
       <c r="Y463" s="5"/>
     </row>
-    <row r="464" spans="1:25" ht="15.75" customHeight="1">
+    <row r="464" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="40"/>
       <c r="C464" s="41"/>
@@ -17336,7 +17348,7 @@
       <c r="X464" s="5"/>
       <c r="Y464" s="5"/>
     </row>
-    <row r="465" spans="1:25" ht="15.75" customHeight="1">
+    <row r="465" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="40"/>
       <c r="C465" s="41"/>
@@ -17363,7 +17375,7 @@
       <c r="X465" s="5"/>
       <c r="Y465" s="5"/>
     </row>
-    <row r="466" spans="1:25" ht="15.75" customHeight="1">
+    <row r="466" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="40"/>
       <c r="C466" s="41"/>
@@ -17390,7 +17402,7 @@
       <c r="X466" s="5"/>
       <c r="Y466" s="5"/>
     </row>
-    <row r="467" spans="1:25" ht="15.75" customHeight="1">
+    <row r="467" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="40"/>
       <c r="C467" s="41"/>
@@ -17417,7 +17429,7 @@
       <c r="X467" s="5"/>
       <c r="Y467" s="5"/>
     </row>
-    <row r="468" spans="1:25" ht="15.75" customHeight="1">
+    <row r="468" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="40"/>
       <c r="C468" s="41"/>
@@ -17444,7 +17456,7 @@
       <c r="X468" s="5"/>
       <c r="Y468" s="5"/>
     </row>
-    <row r="469" spans="1:25" ht="15.75" customHeight="1">
+    <row r="469" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="40"/>
       <c r="C469" s="41"/>
@@ -17471,7 +17483,7 @@
       <c r="X469" s="5"/>
       <c r="Y469" s="5"/>
     </row>
-    <row r="470" spans="1:25" ht="15.75" customHeight="1">
+    <row r="470" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="40"/>
       <c r="C470" s="41"/>
@@ -17498,7 +17510,7 @@
       <c r="X470" s="5"/>
       <c r="Y470" s="5"/>
     </row>
-    <row r="471" spans="1:25" ht="15.75" customHeight="1">
+    <row r="471" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="40"/>
       <c r="C471" s="41"/>
@@ -17525,7 +17537,7 @@
       <c r="X471" s="5"/>
       <c r="Y471" s="5"/>
     </row>
-    <row r="472" spans="1:25" ht="15.75" customHeight="1">
+    <row r="472" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="40"/>
       <c r="C472" s="41"/>
@@ -17552,7 +17564,7 @@
       <c r="X472" s="5"/>
       <c r="Y472" s="5"/>
     </row>
-    <row r="473" spans="1:25" ht="15.75" customHeight="1">
+    <row r="473" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="40"/>
       <c r="C473" s="41"/>
@@ -17579,7 +17591,7 @@
       <c r="X473" s="5"/>
       <c r="Y473" s="5"/>
     </row>
-    <row r="474" spans="1:25" ht="15.75" customHeight="1">
+    <row r="474" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="40"/>
       <c r="C474" s="41"/>
@@ -17606,7 +17618,7 @@
       <c r="X474" s="5"/>
       <c r="Y474" s="5"/>
     </row>
-    <row r="475" spans="1:25" ht="15.75" customHeight="1">
+    <row r="475" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="40"/>
       <c r="C475" s="41"/>
@@ -17633,7 +17645,7 @@
       <c r="X475" s="5"/>
       <c r="Y475" s="5"/>
     </row>
-    <row r="476" spans="1:25" ht="15.75" customHeight="1">
+    <row r="476" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="40"/>
       <c r="C476" s="41"/>
@@ -17660,7 +17672,7 @@
       <c r="X476" s="5"/>
       <c r="Y476" s="5"/>
     </row>
-    <row r="477" spans="1:25" ht="15.75" customHeight="1">
+    <row r="477" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="40"/>
       <c r="C477" s="41"/>
@@ -17687,7 +17699,7 @@
       <c r="X477" s="5"/>
       <c r="Y477" s="5"/>
     </row>
-    <row r="478" spans="1:25" ht="15.75" customHeight="1">
+    <row r="478" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="40"/>
       <c r="C478" s="41"/>
@@ -17714,7 +17726,7 @@
       <c r="X478" s="5"/>
       <c r="Y478" s="5"/>
     </row>
-    <row r="479" spans="1:25" ht="15.75" customHeight="1">
+    <row r="479" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="40"/>
       <c r="C479" s="41"/>
@@ -17741,7 +17753,7 @@
       <c r="X479" s="5"/>
       <c r="Y479" s="5"/>
     </row>
-    <row r="480" spans="1:25" ht="15.75" customHeight="1">
+    <row r="480" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="40"/>
       <c r="C480" s="41"/>
@@ -17768,7 +17780,7 @@
       <c r="X480" s="5"/>
       <c r="Y480" s="5"/>
     </row>
-    <row r="481" spans="1:25" ht="15.75" customHeight="1">
+    <row r="481" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="40"/>
       <c r="C481" s="41"/>
@@ -17795,7 +17807,7 @@
       <c r="X481" s="5"/>
       <c r="Y481" s="5"/>
     </row>
-    <row r="482" spans="1:25" ht="15.75" customHeight="1">
+    <row r="482" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="40"/>
       <c r="C482" s="41"/>
@@ -17822,7 +17834,7 @@
       <c r="X482" s="5"/>
       <c r="Y482" s="5"/>
     </row>
-    <row r="483" spans="1:25" ht="15.75" customHeight="1">
+    <row r="483" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="40"/>
       <c r="C483" s="41"/>
@@ -17849,7 +17861,7 @@
       <c r="X483" s="5"/>
       <c r="Y483" s="5"/>
     </row>
-    <row r="484" spans="1:25" ht="15.75" customHeight="1">
+    <row r="484" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="40"/>
       <c r="C484" s="41"/>
@@ -17876,7 +17888,7 @@
       <c r="X484" s="5"/>
       <c r="Y484" s="5"/>
     </row>
-    <row r="485" spans="1:25" ht="15.75" customHeight="1">
+    <row r="485" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="40"/>
       <c r="C485" s="41"/>
@@ -17903,7 +17915,7 @@
       <c r="X485" s="5"/>
       <c r="Y485" s="5"/>
     </row>
-    <row r="486" spans="1:25" ht="15.75" customHeight="1">
+    <row r="486" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="40"/>
       <c r="C486" s="41"/>
@@ -17930,7 +17942,7 @@
       <c r="X486" s="5"/>
       <c r="Y486" s="5"/>
     </row>
-    <row r="487" spans="1:25" ht="15.75" customHeight="1">
+    <row r="487" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="40"/>
       <c r="C487" s="41"/>
@@ -17957,7 +17969,7 @@
       <c r="X487" s="5"/>
       <c r="Y487" s="5"/>
     </row>
-    <row r="488" spans="1:25" ht="15.75" customHeight="1">
+    <row r="488" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="40"/>
       <c r="C488" s="41"/>
@@ -17984,7 +17996,7 @@
       <c r="X488" s="5"/>
       <c r="Y488" s="5"/>
     </row>
-    <row r="489" spans="1:25" ht="15.75" customHeight="1">
+    <row r="489" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="40"/>
       <c r="C489" s="41"/>
@@ -18011,7 +18023,7 @@
       <c r="X489" s="5"/>
       <c r="Y489" s="5"/>
     </row>
-    <row r="490" spans="1:25" ht="15.75" customHeight="1">
+    <row r="490" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="40"/>
       <c r="C490" s="41"/>
@@ -18038,7 +18050,7 @@
       <c r="X490" s="5"/>
       <c r="Y490" s="5"/>
     </row>
-    <row r="491" spans="1:25" ht="15.75" customHeight="1">
+    <row r="491" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="40"/>
       <c r="C491" s="41"/>
@@ -18065,7 +18077,7 @@
       <c r="X491" s="5"/>
       <c r="Y491" s="5"/>
     </row>
-    <row r="492" spans="1:25" ht="15.75" customHeight="1">
+    <row r="492" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="40"/>
       <c r="C492" s="41"/>
@@ -18092,7 +18104,7 @@
       <c r="X492" s="5"/>
       <c r="Y492" s="5"/>
     </row>
-    <row r="493" spans="1:25" ht="15.75" customHeight="1">
+    <row r="493" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="40"/>
       <c r="C493" s="41"/>
@@ -18119,7 +18131,7 @@
       <c r="X493" s="5"/>
       <c r="Y493" s="5"/>
     </row>
-    <row r="494" spans="1:25" ht="15.75" customHeight="1">
+    <row r="494" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="40"/>
       <c r="C494" s="41"/>
@@ -18146,7 +18158,7 @@
       <c r="X494" s="5"/>
       <c r="Y494" s="5"/>
     </row>
-    <row r="495" spans="1:25" ht="15.75" customHeight="1">
+    <row r="495" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="40"/>
       <c r="C495" s="41"/>
@@ -18173,7 +18185,7 @@
       <c r="X495" s="5"/>
       <c r="Y495" s="5"/>
     </row>
-    <row r="496" spans="1:25" ht="15.75" customHeight="1">
+    <row r="496" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="40"/>
       <c r="C496" s="41"/>
@@ -18200,7 +18212,7 @@
       <c r="X496" s="5"/>
       <c r="Y496" s="5"/>
     </row>
-    <row r="497" spans="1:25" ht="15.75" customHeight="1">
+    <row r="497" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="40"/>
       <c r="C497" s="41"/>
@@ -18227,7 +18239,7 @@
       <c r="X497" s="5"/>
       <c r="Y497" s="5"/>
     </row>
-    <row r="498" spans="1:25" ht="15.75" customHeight="1">
+    <row r="498" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="40"/>
       <c r="C498" s="41"/>
@@ -18254,7 +18266,7 @@
       <c r="X498" s="5"/>
       <c r="Y498" s="5"/>
     </row>
-    <row r="499" spans="1:25" ht="15.75" customHeight="1">
+    <row r="499" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="40"/>
       <c r="C499" s="41"/>
@@ -18281,7 +18293,7 @@
       <c r="X499" s="5"/>
       <c r="Y499" s="5"/>
     </row>
-    <row r="500" spans="1:25" ht="15.75" customHeight="1">
+    <row r="500" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="40"/>
       <c r="C500" s="41"/>
@@ -18308,7 +18320,7 @@
       <c r="X500" s="5"/>
       <c r="Y500" s="5"/>
     </row>
-    <row r="501" spans="1:25" ht="15.75" customHeight="1">
+    <row r="501" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="40"/>
       <c r="C501" s="41"/>
@@ -18335,7 +18347,7 @@
       <c r="X501" s="5"/>
       <c r="Y501" s="5"/>
     </row>
-    <row r="502" spans="1:25" ht="15.75" customHeight="1">
+    <row r="502" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="40"/>
       <c r="C502" s="41"/>
@@ -18362,7 +18374,7 @@
       <c r="X502" s="5"/>
       <c r="Y502" s="5"/>
     </row>
-    <row r="503" spans="1:25" ht="15.75" customHeight="1">
+    <row r="503" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="40"/>
       <c r="C503" s="41"/>
@@ -18389,7 +18401,7 @@
       <c r="X503" s="5"/>
       <c r="Y503" s="5"/>
     </row>
-    <row r="504" spans="1:25" ht="15.75" customHeight="1">
+    <row r="504" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="40"/>
       <c r="C504" s="41"/>
@@ -18416,7 +18428,7 @@
       <c r="X504" s="5"/>
       <c r="Y504" s="5"/>
     </row>
-    <row r="505" spans="1:25" ht="15.75" customHeight="1">
+    <row r="505" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="40"/>
       <c r="C505" s="41"/>
@@ -18443,7 +18455,7 @@
       <c r="X505" s="5"/>
       <c r="Y505" s="5"/>
     </row>
-    <row r="506" spans="1:25" ht="15.75" customHeight="1">
+    <row r="506" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="40"/>
       <c r="C506" s="41"/>
@@ -18470,7 +18482,7 @@
       <c r="X506" s="5"/>
       <c r="Y506" s="5"/>
     </row>
-    <row r="507" spans="1:25" ht="15.75" customHeight="1">
+    <row r="507" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="40"/>
       <c r="C507" s="41"/>
@@ -18497,7 +18509,7 @@
       <c r="X507" s="5"/>
       <c r="Y507" s="5"/>
     </row>
-    <row r="508" spans="1:25" ht="15.75" customHeight="1">
+    <row r="508" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="40"/>
       <c r="C508" s="41"/>
@@ -18524,7 +18536,7 @@
       <c r="X508" s="5"/>
       <c r="Y508" s="5"/>
     </row>
-    <row r="509" spans="1:25" ht="15.75" customHeight="1">
+    <row r="509" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="40"/>
       <c r="C509" s="41"/>
@@ -18551,7 +18563,7 @@
       <c r="X509" s="5"/>
       <c r="Y509" s="5"/>
     </row>
-    <row r="510" spans="1:25" ht="15.75" customHeight="1">
+    <row r="510" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="40"/>
       <c r="C510" s="41"/>
@@ -18578,7 +18590,7 @@
       <c r="X510" s="5"/>
       <c r="Y510" s="5"/>
     </row>
-    <row r="511" spans="1:25" ht="15.75" customHeight="1">
+    <row r="511" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="40"/>
       <c r="C511" s="41"/>
@@ -18605,7 +18617,7 @@
       <c r="X511" s="5"/>
       <c r="Y511" s="5"/>
     </row>
-    <row r="512" spans="1:25" ht="15.75" customHeight="1">
+    <row r="512" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="40"/>
       <c r="C512" s="41"/>
@@ -18632,7 +18644,7 @@
       <c r="X512" s="5"/>
       <c r="Y512" s="5"/>
     </row>
-    <row r="513" spans="1:25" ht="15.75" customHeight="1">
+    <row r="513" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="40"/>
       <c r="C513" s="41"/>
@@ -18659,7 +18671,7 @@
       <c r="X513" s="5"/>
       <c r="Y513" s="5"/>
     </row>
-    <row r="514" spans="1:25" ht="15.75" customHeight="1">
+    <row r="514" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="40"/>
       <c r="C514" s="41"/>
@@ -18686,7 +18698,7 @@
       <c r="X514" s="5"/>
       <c r="Y514" s="5"/>
     </row>
-    <row r="515" spans="1:25" ht="15.75" customHeight="1">
+    <row r="515" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="40"/>
       <c r="C515" s="41"/>
@@ -18713,7 +18725,7 @@
       <c r="X515" s="5"/>
       <c r="Y515" s="5"/>
     </row>
-    <row r="516" spans="1:25" ht="15.75" customHeight="1">
+    <row r="516" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="40"/>
       <c r="C516" s="41"/>
@@ -18740,7 +18752,7 @@
       <c r="X516" s="5"/>
       <c r="Y516" s="5"/>
     </row>
-    <row r="517" spans="1:25" ht="15.75" customHeight="1">
+    <row r="517" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="40"/>
       <c r="C517" s="41"/>
@@ -18767,7 +18779,7 @@
       <c r="X517" s="5"/>
       <c r="Y517" s="5"/>
     </row>
-    <row r="518" spans="1:25" ht="15.75" customHeight="1">
+    <row r="518" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="40"/>
       <c r="C518" s="41"/>
@@ -18794,7 +18806,7 @@
       <c r="X518" s="5"/>
       <c r="Y518" s="5"/>
     </row>
-    <row r="519" spans="1:25" ht="15.75" customHeight="1">
+    <row r="519" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="40"/>
       <c r="C519" s="41"/>
@@ -18821,7 +18833,7 @@
       <c r="X519" s="5"/>
       <c r="Y519" s="5"/>
     </row>
-    <row r="520" spans="1:25" ht="15.75" customHeight="1">
+    <row r="520" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="40"/>
       <c r="C520" s="41"/>
@@ -18848,7 +18860,7 @@
       <c r="X520" s="5"/>
       <c r="Y520" s="5"/>
     </row>
-    <row r="521" spans="1:25" ht="15.75" customHeight="1">
+    <row r="521" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="40"/>
       <c r="C521" s="41"/>
@@ -18875,7 +18887,7 @@
       <c r="X521" s="5"/>
       <c r="Y521" s="5"/>
     </row>
-    <row r="522" spans="1:25" ht="15.75" customHeight="1">
+    <row r="522" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="40"/>
       <c r="C522" s="41"/>
@@ -18902,7 +18914,7 @@
       <c r="X522" s="5"/>
       <c r="Y522" s="5"/>
     </row>
-    <row r="523" spans="1:25" ht="15.75" customHeight="1">
+    <row r="523" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="40"/>
       <c r="C523" s="41"/>
@@ -18929,7 +18941,7 @@
       <c r="X523" s="5"/>
       <c r="Y523" s="5"/>
     </row>
-    <row r="524" spans="1:25" ht="15.75" customHeight="1">
+    <row r="524" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="40"/>
       <c r="C524" s="41"/>
@@ -18956,7 +18968,7 @@
       <c r="X524" s="5"/>
       <c r="Y524" s="5"/>
     </row>
-    <row r="525" spans="1:25" ht="15.75" customHeight="1">
+    <row r="525" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="40"/>
       <c r="C525" s="41"/>
@@ -18983,7 +18995,7 @@
       <c r="X525" s="5"/>
       <c r="Y525" s="5"/>
     </row>
-    <row r="526" spans="1:25" ht="15.75" customHeight="1">
+    <row r="526" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="40"/>
       <c r="C526" s="41"/>
@@ -19010,7 +19022,7 @@
       <c r="X526" s="5"/>
       <c r="Y526" s="5"/>
     </row>
-    <row r="527" spans="1:25" ht="15.75" customHeight="1">
+    <row r="527" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="40"/>
       <c r="C527" s="41"/>
@@ -19037,7 +19049,7 @@
       <c r="X527" s="5"/>
       <c r="Y527" s="5"/>
     </row>
-    <row r="528" spans="1:25" ht="15.75" customHeight="1">
+    <row r="528" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="40"/>
       <c r="C528" s="41"/>
@@ -19064,7 +19076,7 @@
       <c r="X528" s="5"/>
       <c r="Y528" s="5"/>
     </row>
-    <row r="529" spans="1:25" ht="15.75" customHeight="1">
+    <row r="529" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="40"/>
       <c r="C529" s="41"/>
@@ -19091,7 +19103,7 @@
       <c r="X529" s="5"/>
       <c r="Y529" s="5"/>
     </row>
-    <row r="530" spans="1:25" ht="15.75" customHeight="1">
+    <row r="530" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="40"/>
       <c r="C530" s="41"/>
@@ -19118,7 +19130,7 @@
       <c r="X530" s="5"/>
       <c r="Y530" s="5"/>
     </row>
-    <row r="531" spans="1:25" ht="15.75" customHeight="1">
+    <row r="531" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="40"/>
       <c r="C531" s="41"/>
@@ -19145,7 +19157,7 @@
       <c r="X531" s="5"/>
       <c r="Y531" s="5"/>
     </row>
-    <row r="532" spans="1:25" ht="15.75" customHeight="1">
+    <row r="532" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="40"/>
       <c r="C532" s="41"/>
@@ -19172,7 +19184,7 @@
       <c r="X532" s="5"/>
       <c r="Y532" s="5"/>
     </row>
-    <row r="533" spans="1:25" ht="15.75" customHeight="1">
+    <row r="533" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="40"/>
       <c r="C533" s="41"/>
@@ -19199,7 +19211,7 @@
       <c r="X533" s="5"/>
       <c r="Y533" s="5"/>
     </row>
-    <row r="534" spans="1:25" ht="15.75" customHeight="1">
+    <row r="534" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="40"/>
       <c r="C534" s="41"/>
@@ -19226,7 +19238,7 @@
       <c r="X534" s="5"/>
       <c r="Y534" s="5"/>
     </row>
-    <row r="535" spans="1:25" ht="15.75" customHeight="1">
+    <row r="535" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="40"/>
       <c r="C535" s="41"/>
@@ -19253,7 +19265,7 @@
       <c r="X535" s="5"/>
       <c r="Y535" s="5"/>
     </row>
-    <row r="536" spans="1:25" ht="15.75" customHeight="1">
+    <row r="536" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="40"/>
       <c r="C536" s="41"/>
@@ -19280,7 +19292,7 @@
       <c r="X536" s="5"/>
       <c r="Y536" s="5"/>
     </row>
-    <row r="537" spans="1:25" ht="15.75" customHeight="1">
+    <row r="537" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="40"/>
       <c r="C537" s="41"/>
@@ -19307,7 +19319,7 @@
       <c r="X537" s="5"/>
       <c r="Y537" s="5"/>
     </row>
-    <row r="538" spans="1:25" ht="15.75" customHeight="1">
+    <row r="538" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="40"/>
       <c r="C538" s="41"/>
@@ -19334,7 +19346,7 @@
       <c r="X538" s="5"/>
       <c r="Y538" s="5"/>
     </row>
-    <row r="539" spans="1:25" ht="15.75" customHeight="1">
+    <row r="539" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="40"/>
       <c r="C539" s="41"/>
@@ -19361,7 +19373,7 @@
       <c r="X539" s="5"/>
       <c r="Y539" s="5"/>
     </row>
-    <row r="540" spans="1:25" ht="15.75" customHeight="1">
+    <row r="540" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="40"/>
       <c r="C540" s="41"/>
@@ -19388,7 +19400,7 @@
       <c r="X540" s="5"/>
       <c r="Y540" s="5"/>
     </row>
-    <row r="541" spans="1:25" ht="15.75" customHeight="1">
+    <row r="541" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="40"/>
       <c r="C541" s="41"/>
@@ -19415,7 +19427,7 @@
       <c r="X541" s="5"/>
       <c r="Y541" s="5"/>
     </row>
-    <row r="542" spans="1:25" ht="15.75" customHeight="1">
+    <row r="542" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="40"/>
       <c r="C542" s="41"/>
@@ -19442,7 +19454,7 @@
       <c r="X542" s="5"/>
       <c r="Y542" s="5"/>
     </row>
-    <row r="543" spans="1:25" ht="15.75" customHeight="1">
+    <row r="543" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="40"/>
       <c r="C543" s="41"/>
@@ -19469,7 +19481,7 @@
       <c r="X543" s="5"/>
       <c r="Y543" s="5"/>
     </row>
-    <row r="544" spans="1:25" ht="15.75" customHeight="1">
+    <row r="544" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="40"/>
       <c r="C544" s="41"/>
@@ -19496,7 +19508,7 @@
       <c r="X544" s="5"/>
       <c r="Y544" s="5"/>
     </row>
-    <row r="545" spans="1:25" ht="15.75" customHeight="1">
+    <row r="545" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="40"/>
       <c r="C545" s="41"/>
@@ -19523,7 +19535,7 @@
       <c r="X545" s="5"/>
       <c r="Y545" s="5"/>
     </row>
-    <row r="546" spans="1:25" ht="15.75" customHeight="1">
+    <row r="546" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="40"/>
       <c r="C546" s="41"/>
@@ -19550,7 +19562,7 @@
       <c r="X546" s="5"/>
       <c r="Y546" s="5"/>
     </row>
-    <row r="547" spans="1:25" ht="15.75" customHeight="1">
+    <row r="547" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="40"/>
       <c r="C547" s="41"/>
@@ -19577,7 +19589,7 @@
       <c r="X547" s="5"/>
       <c r="Y547" s="5"/>
     </row>
-    <row r="548" spans="1:25" ht="15.75" customHeight="1">
+    <row r="548" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="40"/>
       <c r="C548" s="41"/>
@@ -19604,7 +19616,7 @@
       <c r="X548" s="5"/>
       <c r="Y548" s="5"/>
     </row>
-    <row r="549" spans="1:25" ht="15.75" customHeight="1">
+    <row r="549" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="40"/>
       <c r="C549" s="41"/>
@@ -19631,7 +19643,7 @@
       <c r="X549" s="5"/>
       <c r="Y549" s="5"/>
     </row>
-    <row r="550" spans="1:25" ht="15.75" customHeight="1">
+    <row r="550" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="40"/>
       <c r="C550" s="41"/>
@@ -19658,7 +19670,7 @@
       <c r="X550" s="5"/>
       <c r="Y550" s="5"/>
     </row>
-    <row r="551" spans="1:25" ht="15.75" customHeight="1">
+    <row r="551" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="40"/>
       <c r="C551" s="41"/>
@@ -19685,7 +19697,7 @@
       <c r="X551" s="5"/>
       <c r="Y551" s="5"/>
     </row>
-    <row r="552" spans="1:25" ht="15.75" customHeight="1">
+    <row r="552" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="40"/>
       <c r="C552" s="41"/>
@@ -19712,7 +19724,7 @@
       <c r="X552" s="5"/>
       <c r="Y552" s="5"/>
     </row>
-    <row r="553" spans="1:25" ht="15.75" customHeight="1">
+    <row r="553" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="40"/>
       <c r="C553" s="41"/>
@@ -19739,7 +19751,7 @@
       <c r="X553" s="5"/>
       <c r="Y553" s="5"/>
     </row>
-    <row r="554" spans="1:25" ht="15.75" customHeight="1">
+    <row r="554" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="40"/>
       <c r="C554" s="41"/>
@@ -19766,7 +19778,7 @@
       <c r="X554" s="5"/>
       <c r="Y554" s="5"/>
     </row>
-    <row r="555" spans="1:25" ht="15.75" customHeight="1">
+    <row r="555" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="40"/>
       <c r="C555" s="41"/>
@@ -19793,7 +19805,7 @@
       <c r="X555" s="5"/>
       <c r="Y555" s="5"/>
     </row>
-    <row r="556" spans="1:25" ht="15.75" customHeight="1">
+    <row r="556" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="40"/>
       <c r="C556" s="41"/>
@@ -19820,7 +19832,7 @@
       <c r="X556" s="5"/>
       <c r="Y556" s="5"/>
     </row>
-    <row r="557" spans="1:25" ht="15.75" customHeight="1">
+    <row r="557" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="40"/>
       <c r="C557" s="41"/>
@@ -19847,7 +19859,7 @@
       <c r="X557" s="5"/>
       <c r="Y557" s="5"/>
     </row>
-    <row r="558" spans="1:25" ht="15.75" customHeight="1">
+    <row r="558" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="40"/>
       <c r="C558" s="41"/>
@@ -19874,7 +19886,7 @@
       <c r="X558" s="5"/>
       <c r="Y558" s="5"/>
     </row>
-    <row r="559" spans="1:25" ht="15.75" customHeight="1">
+    <row r="559" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="40"/>
       <c r="C559" s="41"/>
@@ -19901,7 +19913,7 @@
       <c r="X559" s="5"/>
       <c r="Y559" s="5"/>
     </row>
-    <row r="560" spans="1:25" ht="15.75" customHeight="1">
+    <row r="560" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="40"/>
       <c r="C560" s="41"/>
@@ -19928,7 +19940,7 @@
       <c r="X560" s="5"/>
       <c r="Y560" s="5"/>
     </row>
-    <row r="561" spans="1:25" ht="15.75" customHeight="1">
+    <row r="561" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="40"/>
       <c r="C561" s="41"/>
@@ -19955,7 +19967,7 @@
       <c r="X561" s="5"/>
       <c r="Y561" s="5"/>
     </row>
-    <row r="562" spans="1:25" ht="15.75" customHeight="1">
+    <row r="562" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="40"/>
       <c r="C562" s="41"/>
@@ -19982,7 +19994,7 @@
       <c r="X562" s="5"/>
       <c r="Y562" s="5"/>
     </row>
-    <row r="563" spans="1:25" ht="15.75" customHeight="1">
+    <row r="563" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="40"/>
       <c r="C563" s="41"/>
@@ -20009,7 +20021,7 @@
       <c r="X563" s="5"/>
       <c r="Y563" s="5"/>
     </row>
-    <row r="564" spans="1:25" ht="15.75" customHeight="1">
+    <row r="564" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="40"/>
       <c r="C564" s="41"/>
@@ -20036,7 +20048,7 @@
       <c r="X564" s="5"/>
       <c r="Y564" s="5"/>
     </row>
-    <row r="565" spans="1:25" ht="15.75" customHeight="1">
+    <row r="565" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="40"/>
       <c r="C565" s="41"/>
@@ -20063,7 +20075,7 @@
       <c r="X565" s="5"/>
       <c r="Y565" s="5"/>
     </row>
-    <row r="566" spans="1:25" ht="15.75" customHeight="1">
+    <row r="566" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="40"/>
       <c r="C566" s="41"/>
@@ -20090,7 +20102,7 @@
       <c r="X566" s="5"/>
       <c r="Y566" s="5"/>
     </row>
-    <row r="567" spans="1:25" ht="15.75" customHeight="1">
+    <row r="567" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="40"/>
       <c r="C567" s="41"/>
@@ -20117,7 +20129,7 @@
       <c r="X567" s="5"/>
       <c r="Y567" s="5"/>
     </row>
-    <row r="568" spans="1:25" ht="15.75" customHeight="1">
+    <row r="568" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="40"/>
       <c r="C568" s="41"/>
@@ -20144,7 +20156,7 @@
       <c r="X568" s="5"/>
       <c r="Y568" s="5"/>
     </row>
-    <row r="569" spans="1:25" ht="15.75" customHeight="1">
+    <row r="569" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="40"/>
       <c r="C569" s="41"/>
@@ -20171,7 +20183,7 @@
       <c r="X569" s="5"/>
       <c r="Y569" s="5"/>
     </row>
-    <row r="570" spans="1:25" ht="15.75" customHeight="1">
+    <row r="570" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="40"/>
       <c r="C570" s="41"/>
@@ -20198,7 +20210,7 @@
       <c r="X570" s="5"/>
       <c r="Y570" s="5"/>
     </row>
-    <row r="571" spans="1:25" ht="15.75" customHeight="1">
+    <row r="571" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="40"/>
       <c r="C571" s="41"/>
@@ -20225,7 +20237,7 @@
       <c r="X571" s="5"/>
       <c r="Y571" s="5"/>
     </row>
-    <row r="572" spans="1:25" ht="15.75" customHeight="1">
+    <row r="572" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="40"/>
       <c r="C572" s="41"/>
@@ -20252,7 +20264,7 @@
       <c r="X572" s="5"/>
       <c r="Y572" s="5"/>
     </row>
-    <row r="573" spans="1:25" ht="15.75" customHeight="1">
+    <row r="573" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="40"/>
       <c r="C573" s="41"/>
@@ -20279,7 +20291,7 @@
       <c r="X573" s="5"/>
       <c r="Y573" s="5"/>
     </row>
-    <row r="574" spans="1:25" ht="15.75" customHeight="1">
+    <row r="574" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="40"/>
       <c r="C574" s="41"/>
@@ -20306,7 +20318,7 @@
       <c r="X574" s="5"/>
       <c r="Y574" s="5"/>
     </row>
-    <row r="575" spans="1:25" ht="15.75" customHeight="1">
+    <row r="575" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="40"/>
       <c r="C575" s="41"/>
@@ -20333,7 +20345,7 @@
       <c r="X575" s="5"/>
       <c r="Y575" s="5"/>
     </row>
-    <row r="576" spans="1:25" ht="15.75" customHeight="1">
+    <row r="576" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="40"/>
       <c r="C576" s="41"/>
@@ -20360,7 +20372,7 @@
       <c r="X576" s="5"/>
       <c r="Y576" s="5"/>
     </row>
-    <row r="577" spans="1:25" ht="15.75" customHeight="1">
+    <row r="577" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="40"/>
       <c r="C577" s="41"/>
@@ -20387,7 +20399,7 @@
       <c r="X577" s="5"/>
       <c r="Y577" s="5"/>
     </row>
-    <row r="578" spans="1:25" ht="15.75" customHeight="1">
+    <row r="578" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="40"/>
       <c r="C578" s="41"/>
@@ -20414,7 +20426,7 @@
       <c r="X578" s="5"/>
       <c r="Y578" s="5"/>
     </row>
-    <row r="579" spans="1:25" ht="15.75" customHeight="1">
+    <row r="579" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="40"/>
       <c r="C579" s="41"/>
@@ -20441,7 +20453,7 @@
       <c r="X579" s="5"/>
       <c r="Y579" s="5"/>
     </row>
-    <row r="580" spans="1:25" ht="15.75" customHeight="1">
+    <row r="580" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="40"/>
       <c r="C580" s="41"/>
@@ -20468,7 +20480,7 @@
       <c r="X580" s="5"/>
       <c r="Y580" s="5"/>
     </row>
-    <row r="581" spans="1:25" ht="15.75" customHeight="1">
+    <row r="581" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="40"/>
       <c r="C581" s="41"/>
@@ -20495,7 +20507,7 @@
       <c r="X581" s="5"/>
       <c r="Y581" s="5"/>
     </row>
-    <row r="582" spans="1:25" ht="15.75" customHeight="1">
+    <row r="582" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="40"/>
       <c r="C582" s="41"/>
@@ -20522,7 +20534,7 @@
       <c r="X582" s="5"/>
       <c r="Y582" s="5"/>
     </row>
-    <row r="583" spans="1:25" ht="15.75" customHeight="1">
+    <row r="583" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="40"/>
       <c r="C583" s="41"/>
@@ -20549,7 +20561,7 @@
       <c r="X583" s="5"/>
       <c r="Y583" s="5"/>
     </row>
-    <row r="584" spans="1:25" ht="15.75" customHeight="1">
+    <row r="584" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="40"/>
       <c r="C584" s="41"/>
@@ -20576,7 +20588,7 @@
       <c r="X584" s="5"/>
       <c r="Y584" s="5"/>
     </row>
-    <row r="585" spans="1:25" ht="15.75" customHeight="1">
+    <row r="585" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="40"/>
       <c r="C585" s="41"/>
@@ -20603,7 +20615,7 @@
       <c r="X585" s="5"/>
       <c r="Y585" s="5"/>
     </row>
-    <row r="586" spans="1:25" ht="15.75" customHeight="1">
+    <row r="586" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="40"/>
       <c r="C586" s="41"/>
@@ -20630,7 +20642,7 @@
       <c r="X586" s="5"/>
       <c r="Y586" s="5"/>
     </row>
-    <row r="587" spans="1:25" ht="15.75" customHeight="1">
+    <row r="587" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="40"/>
       <c r="C587" s="41"/>
@@ -20657,7 +20669,7 @@
       <c r="X587" s="5"/>
       <c r="Y587" s="5"/>
     </row>
-    <row r="588" spans="1:25" ht="15.75" customHeight="1">
+    <row r="588" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="40"/>
       <c r="C588" s="41"/>
@@ -20684,7 +20696,7 @@
       <c r="X588" s="5"/>
       <c r="Y588" s="5"/>
     </row>
-    <row r="589" spans="1:25" ht="15.75" customHeight="1">
+    <row r="589" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="40"/>
       <c r="C589" s="41"/>
@@ -20711,7 +20723,7 @@
       <c r="X589" s="5"/>
       <c r="Y589" s="5"/>
     </row>
-    <row r="590" spans="1:25" ht="15.75" customHeight="1">
+    <row r="590" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="40"/>
       <c r="C590" s="41"/>
@@ -20738,7 +20750,7 @@
       <c r="X590" s="5"/>
       <c r="Y590" s="5"/>
     </row>
-    <row r="591" spans="1:25" ht="15.75" customHeight="1">
+    <row r="591" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="40"/>
       <c r="C591" s="41"/>
@@ -20765,7 +20777,7 @@
       <c r="X591" s="5"/>
       <c r="Y591" s="5"/>
     </row>
-    <row r="592" spans="1:25" ht="15.75" customHeight="1">
+    <row r="592" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="40"/>
       <c r="C592" s="41"/>
@@ -20792,7 +20804,7 @@
       <c r="X592" s="5"/>
       <c r="Y592" s="5"/>
     </row>
-    <row r="593" spans="1:25" ht="15.75" customHeight="1">
+    <row r="593" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="40"/>
       <c r="C593" s="41"/>
@@ -20819,7 +20831,7 @@
       <c r="X593" s="5"/>
       <c r="Y593" s="5"/>
     </row>
-    <row r="594" spans="1:25" ht="15.75" customHeight="1">
+    <row r="594" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="40"/>
       <c r="C594" s="41"/>
@@ -20846,7 +20858,7 @@
       <c r="X594" s="5"/>
       <c r="Y594" s="5"/>
     </row>
-    <row r="595" spans="1:25" ht="15.75" customHeight="1">
+    <row r="595" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="40"/>
       <c r="C595" s="41"/>
@@ -20873,7 +20885,7 @@
       <c r="X595" s="5"/>
       <c r="Y595" s="5"/>
     </row>
-    <row r="596" spans="1:25" ht="15.75" customHeight="1">
+    <row r="596" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="40"/>
       <c r="C596" s="41"/>
@@ -20900,7 +20912,7 @@
       <c r="X596" s="5"/>
       <c r="Y596" s="5"/>
     </row>
-    <row r="597" spans="1:25" ht="15.75" customHeight="1">
+    <row r="597" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="40"/>
       <c r="C597" s="41"/>
@@ -20927,7 +20939,7 @@
       <c r="X597" s="5"/>
       <c r="Y597" s="5"/>
     </row>
-    <row r="598" spans="1:25" ht="15.75" customHeight="1">
+    <row r="598" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="40"/>
       <c r="C598" s="41"/>
@@ -20954,7 +20966,7 @@
       <c r="X598" s="5"/>
       <c r="Y598" s="5"/>
     </row>
-    <row r="599" spans="1:25" ht="15.75" customHeight="1">
+    <row r="599" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="40"/>
       <c r="C599" s="41"/>
@@ -20981,7 +20993,7 @@
       <c r="X599" s="5"/>
       <c r="Y599" s="5"/>
     </row>
-    <row r="600" spans="1:25" ht="15.75" customHeight="1">
+    <row r="600" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="40"/>
       <c r="C600" s="41"/>
@@ -21008,7 +21020,7 @@
       <c r="X600" s="5"/>
       <c r="Y600" s="5"/>
     </row>
-    <row r="601" spans="1:25" ht="15.75" customHeight="1">
+    <row r="601" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="40"/>
       <c r="C601" s="41"/>
@@ -21035,7 +21047,7 @@
       <c r="X601" s="5"/>
       <c r="Y601" s="5"/>
     </row>
-    <row r="602" spans="1:25" ht="15.75" customHeight="1">
+    <row r="602" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="40"/>
       <c r="C602" s="41"/>
@@ -21062,7 +21074,7 @@
       <c r="X602" s="5"/>
       <c r="Y602" s="5"/>
     </row>
-    <row r="603" spans="1:25" ht="15.75" customHeight="1">
+    <row r="603" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="40"/>
       <c r="C603" s="41"/>
@@ -21089,7 +21101,7 @@
       <c r="X603" s="5"/>
       <c r="Y603" s="5"/>
     </row>
-    <row r="604" spans="1:25" ht="15.75" customHeight="1">
+    <row r="604" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="40"/>
       <c r="C604" s="41"/>
@@ -21116,7 +21128,7 @@
       <c r="X604" s="5"/>
       <c r="Y604" s="5"/>
     </row>
-    <row r="605" spans="1:25" ht="15.75" customHeight="1">
+    <row r="605" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="40"/>
       <c r="C605" s="41"/>
@@ -21143,7 +21155,7 @@
       <c r="X605" s="5"/>
       <c r="Y605" s="5"/>
     </row>
-    <row r="606" spans="1:25" ht="15.75" customHeight="1">
+    <row r="606" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="40"/>
       <c r="C606" s="41"/>
@@ -21170,7 +21182,7 @@
       <c r="X606" s="5"/>
       <c r="Y606" s="5"/>
     </row>
-    <row r="607" spans="1:25" ht="15.75" customHeight="1">
+    <row r="607" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="40"/>
       <c r="C607" s="41"/>
@@ -21197,7 +21209,7 @@
       <c r="X607" s="5"/>
       <c r="Y607" s="5"/>
     </row>
-    <row r="608" spans="1:25" ht="15.75" customHeight="1">
+    <row r="608" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="40"/>
       <c r="C608" s="41"/>
@@ -21224,7 +21236,7 @@
       <c r="X608" s="5"/>
       <c r="Y608" s="5"/>
     </row>
-    <row r="609" spans="1:25" ht="15.75" customHeight="1">
+    <row r="609" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="40"/>
       <c r="C609" s="41"/>
@@ -21251,7 +21263,7 @@
       <c r="X609" s="5"/>
       <c r="Y609" s="5"/>
     </row>
-    <row r="610" spans="1:25" ht="15.75" customHeight="1">
+    <row r="610" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="40"/>
       <c r="C610" s="41"/>
@@ -21278,7 +21290,7 @@
       <c r="X610" s="5"/>
       <c r="Y610" s="5"/>
     </row>
-    <row r="611" spans="1:25" ht="15.75" customHeight="1">
+    <row r="611" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="40"/>
       <c r="C611" s="41"/>
@@ -21305,7 +21317,7 @@
       <c r="X611" s="5"/>
       <c r="Y611" s="5"/>
     </row>
-    <row r="612" spans="1:25" ht="15.75" customHeight="1">
+    <row r="612" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="40"/>
       <c r="C612" s="41"/>
@@ -21332,7 +21344,7 @@
       <c r="X612" s="5"/>
       <c r="Y612" s="5"/>
     </row>
-    <row r="613" spans="1:25" ht="15.75" customHeight="1">
+    <row r="613" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="40"/>
       <c r="C613" s="41"/>
@@ -21359,7 +21371,7 @@
       <c r="X613" s="5"/>
       <c r="Y613" s="5"/>
     </row>
-    <row r="614" spans="1:25" ht="15.75" customHeight="1">
+    <row r="614" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="40"/>
       <c r="C614" s="41"/>
@@ -21386,7 +21398,7 @@
       <c r="X614" s="5"/>
       <c r="Y614" s="5"/>
     </row>
-    <row r="615" spans="1:25" ht="15.75" customHeight="1">
+    <row r="615" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="40"/>
       <c r="C615" s="41"/>
@@ -21413,7 +21425,7 @@
       <c r="X615" s="5"/>
       <c r="Y615" s="5"/>
     </row>
-    <row r="616" spans="1:25" ht="15.75" customHeight="1">
+    <row r="616" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="40"/>
       <c r="C616" s="41"/>
@@ -21440,7 +21452,7 @@
       <c r="X616" s="5"/>
       <c r="Y616" s="5"/>
     </row>
-    <row r="617" spans="1:25" ht="15.75" customHeight="1">
+    <row r="617" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="40"/>
       <c r="C617" s="41"/>
@@ -21467,7 +21479,7 @@
       <c r="X617" s="5"/>
       <c r="Y617" s="5"/>
     </row>
-    <row r="618" spans="1:25" ht="15.75" customHeight="1">
+    <row r="618" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="40"/>
       <c r="C618" s="41"/>
@@ -21494,7 +21506,7 @@
       <c r="X618" s="5"/>
       <c r="Y618" s="5"/>
     </row>
-    <row r="619" spans="1:25" ht="15.75" customHeight="1">
+    <row r="619" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="40"/>
       <c r="C619" s="41"/>
@@ -21521,7 +21533,7 @@
       <c r="X619" s="5"/>
       <c r="Y619" s="5"/>
     </row>
-    <row r="620" spans="1:25" ht="15.75" customHeight="1">
+    <row r="620" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="40"/>
       <c r="C620" s="41"/>
@@ -21548,7 +21560,7 @@
       <c r="X620" s="5"/>
       <c r="Y620" s="5"/>
     </row>
-    <row r="621" spans="1:25" ht="15.75" customHeight="1">
+    <row r="621" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="40"/>
       <c r="C621" s="41"/>
@@ -21575,7 +21587,7 @@
       <c r="X621" s="5"/>
       <c r="Y621" s="5"/>
     </row>
-    <row r="622" spans="1:25" ht="15.75" customHeight="1">
+    <row r="622" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="40"/>
       <c r="C622" s="41"/>
@@ -21602,7 +21614,7 @@
       <c r="X622" s="5"/>
       <c r="Y622" s="5"/>
     </row>
-    <row r="623" spans="1:25" ht="15.75" customHeight="1">
+    <row r="623" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="40"/>
       <c r="C623" s="41"/>
@@ -21629,7 +21641,7 @@
       <c r="X623" s="5"/>
       <c r="Y623" s="5"/>
     </row>
-    <row r="624" spans="1:25" ht="15.75" customHeight="1">
+    <row r="624" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="40"/>
       <c r="C624" s="41"/>
@@ -21656,7 +21668,7 @@
       <c r="X624" s="5"/>
       <c r="Y624" s="5"/>
     </row>
-    <row r="625" spans="1:25" ht="15.75" customHeight="1">
+    <row r="625" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="40"/>
       <c r="C625" s="41"/>
@@ -21683,7 +21695,7 @@
       <c r="X625" s="5"/>
       <c r="Y625" s="5"/>
     </row>
-    <row r="626" spans="1:25" ht="15.75" customHeight="1">
+    <row r="626" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="40"/>
       <c r="C626" s="41"/>
@@ -21710,7 +21722,7 @@
       <c r="X626" s="5"/>
       <c r="Y626" s="5"/>
     </row>
-    <row r="627" spans="1:25" ht="15.75" customHeight="1">
+    <row r="627" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="40"/>
       <c r="C627" s="41"/>
@@ -21737,7 +21749,7 @@
       <c r="X627" s="5"/>
       <c r="Y627" s="5"/>
     </row>
-    <row r="628" spans="1:25" ht="15.75" customHeight="1">
+    <row r="628" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="40"/>
       <c r="C628" s="41"/>
@@ -21764,7 +21776,7 @@
       <c r="X628" s="5"/>
       <c r="Y628" s="5"/>
     </row>
-    <row r="629" spans="1:25" ht="15.75" customHeight="1">
+    <row r="629" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="40"/>
       <c r="C629" s="41"/>
@@ -21791,7 +21803,7 @@
       <c r="X629" s="5"/>
       <c r="Y629" s="5"/>
     </row>
-    <row r="630" spans="1:25" ht="15.75" customHeight="1">
+    <row r="630" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="40"/>
       <c r="C630" s="41"/>
@@ -21818,7 +21830,7 @@
       <c r="X630" s="5"/>
       <c r="Y630" s="5"/>
     </row>
-    <row r="631" spans="1:25" ht="15.75" customHeight="1">
+    <row r="631" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="40"/>
       <c r="C631" s="41"/>
@@ -21845,7 +21857,7 @@
       <c r="X631" s="5"/>
       <c r="Y631" s="5"/>
     </row>
-    <row r="632" spans="1:25" ht="15.75" customHeight="1">
+    <row r="632" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="40"/>
       <c r="C632" s="41"/>
@@ -21872,7 +21884,7 @@
       <c r="X632" s="5"/>
       <c r="Y632" s="5"/>
     </row>
-    <row r="633" spans="1:25" ht="15.75" customHeight="1">
+    <row r="633" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="40"/>
       <c r="C633" s="41"/>
@@ -21899,7 +21911,7 @@
       <c r="X633" s="5"/>
       <c r="Y633" s="5"/>
     </row>
-    <row r="634" spans="1:25" ht="15.75" customHeight="1">
+    <row r="634" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="40"/>
       <c r="C634" s="41"/>
@@ -21926,7 +21938,7 @@
       <c r="X634" s="5"/>
       <c r="Y634" s="5"/>
     </row>
-    <row r="635" spans="1:25" ht="15.75" customHeight="1">
+    <row r="635" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="40"/>
       <c r="C635" s="41"/>
@@ -21953,7 +21965,7 @@
       <c r="X635" s="5"/>
       <c r="Y635" s="5"/>
     </row>
-    <row r="636" spans="1:25" ht="15.75" customHeight="1">
+    <row r="636" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="40"/>
       <c r="C636" s="41"/>
@@ -21980,7 +21992,7 @@
       <c r="X636" s="5"/>
       <c r="Y636" s="5"/>
     </row>
-    <row r="637" spans="1:25" ht="15.75" customHeight="1">
+    <row r="637" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="40"/>
       <c r="C637" s="41"/>
@@ -22007,7 +22019,7 @@
       <c r="X637" s="5"/>
       <c r="Y637" s="5"/>
     </row>
-    <row r="638" spans="1:25" ht="15.75" customHeight="1">
+    <row r="638" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="40"/>
       <c r="C638" s="41"/>
@@ -22034,7 +22046,7 @@
       <c r="X638" s="5"/>
       <c r="Y638" s="5"/>
     </row>
-    <row r="639" spans="1:25" ht="15.75" customHeight="1">
+    <row r="639" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="40"/>
       <c r="C639" s="41"/>
@@ -22061,7 +22073,7 @@
       <c r="X639" s="5"/>
       <c r="Y639" s="5"/>
     </row>
-    <row r="640" spans="1:25" ht="15.75" customHeight="1">
+    <row r="640" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="40"/>
       <c r="C640" s="41"/>
@@ -22088,7 +22100,7 @@
       <c r="X640" s="5"/>
       <c r="Y640" s="5"/>
     </row>
-    <row r="641" spans="1:25" ht="15.75" customHeight="1">
+    <row r="641" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="40"/>
       <c r="C641" s="41"/>
@@ -22115,7 +22127,7 @@
       <c r="X641" s="5"/>
       <c r="Y641" s="5"/>
     </row>
-    <row r="642" spans="1:25" ht="15.75" customHeight="1">
+    <row r="642" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="40"/>
       <c r="C642" s="41"/>
@@ -22142,7 +22154,7 @@
       <c r="X642" s="5"/>
       <c r="Y642" s="5"/>
     </row>
-    <row r="643" spans="1:25" ht="15.75" customHeight="1">
+    <row r="643" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="40"/>
       <c r="C643" s="41"/>
@@ -22169,7 +22181,7 @@
       <c r="X643" s="5"/>
       <c r="Y643" s="5"/>
     </row>
-    <row r="644" spans="1:25" ht="15.75" customHeight="1">
+    <row r="644" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="40"/>
       <c r="C644" s="41"/>
@@ -22196,7 +22208,7 @@
       <c r="X644" s="5"/>
       <c r="Y644" s="5"/>
     </row>
-    <row r="645" spans="1:25" ht="15.75" customHeight="1">
+    <row r="645" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="40"/>
       <c r="C645" s="41"/>
@@ -22223,7 +22235,7 @@
       <c r="X645" s="5"/>
       <c r="Y645" s="5"/>
     </row>
-    <row r="646" spans="1:25" ht="15.75" customHeight="1">
+    <row r="646" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="40"/>
       <c r="C646" s="41"/>
@@ -22250,7 +22262,7 @@
       <c r="X646" s="5"/>
       <c r="Y646" s="5"/>
     </row>
-    <row r="647" spans="1:25" ht="15.75" customHeight="1">
+    <row r="647" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="40"/>
       <c r="C647" s="41"/>
@@ -22277,7 +22289,7 @@
       <c r="X647" s="5"/>
       <c r="Y647" s="5"/>
     </row>
-    <row r="648" spans="1:25" ht="15.75" customHeight="1">
+    <row r="648" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="40"/>
       <c r="C648" s="41"/>
@@ -22304,7 +22316,7 @@
       <c r="X648" s="5"/>
       <c r="Y648" s="5"/>
     </row>
-    <row r="649" spans="1:25" ht="15.75" customHeight="1">
+    <row r="649" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="40"/>
       <c r="C649" s="41"/>
@@ -22331,7 +22343,7 @@
       <c r="X649" s="5"/>
       <c r="Y649" s="5"/>
     </row>
-    <row r="650" spans="1:25" ht="15.75" customHeight="1">
+    <row r="650" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="40"/>
       <c r="C650" s="41"/>
@@ -22358,7 +22370,7 @@
       <c r="X650" s="5"/>
       <c r="Y650" s="5"/>
     </row>
-    <row r="651" spans="1:25" ht="15.75" customHeight="1">
+    <row r="651" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="40"/>
       <c r="C651" s="41"/>
@@ -22385,7 +22397,7 @@
       <c r="X651" s="5"/>
       <c r="Y651" s="5"/>
     </row>
-    <row r="652" spans="1:25" ht="15.75" customHeight="1">
+    <row r="652" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="40"/>
       <c r="C652" s="41"/>
@@ -22412,7 +22424,7 @@
       <c r="X652" s="5"/>
       <c r="Y652" s="5"/>
     </row>
-    <row r="653" spans="1:25" ht="15.75" customHeight="1">
+    <row r="653" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="40"/>
       <c r="C653" s="41"/>
@@ -22439,7 +22451,7 @@
       <c r="X653" s="5"/>
       <c r="Y653" s="5"/>
     </row>
-    <row r="654" spans="1:25" ht="15.75" customHeight="1">
+    <row r="654" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="40"/>
       <c r="C654" s="41"/>
@@ -22466,7 +22478,7 @@
       <c r="X654" s="5"/>
       <c r="Y654" s="5"/>
     </row>
-    <row r="655" spans="1:25" ht="15.75" customHeight="1">
+    <row r="655" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="40"/>
       <c r="C655" s="41"/>
@@ -22493,7 +22505,7 @@
       <c r="X655" s="5"/>
       <c r="Y655" s="5"/>
     </row>
-    <row r="656" spans="1:25" ht="15.75" customHeight="1">
+    <row r="656" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="40"/>
       <c r="C656" s="41"/>
@@ -22520,7 +22532,7 @@
       <c r="X656" s="5"/>
       <c r="Y656" s="5"/>
     </row>
-    <row r="657" spans="1:25" ht="15.75" customHeight="1">
+    <row r="657" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="40"/>
       <c r="C657" s="41"/>
@@ -22547,7 +22559,7 @@
       <c r="X657" s="5"/>
       <c r="Y657" s="5"/>
     </row>
-    <row r="658" spans="1:25" ht="15.75" customHeight="1">
+    <row r="658" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="40"/>
       <c r="C658" s="41"/>
@@ -22574,7 +22586,7 @@
       <c r="X658" s="5"/>
       <c r="Y658" s="5"/>
     </row>
-    <row r="659" spans="1:25" ht="15.75" customHeight="1">
+    <row r="659" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="40"/>
       <c r="C659" s="41"/>
@@ -22601,7 +22613,7 @@
       <c r="X659" s="5"/>
       <c r="Y659" s="5"/>
     </row>
-    <row r="660" spans="1:25" ht="15.75" customHeight="1">
+    <row r="660" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="40"/>
       <c r="C660" s="41"/>
@@ -22628,7 +22640,7 @@
       <c r="X660" s="5"/>
       <c r="Y660" s="5"/>
     </row>
-    <row r="661" spans="1:25" ht="15.75" customHeight="1">
+    <row r="661" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="40"/>
       <c r="C661" s="41"/>
@@ -22655,7 +22667,7 @@
       <c r="X661" s="5"/>
       <c r="Y661" s="5"/>
     </row>
-    <row r="662" spans="1:25" ht="15.75" customHeight="1">
+    <row r="662" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="40"/>
       <c r="C662" s="41"/>
@@ -22682,7 +22694,7 @@
       <c r="X662" s="5"/>
       <c r="Y662" s="5"/>
     </row>
-    <row r="663" spans="1:25" ht="15.75" customHeight="1">
+    <row r="663" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="40"/>
       <c r="C663" s="41"/>
@@ -22709,7 +22721,7 @@
       <c r="X663" s="5"/>
       <c r="Y663" s="5"/>
     </row>
-    <row r="664" spans="1:25" ht="15.75" customHeight="1">
+    <row r="664" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="40"/>
       <c r="C664" s="41"/>
@@ -22736,7 +22748,7 @@
       <c r="X664" s="5"/>
       <c r="Y664" s="5"/>
     </row>
-    <row r="665" spans="1:25" ht="15.75" customHeight="1">
+    <row r="665" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="40"/>
       <c r="C665" s="41"/>
@@ -22763,7 +22775,7 @@
       <c r="X665" s="5"/>
       <c r="Y665" s="5"/>
     </row>
-    <row r="666" spans="1:25" ht="15.75" customHeight="1">
+    <row r="666" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="40"/>
       <c r="C666" s="41"/>
@@ -22790,7 +22802,7 @@
       <c r="X666" s="5"/>
       <c r="Y666" s="5"/>
     </row>
-    <row r="667" spans="1:25" ht="15.75" customHeight="1">
+    <row r="667" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="40"/>
       <c r="C667" s="41"/>
@@ -22817,7 +22829,7 @@
       <c r="X667" s="5"/>
       <c r="Y667" s="5"/>
     </row>
-    <row r="668" spans="1:25" ht="15.75" customHeight="1">
+    <row r="668" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="40"/>
       <c r="C668" s="41"/>
@@ -22844,7 +22856,7 @@
       <c r="X668" s="5"/>
       <c r="Y668" s="5"/>
     </row>
-    <row r="669" spans="1:25" ht="15.75" customHeight="1">
+    <row r="669" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="40"/>
       <c r="C669" s="41"/>
@@ -22871,7 +22883,7 @@
       <c r="X669" s="5"/>
       <c r="Y669" s="5"/>
     </row>
-    <row r="670" spans="1:25" ht="15.75" customHeight="1">
+    <row r="670" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="40"/>
       <c r="C670" s="41"/>
@@ -22898,7 +22910,7 @@
       <c r="X670" s="5"/>
       <c r="Y670" s="5"/>
     </row>
-    <row r="671" spans="1:25" ht="15.75" customHeight="1">
+    <row r="671" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="40"/>
       <c r="C671" s="41"/>
@@ -22925,7 +22937,7 @@
       <c r="X671" s="5"/>
       <c r="Y671" s="5"/>
     </row>
-    <row r="672" spans="1:25" ht="15.75" customHeight="1">
+    <row r="672" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="40"/>
       <c r="C672" s="41"/>
@@ -22952,7 +22964,7 @@
       <c r="X672" s="5"/>
       <c r="Y672" s="5"/>
     </row>
-    <row r="673" spans="1:25" ht="15.75" customHeight="1">
+    <row r="673" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="40"/>
       <c r="C673" s="41"/>
@@ -22979,7 +22991,7 @@
       <c r="X673" s="5"/>
       <c r="Y673" s="5"/>
     </row>
-    <row r="674" spans="1:25" ht="15.75" customHeight="1">
+    <row r="674" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="40"/>
       <c r="C674" s="41"/>
@@ -23006,7 +23018,7 @@
       <c r="X674" s="5"/>
       <c r="Y674" s="5"/>
     </row>
-    <row r="675" spans="1:25" ht="15.75" customHeight="1">
+    <row r="675" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="40"/>
       <c r="C675" s="41"/>
@@ -23033,7 +23045,7 @@
       <c r="X675" s="5"/>
       <c r="Y675" s="5"/>
     </row>
-    <row r="676" spans="1:25" ht="15.75" customHeight="1">
+    <row r="676" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="40"/>
       <c r="C676" s="41"/>
@@ -23060,7 +23072,7 @@
       <c r="X676" s="5"/>
       <c r="Y676" s="5"/>
     </row>
-    <row r="677" spans="1:25" ht="15.75" customHeight="1">
+    <row r="677" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="40"/>
       <c r="C677" s="41"/>
@@ -23087,7 +23099,7 @@
       <c r="X677" s="5"/>
       <c r="Y677" s="5"/>
     </row>
-    <row r="678" spans="1:25" ht="15.75" customHeight="1">
+    <row r="678" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="40"/>
       <c r="C678" s="41"/>
@@ -23114,7 +23126,7 @@
       <c r="X678" s="5"/>
       <c r="Y678" s="5"/>
     </row>
-    <row r="679" spans="1:25" ht="15.75" customHeight="1">
+    <row r="679" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="40"/>
       <c r="C679" s="41"/>
@@ -23141,7 +23153,7 @@
       <c r="X679" s="5"/>
       <c r="Y679" s="5"/>
     </row>
-    <row r="680" spans="1:25" ht="15.75" customHeight="1">
+    <row r="680" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="40"/>
       <c r="C680" s="41"/>
@@ -23168,7 +23180,7 @@
       <c r="X680" s="5"/>
       <c r="Y680" s="5"/>
     </row>
-    <row r="681" spans="1:25" ht="15.75" customHeight="1">
+    <row r="681" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="40"/>
       <c r="C681" s="41"/>
@@ -23195,7 +23207,7 @@
       <c r="X681" s="5"/>
       <c r="Y681" s="5"/>
     </row>
-    <row r="682" spans="1:25" ht="15.75" customHeight="1">
+    <row r="682" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="40"/>
       <c r="C682" s="41"/>
@@ -23222,7 +23234,7 @@
       <c r="X682" s="5"/>
       <c r="Y682" s="5"/>
     </row>
-    <row r="683" spans="1:25" ht="15.75" customHeight="1">
+    <row r="683" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="40"/>
       <c r="C683" s="41"/>
@@ -23249,7 +23261,7 @@
       <c r="X683" s="5"/>
       <c r="Y683" s="5"/>
     </row>
-    <row r="684" spans="1:25" ht="15.75" customHeight="1">
+    <row r="684" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="40"/>
       <c r="C684" s="41"/>
@@ -23276,7 +23288,7 @@
       <c r="X684" s="5"/>
       <c r="Y684" s="5"/>
     </row>
-    <row r="685" spans="1:25" ht="15.75" customHeight="1">
+    <row r="685" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="40"/>
       <c r="C685" s="41"/>
@@ -23303,7 +23315,7 @@
       <c r="X685" s="5"/>
       <c r="Y685" s="5"/>
     </row>
-    <row r="686" spans="1:25" ht="15.75" customHeight="1">
+    <row r="686" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="40"/>
       <c r="C686" s="41"/>
@@ -23330,7 +23342,7 @@
       <c r="X686" s="5"/>
       <c r="Y686" s="5"/>
     </row>
-    <row r="687" spans="1:25" ht="15.75" customHeight="1">
+    <row r="687" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="40"/>
       <c r="C687" s="41"/>
@@ -23357,7 +23369,7 @@
       <c r="X687" s="5"/>
       <c r="Y687" s="5"/>
     </row>
-    <row r="688" spans="1:25" ht="15.75" customHeight="1">
+    <row r="688" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="40"/>
       <c r="C688" s="41"/>
@@ -23384,7 +23396,7 @@
       <c r="X688" s="5"/>
       <c r="Y688" s="5"/>
     </row>
-    <row r="689" spans="1:25" ht="15.75" customHeight="1">
+    <row r="689" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="40"/>
       <c r="C689" s="41"/>
@@ -23411,7 +23423,7 @@
       <c r="X689" s="5"/>
       <c r="Y689" s="5"/>
     </row>
-    <row r="690" spans="1:25" ht="15.75" customHeight="1">
+    <row r="690" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="40"/>
       <c r="C690" s="41"/>
@@ -23438,7 +23450,7 @@
       <c r="X690" s="5"/>
       <c r="Y690" s="5"/>
     </row>
-    <row r="691" spans="1:25" ht="15.75" customHeight="1">
+    <row r="691" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="40"/>
       <c r="C691" s="41"/>
@@ -23465,7 +23477,7 @@
       <c r="X691" s="5"/>
       <c r="Y691" s="5"/>
     </row>
-    <row r="692" spans="1:25" ht="15.75" customHeight="1">
+    <row r="692" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="40"/>
       <c r="C692" s="41"/>
@@ -23492,7 +23504,7 @@
       <c r="X692" s="5"/>
       <c r="Y692" s="5"/>
     </row>
-    <row r="693" spans="1:25" ht="15.75" customHeight="1">
+    <row r="693" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="40"/>
       <c r="C693" s="41"/>
@@ -23519,7 +23531,7 @@
       <c r="X693" s="5"/>
       <c r="Y693" s="5"/>
     </row>
-    <row r="694" spans="1:25" ht="15.75" customHeight="1">
+    <row r="694" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="40"/>
       <c r="C694" s="41"/>
@@ -23546,7 +23558,7 @@
       <c r="X694" s="5"/>
       <c r="Y694" s="5"/>
     </row>
-    <row r="695" spans="1:25" ht="15.75" customHeight="1">
+    <row r="695" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="40"/>
       <c r="C695" s="41"/>
@@ -23573,7 +23585,7 @@
       <c r="X695" s="5"/>
       <c r="Y695" s="5"/>
     </row>
-    <row r="696" spans="1:25" ht="15.75" customHeight="1">
+    <row r="696" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="40"/>
       <c r="C696" s="41"/>
@@ -23600,7 +23612,7 @@
       <c r="X696" s="5"/>
       <c r="Y696" s="5"/>
     </row>
-    <row r="697" spans="1:25" ht="15.75" customHeight="1">
+    <row r="697" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="40"/>
       <c r="C697" s="41"/>
@@ -23627,7 +23639,7 @@
       <c r="X697" s="5"/>
       <c r="Y697" s="5"/>
     </row>
-    <row r="698" spans="1:25" ht="15.75" customHeight="1">
+    <row r="698" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="40"/>
       <c r="C698" s="41"/>
@@ -23654,7 +23666,7 @@
       <c r="X698" s="5"/>
       <c r="Y698" s="5"/>
     </row>
-    <row r="699" spans="1:25" ht="15.75" customHeight="1">
+    <row r="699" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="40"/>
       <c r="C699" s="41"/>
@@ -23681,7 +23693,7 @@
       <c r="X699" s="5"/>
       <c r="Y699" s="5"/>
     </row>
-    <row r="700" spans="1:25" ht="15.75" customHeight="1">
+    <row r="700" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="40"/>
       <c r="C700" s="41"/>
@@ -23708,7 +23720,7 @@
       <c r="X700" s="5"/>
       <c r="Y700" s="5"/>
     </row>
-    <row r="701" spans="1:25" ht="15.75" customHeight="1">
+    <row r="701" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="40"/>
       <c r="C701" s="41"/>
@@ -23735,7 +23747,7 @@
       <c r="X701" s="5"/>
       <c r="Y701" s="5"/>
     </row>
-    <row r="702" spans="1:25" ht="15.75" customHeight="1">
+    <row r="702" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="40"/>
       <c r="C702" s="41"/>
@@ -23762,7 +23774,7 @@
       <c r="X702" s="5"/>
       <c r="Y702" s="5"/>
     </row>
-    <row r="703" spans="1:25" ht="15.75" customHeight="1">
+    <row r="703" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="40"/>
       <c r="C703" s="41"/>
@@ -23789,7 +23801,7 @@
       <c r="X703" s="5"/>
       <c r="Y703" s="5"/>
     </row>
-    <row r="704" spans="1:25" ht="15.75" customHeight="1">
+    <row r="704" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="40"/>
       <c r="C704" s="41"/>
@@ -23816,7 +23828,7 @@
       <c r="X704" s="5"/>
       <c r="Y704" s="5"/>
     </row>
-    <row r="705" spans="1:25" ht="15.75" customHeight="1">
+    <row r="705" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="40"/>
       <c r="C705" s="41"/>
@@ -23843,7 +23855,7 @@
       <c r="X705" s="5"/>
       <c r="Y705" s="5"/>
     </row>
-    <row r="706" spans="1:25" ht="15.75" customHeight="1">
+    <row r="706" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="40"/>
       <c r="C706" s="41"/>
@@ -23870,7 +23882,7 @@
       <c r="X706" s="5"/>
       <c r="Y706" s="5"/>
     </row>
-    <row r="707" spans="1:25" ht="15.75" customHeight="1">
+    <row r="707" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="40"/>
       <c r="C707" s="41"/>
@@ -23897,7 +23909,7 @@
       <c r="X707" s="5"/>
       <c r="Y707" s="5"/>
     </row>
-    <row r="708" spans="1:25" ht="15.75" customHeight="1">
+    <row r="708" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="40"/>
       <c r="C708" s="41"/>
@@ -23924,7 +23936,7 @@
       <c r="X708" s="5"/>
       <c r="Y708" s="5"/>
     </row>
-    <row r="709" spans="1:25" ht="15.75" customHeight="1">
+    <row r="709" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="40"/>
       <c r="C709" s="41"/>
@@ -23951,7 +23963,7 @@
       <c r="X709" s="5"/>
       <c r="Y709" s="5"/>
     </row>
-    <row r="710" spans="1:25" ht="15.75" customHeight="1">
+    <row r="710" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="40"/>
       <c r="C710" s="41"/>
@@ -23978,7 +23990,7 @@
       <c r="X710" s="5"/>
       <c r="Y710" s="5"/>
     </row>
-    <row r="711" spans="1:25" ht="15.75" customHeight="1">
+    <row r="711" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="40"/>
       <c r="C711" s="41"/>
@@ -24005,7 +24017,7 @@
       <c r="X711" s="5"/>
       <c r="Y711" s="5"/>
     </row>
-    <row r="712" spans="1:25" ht="15.75" customHeight="1">
+    <row r="712" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="40"/>
       <c r="C712" s="41"/>
@@ -24032,7 +24044,7 @@
       <c r="X712" s="5"/>
       <c r="Y712" s="5"/>
     </row>
-    <row r="713" spans="1:25" ht="15.75" customHeight="1">
+    <row r="713" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="40"/>
       <c r="C713" s="41"/>
@@ -24059,7 +24071,7 @@
       <c r="X713" s="5"/>
       <c r="Y713" s="5"/>
     </row>
-    <row r="714" spans="1:25" ht="15.75" customHeight="1">
+    <row r="714" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="40"/>
       <c r="C714" s="41"/>
@@ -24086,7 +24098,7 @@
       <c r="X714" s="5"/>
       <c r="Y714" s="5"/>
     </row>
-    <row r="715" spans="1:25" ht="15.75" customHeight="1">
+    <row r="715" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="40"/>
       <c r="C715" s="41"/>
@@ -24113,7 +24125,7 @@
       <c r="X715" s="5"/>
       <c r="Y715" s="5"/>
     </row>
-    <row r="716" spans="1:25" ht="15.75" customHeight="1">
+    <row r="716" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="40"/>
       <c r="C716" s="41"/>
@@ -24140,7 +24152,7 @@
       <c r="X716" s="5"/>
       <c r="Y716" s="5"/>
     </row>
-    <row r="717" spans="1:25" ht="15.75" customHeight="1">
+    <row r="717" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="40"/>
       <c r="C717" s="41"/>
@@ -24167,7 +24179,7 @@
       <c r="X717" s="5"/>
       <c r="Y717" s="5"/>
     </row>
-    <row r="718" spans="1:25" ht="15.75" customHeight="1">
+    <row r="718" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="40"/>
       <c r="C718" s="41"/>
@@ -24194,7 +24206,7 @@
       <c r="X718" s="5"/>
       <c r="Y718" s="5"/>
     </row>
-    <row r="719" spans="1:25" ht="15.75" customHeight="1">
+    <row r="719" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="40"/>
       <c r="C719" s="41"/>
@@ -24221,7 +24233,7 @@
       <c r="X719" s="5"/>
       <c r="Y719" s="5"/>
     </row>
-    <row r="720" spans="1:25" ht="15.75" customHeight="1">
+    <row r="720" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="40"/>
       <c r="C720" s="41"/>
@@ -24248,7 +24260,7 @@
       <c r="X720" s="5"/>
       <c r="Y720" s="5"/>
     </row>
-    <row r="721" spans="1:25" ht="15.75" customHeight="1">
+    <row r="721" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="40"/>
       <c r="C721" s="41"/>
@@ -24275,7 +24287,7 @@
       <c r="X721" s="5"/>
       <c r="Y721" s="5"/>
     </row>
-    <row r="722" spans="1:25" ht="15.75" customHeight="1">
+    <row r="722" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="40"/>
       <c r="C722" s="41"/>
@@ -24302,7 +24314,7 @@
       <c r="X722" s="5"/>
       <c r="Y722" s="5"/>
     </row>
-    <row r="723" spans="1:25" ht="15.75" customHeight="1">
+    <row r="723" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="40"/>
       <c r="C723" s="41"/>
@@ -24329,7 +24341,7 @@
       <c r="X723" s="5"/>
       <c r="Y723" s="5"/>
     </row>
-    <row r="724" spans="1:25" ht="15.75" customHeight="1">
+    <row r="724" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="40"/>
       <c r="C724" s="41"/>
@@ -24356,7 +24368,7 @@
       <c r="X724" s="5"/>
       <c r="Y724" s="5"/>
     </row>
-    <row r="725" spans="1:25" ht="15.75" customHeight="1">
+    <row r="725" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="40"/>
       <c r="C725" s="41"/>
@@ -24383,7 +24395,7 @@
       <c r="X725" s="5"/>
       <c r="Y725" s="5"/>
     </row>
-    <row r="726" spans="1:25" ht="15.75" customHeight="1">
+    <row r="726" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="40"/>
       <c r="C726" s="41"/>
@@ -24410,7 +24422,7 @@
       <c r="X726" s="5"/>
       <c r="Y726" s="5"/>
     </row>
-    <row r="727" spans="1:25" ht="15.75" customHeight="1">
+    <row r="727" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="40"/>
       <c r="C727" s="41"/>
@@ -24437,7 +24449,7 @@
       <c r="X727" s="5"/>
       <c r="Y727" s="5"/>
     </row>
-    <row r="728" spans="1:25" ht="15.75" customHeight="1">
+    <row r="728" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="40"/>
       <c r="C728" s="41"/>
@@ -24464,7 +24476,7 @@
       <c r="X728" s="5"/>
       <c r="Y728" s="5"/>
     </row>
-    <row r="729" spans="1:25" ht="15.75" customHeight="1">
+    <row r="729" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="40"/>
       <c r="C729" s="41"/>
@@ -24491,7 +24503,7 @@
       <c r="X729" s="5"/>
       <c r="Y729" s="5"/>
     </row>
-    <row r="730" spans="1:25" ht="15.75" customHeight="1">
+    <row r="730" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="40"/>
       <c r="C730" s="41"/>
@@ -24518,7 +24530,7 @@
       <c r="X730" s="5"/>
       <c r="Y730" s="5"/>
     </row>
-    <row r="731" spans="1:25" ht="15.75" customHeight="1">
+    <row r="731" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="40"/>
       <c r="C731" s="41"/>
@@ -24545,7 +24557,7 @@
       <c r="X731" s="5"/>
       <c r="Y731" s="5"/>
     </row>
-    <row r="732" spans="1:25" ht="15.75" customHeight="1">
+    <row r="732" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="40"/>
       <c r="C732" s="41"/>
@@ -24572,7 +24584,7 @@
       <c r="X732" s="5"/>
       <c r="Y732" s="5"/>
     </row>
-    <row r="733" spans="1:25" ht="15.75" customHeight="1">
+    <row r="733" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="40"/>
       <c r="C733" s="41"/>
@@ -24599,7 +24611,7 @@
       <c r="X733" s="5"/>
       <c r="Y733" s="5"/>
     </row>
-    <row r="734" spans="1:25" ht="15.75" customHeight="1">
+    <row r="734" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="40"/>
       <c r="C734" s="41"/>
@@ -24626,7 +24638,7 @@
       <c r="X734" s="5"/>
       <c r="Y734" s="5"/>
     </row>
-    <row r="735" spans="1:25" ht="15.75" customHeight="1">
+    <row r="735" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="40"/>
       <c r="C735" s="41"/>
@@ -24653,7 +24665,7 @@
       <c r="X735" s="5"/>
       <c r="Y735" s="5"/>
     </row>
-    <row r="736" spans="1:25" ht="15.75" customHeight="1">
+    <row r="736" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="40"/>
       <c r="C736" s="41"/>
@@ -24680,7 +24692,7 @@
       <c r="X736" s="5"/>
       <c r="Y736" s="5"/>
     </row>
-    <row r="737" spans="1:25" ht="15.75" customHeight="1">
+    <row r="737" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="40"/>
       <c r="C737" s="41"/>
@@ -24707,7 +24719,7 @@
       <c r="X737" s="5"/>
       <c r="Y737" s="5"/>
     </row>
-    <row r="738" spans="1:25" ht="15.75" customHeight="1">
+    <row r="738" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="40"/>
       <c r="C738" s="41"/>
@@ -24734,7 +24746,7 @@
       <c r="X738" s="5"/>
       <c r="Y738" s="5"/>
     </row>
-    <row r="739" spans="1:25" ht="15.75" customHeight="1">
+    <row r="739" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="40"/>
       <c r="C739" s="41"/>
@@ -24761,7 +24773,7 @@
       <c r="X739" s="5"/>
       <c r="Y739" s="5"/>
     </row>
-    <row r="740" spans="1:25" ht="15.75" customHeight="1">
+    <row r="740" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="40"/>
       <c r="C740" s="41"/>
@@ -24788,7 +24800,7 @@
       <c r="X740" s="5"/>
       <c r="Y740" s="5"/>
     </row>
-    <row r="741" spans="1:25" ht="15.75" customHeight="1">
+    <row r="741" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="40"/>
       <c r="C741" s="41"/>
@@ -24815,7 +24827,7 @@
       <c r="X741" s="5"/>
       <c r="Y741" s="5"/>
     </row>
-    <row r="742" spans="1:25" ht="15.75" customHeight="1">
+    <row r="742" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="40"/>
       <c r="C742" s="41"/>
@@ -24842,7 +24854,7 @@
       <c r="X742" s="5"/>
       <c r="Y742" s="5"/>
     </row>
-    <row r="743" spans="1:25" ht="15.75" customHeight="1">
+    <row r="743" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="40"/>
       <c r="C743" s="41"/>
@@ -24869,7 +24881,7 @@
       <c r="X743" s="5"/>
       <c r="Y743" s="5"/>
     </row>
-    <row r="744" spans="1:25" ht="15.75" customHeight="1">
+    <row r="744" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="40"/>
       <c r="C744" s="41"/>
@@ -24896,7 +24908,7 @@
       <c r="X744" s="5"/>
       <c r="Y744" s="5"/>
     </row>
-    <row r="745" spans="1:25" ht="15.75" customHeight="1">
+    <row r="745" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="40"/>
       <c r="C745" s="41"/>
@@ -24923,7 +24935,7 @@
       <c r="X745" s="5"/>
       <c r="Y745" s="5"/>
     </row>
-    <row r="746" spans="1:25" ht="15.75" customHeight="1">
+    <row r="746" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="40"/>
       <c r="C746" s="41"/>
@@ -24950,7 +24962,7 @@
       <c r="X746" s="5"/>
       <c r="Y746" s="5"/>
     </row>
-    <row r="747" spans="1:25" ht="15.75" customHeight="1">
+    <row r="747" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="40"/>
       <c r="C747" s="41"/>
@@ -24977,7 +24989,7 @@
       <c r="X747" s="5"/>
       <c r="Y747" s="5"/>
     </row>
-    <row r="748" spans="1:25" ht="15.75" customHeight="1">
+    <row r="748" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="40"/>
       <c r="C748" s="41"/>
@@ -25004,7 +25016,7 @@
       <c r="X748" s="5"/>
       <c r="Y748" s="5"/>
     </row>
-    <row r="749" spans="1:25" ht="15.75" customHeight="1">
+    <row r="749" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="40"/>
       <c r="C749" s="41"/>
@@ -25031,7 +25043,7 @@
       <c r="X749" s="5"/>
       <c r="Y749" s="5"/>
     </row>
-    <row r="750" spans="1:25" ht="15.75" customHeight="1">
+    <row r="750" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="40"/>
       <c r="C750" s="41"/>
@@ -25058,7 +25070,7 @@
       <c r="X750" s="5"/>
       <c r="Y750" s="5"/>
     </row>
-    <row r="751" spans="1:25" ht="15.75" customHeight="1">
+    <row r="751" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="40"/>
       <c r="C751" s="41"/>
@@ -25085,7 +25097,7 @@
       <c r="X751" s="5"/>
       <c r="Y751" s="5"/>
     </row>
-    <row r="752" spans="1:25" ht="15.75" customHeight="1">
+    <row r="752" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="40"/>
       <c r="C752" s="41"/>
@@ -25112,7 +25124,7 @@
       <c r="X752" s="5"/>
       <c r="Y752" s="5"/>
     </row>
-    <row r="753" spans="1:25" ht="15.75" customHeight="1">
+    <row r="753" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="40"/>
       <c r="C753" s="41"/>
@@ -25139,7 +25151,7 @@
       <c r="X753" s="5"/>
       <c r="Y753" s="5"/>
     </row>
-    <row r="754" spans="1:25" ht="15.75" customHeight="1">
+    <row r="754" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="40"/>
       <c r="C754" s="41"/>
@@ -25166,7 +25178,7 @@
       <c r="X754" s="5"/>
       <c r="Y754" s="5"/>
     </row>
-    <row r="755" spans="1:25" ht="15.75" customHeight="1">
+    <row r="755" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="40"/>
       <c r="C755" s="41"/>
@@ -25193,7 +25205,7 @@
       <c r="X755" s="5"/>
       <c r="Y755" s="5"/>
     </row>
-    <row r="756" spans="1:25" ht="15.75" customHeight="1">
+    <row r="756" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="40"/>
       <c r="C756" s="41"/>
@@ -25220,7 +25232,7 @@
       <c r="X756" s="5"/>
       <c r="Y756" s="5"/>
     </row>
-    <row r="757" spans="1:25" ht="15.75" customHeight="1">
+    <row r="757" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="40"/>
       <c r="C757" s="41"/>
@@ -25247,7 +25259,7 @@
       <c r="X757" s="5"/>
       <c r="Y757" s="5"/>
     </row>
-    <row r="758" spans="1:25" ht="15.75" customHeight="1">
+    <row r="758" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="40"/>
       <c r="C758" s="41"/>
@@ -25274,7 +25286,7 @@
       <c r="X758" s="5"/>
       <c r="Y758" s="5"/>
     </row>
-    <row r="759" spans="1:25" ht="15.75" customHeight="1">
+    <row r="759" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="40"/>
       <c r="C759" s="41"/>
@@ -25301,7 +25313,7 @@
       <c r="X759" s="5"/>
       <c r="Y759" s="5"/>
     </row>
-    <row r="760" spans="1:25" ht="15.75" customHeight="1">
+    <row r="760" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="40"/>
       <c r="C760" s="41"/>
@@ -25328,7 +25340,7 @@
       <c r="X760" s="5"/>
       <c r="Y760" s="5"/>
     </row>
-    <row r="761" spans="1:25" ht="15.75" customHeight="1">
+    <row r="761" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="40"/>
       <c r="C761" s="41"/>
@@ -25355,7 +25367,7 @@
       <c r="X761" s="5"/>
       <c r="Y761" s="5"/>
     </row>
-    <row r="762" spans="1:25" ht="15.75" customHeight="1">
+    <row r="762" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="40"/>
       <c r="C762" s="41"/>
@@ -25382,7 +25394,7 @@
       <c r="X762" s="5"/>
       <c r="Y762" s="5"/>
     </row>
-    <row r="763" spans="1:25" ht="15.75" customHeight="1">
+    <row r="763" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="40"/>
       <c r="C763" s="41"/>
@@ -25409,7 +25421,7 @@
       <c r="X763" s="5"/>
       <c r="Y763" s="5"/>
     </row>
-    <row r="764" spans="1:25" ht="15.75" customHeight="1">
+    <row r="764" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="40"/>
       <c r="C764" s="41"/>
@@ -25436,7 +25448,7 @@
       <c r="X764" s="5"/>
       <c r="Y764" s="5"/>
     </row>
-    <row r="765" spans="1:25" ht="15.75" customHeight="1">
+    <row r="765" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="40"/>
       <c r="C765" s="41"/>
@@ -25463,7 +25475,7 @@
       <c r="X765" s="5"/>
       <c r="Y765" s="5"/>
     </row>
-    <row r="766" spans="1:25" ht="15.75" customHeight="1">
+    <row r="766" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="40"/>
       <c r="C766" s="41"/>
@@ -25490,7 +25502,7 @@
       <c r="X766" s="5"/>
       <c r="Y766" s="5"/>
     </row>
-    <row r="767" spans="1:25" ht="15.75" customHeight="1">
+    <row r="767" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="40"/>
       <c r="C767" s="41"/>
@@ -25517,7 +25529,7 @@
       <c r="X767" s="5"/>
       <c r="Y767" s="5"/>
     </row>
-    <row r="768" spans="1:25" ht="15.75" customHeight="1">
+    <row r="768" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="40"/>
       <c r="C768" s="41"/>
@@ -25544,7 +25556,7 @@
       <c r="X768" s="5"/>
       <c r="Y768" s="5"/>
     </row>
-    <row r="769" spans="1:25" ht="15.75" customHeight="1">
+    <row r="769" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="40"/>
       <c r="C769" s="41"/>
@@ -25571,7 +25583,7 @@
       <c r="X769" s="5"/>
       <c r="Y769" s="5"/>
     </row>
-    <row r="770" spans="1:25" ht="15.75" customHeight="1">
+    <row r="770" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="40"/>
       <c r="C770" s="41"/>
@@ -25598,7 +25610,7 @@
       <c r="X770" s="5"/>
       <c r="Y770" s="5"/>
     </row>
-    <row r="771" spans="1:25" ht="15.75" customHeight="1">
+    <row r="771" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="40"/>
       <c r="C771" s="41"/>
@@ -25625,7 +25637,7 @@
       <c r="X771" s="5"/>
       <c r="Y771" s="5"/>
     </row>
-    <row r="772" spans="1:25" ht="15.75" customHeight="1">
+    <row r="772" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="40"/>
       <c r="C772" s="41"/>
@@ -25652,7 +25664,7 @@
       <c r="X772" s="5"/>
       <c r="Y772" s="5"/>
     </row>
-    <row r="773" spans="1:25" ht="15.75" customHeight="1">
+    <row r="773" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="40"/>
       <c r="C773" s="41"/>
@@ -25679,7 +25691,7 @@
       <c r="X773" s="5"/>
       <c r="Y773" s="5"/>
     </row>
-    <row r="774" spans="1:25" ht="15.75" customHeight="1">
+    <row r="774" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="40"/>
       <c r="C774" s="41"/>
@@ -25706,7 +25718,7 @@
       <c r="X774" s="5"/>
       <c r="Y774" s="5"/>
     </row>
-    <row r="775" spans="1:25" ht="15.75" customHeight="1">
+    <row r="775" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="40"/>
       <c r="C775" s="41"/>
@@ -25733,7 +25745,7 @@
       <c r="X775" s="5"/>
       <c r="Y775" s="5"/>
     </row>
-    <row r="776" spans="1:25" ht="15.75" customHeight="1">
+    <row r="776" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="40"/>
       <c r="C776" s="41"/>
@@ -25760,7 +25772,7 @@
       <c r="X776" s="5"/>
       <c r="Y776" s="5"/>
     </row>
-    <row r="777" spans="1:25" ht="15.75" customHeight="1">
+    <row r="777" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="40"/>
       <c r="C777" s="41"/>
@@ -25787,7 +25799,7 @@
       <c r="X777" s="5"/>
       <c r="Y777" s="5"/>
     </row>
-    <row r="778" spans="1:25" ht="15.75" customHeight="1">
+    <row r="778" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="40"/>
       <c r="C778" s="41"/>
@@ -25814,7 +25826,7 @@
       <c r="X778" s="5"/>
       <c r="Y778" s="5"/>
     </row>
-    <row r="779" spans="1:25" ht="15.75" customHeight="1">
+    <row r="779" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="40"/>
       <c r="C779" s="41"/>
@@ -25841,7 +25853,7 @@
       <c r="X779" s="5"/>
       <c r="Y779" s="5"/>
     </row>
-    <row r="780" spans="1:25" ht="15.75" customHeight="1">
+    <row r="780" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="40"/>
       <c r="C780" s="41"/>
@@ -25868,7 +25880,7 @@
       <c r="X780" s="5"/>
       <c r="Y780" s="5"/>
     </row>
-    <row r="781" spans="1:25" ht="15.75" customHeight="1">
+    <row r="781" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="40"/>
       <c r="C781" s="41"/>
@@ -25895,7 +25907,7 @@
       <c r="X781" s="5"/>
       <c r="Y781" s="5"/>
     </row>
-    <row r="782" spans="1:25" ht="15.75" customHeight="1">
+    <row r="782" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="40"/>
       <c r="C782" s="41"/>
@@ -25922,7 +25934,7 @@
       <c r="X782" s="5"/>
       <c r="Y782" s="5"/>
     </row>
-    <row r="783" spans="1:25" ht="15.75" customHeight="1">
+    <row r="783" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="40"/>
       <c r="C783" s="41"/>
@@ -25949,7 +25961,7 @@
       <c r="X783" s="5"/>
       <c r="Y783" s="5"/>
     </row>
-    <row r="784" spans="1:25" ht="15.75" customHeight="1">
+    <row r="784" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="40"/>
       <c r="C784" s="41"/>
@@ -25976,7 +25988,7 @@
       <c r="X784" s="5"/>
       <c r="Y784" s="5"/>
     </row>
-    <row r="785" spans="1:25" ht="15.75" customHeight="1">
+    <row r="785" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="40"/>
       <c r="C785" s="41"/>
@@ -26003,7 +26015,7 @@
       <c r="X785" s="5"/>
       <c r="Y785" s="5"/>
     </row>
-    <row r="786" spans="1:25" ht="15.75" customHeight="1">
+    <row r="786" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="40"/>
       <c r="C786" s="41"/>
@@ -26030,7 +26042,7 @@
       <c r="X786" s="5"/>
       <c r="Y786" s="5"/>
     </row>
-    <row r="787" spans="1:25" ht="15.75" customHeight="1">
+    <row r="787" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="40"/>
       <c r="C787" s="41"/>
@@ -26057,7 +26069,7 @@
       <c r="X787" s="5"/>
       <c r="Y787" s="5"/>
     </row>
-    <row r="788" spans="1:25" ht="15.75" customHeight="1">
+    <row r="788" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="40"/>
       <c r="C788" s="41"/>
@@ -26084,7 +26096,7 @@
       <c r="X788" s="5"/>
       <c r="Y788" s="5"/>
     </row>
-    <row r="789" spans="1:25" ht="15.75" customHeight="1">
+    <row r="789" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="40"/>
       <c r="C789" s="41"/>
@@ -26111,7 +26123,7 @@
       <c r="X789" s="5"/>
       <c r="Y789" s="5"/>
     </row>
-    <row r="790" spans="1:25" ht="15.75" customHeight="1">
+    <row r="790" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="40"/>
       <c r="C790" s="41"/>
@@ -26138,7 +26150,7 @@
       <c r="X790" s="5"/>
       <c r="Y790" s="5"/>
     </row>
-    <row r="791" spans="1:25" ht="15.75" customHeight="1">
+    <row r="791" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="40"/>
       <c r="C791" s="41"/>
@@ -26165,7 +26177,7 @@
       <c r="X791" s="5"/>
       <c r="Y791" s="5"/>
     </row>
-    <row r="792" spans="1:25" ht="15.75" customHeight="1">
+    <row r="792" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="40"/>
       <c r="C792" s="41"/>
@@ -26192,7 +26204,7 @@
       <c r="X792" s="5"/>
       <c r="Y792" s="5"/>
     </row>
-    <row r="793" spans="1:25" ht="15.75" customHeight="1">
+    <row r="793" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="40"/>
       <c r="C793" s="41"/>
@@ -26219,7 +26231,7 @@
       <c r="X793" s="5"/>
       <c r="Y793" s="5"/>
     </row>
-    <row r="794" spans="1:25" ht="15.75" customHeight="1">
+    <row r="794" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="40"/>
       <c r="C794" s="41"/>
@@ -26246,7 +26258,7 @@
       <c r="X794" s="5"/>
       <c r="Y794" s="5"/>
     </row>
-    <row r="795" spans="1:25" ht="15.75" customHeight="1">
+    <row r="795" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="40"/>
       <c r="C795" s="41"/>
@@ -26273,7 +26285,7 @@
       <c r="X795" s="5"/>
       <c r="Y795" s="5"/>
     </row>
-    <row r="796" spans="1:25" ht="15.75" customHeight="1">
+    <row r="796" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="40"/>
       <c r="C796" s="41"/>
@@ -26300,7 +26312,7 @@
       <c r="X796" s="5"/>
       <c r="Y796" s="5"/>
     </row>
-    <row r="797" spans="1:25" ht="15.75" customHeight="1">
+    <row r="797" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="40"/>
       <c r="C797" s="41"/>
@@ -26327,7 +26339,7 @@
       <c r="X797" s="5"/>
       <c r="Y797" s="5"/>
     </row>
-    <row r="798" spans="1:25" ht="15.75" customHeight="1">
+    <row r="798" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="40"/>
       <c r="C798" s="41"/>
@@ -26354,7 +26366,7 @@
       <c r="X798" s="5"/>
       <c r="Y798" s="5"/>
     </row>
-    <row r="799" spans="1:25" ht="15.75" customHeight="1">
+    <row r="799" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="40"/>
       <c r="C799" s="41"/>
@@ -26381,7 +26393,7 @@
       <c r="X799" s="5"/>
       <c r="Y799" s="5"/>
     </row>
-    <row r="800" spans="1:25" ht="15.75" customHeight="1">
+    <row r="800" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="40"/>
       <c r="C800" s="41"/>
@@ -26408,7 +26420,7 @@
       <c r="X800" s="5"/>
       <c r="Y800" s="5"/>
     </row>
-    <row r="801" spans="1:25" ht="15.75" customHeight="1">
+    <row r="801" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="40"/>
       <c r="C801" s="41"/>
@@ -26435,7 +26447,7 @@
       <c r="X801" s="5"/>
       <c r="Y801" s="5"/>
     </row>
-    <row r="802" spans="1:25" ht="15.75" customHeight="1">
+    <row r="802" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="40"/>
       <c r="C802" s="41"/>
@@ -26462,7 +26474,7 @@
       <c r="X802" s="5"/>
       <c r="Y802" s="5"/>
     </row>
-    <row r="803" spans="1:25" ht="15.75" customHeight="1">
+    <row r="803" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="40"/>
       <c r="C803" s="41"/>
@@ -26489,7 +26501,7 @@
       <c r="X803" s="5"/>
       <c r="Y803" s="5"/>
     </row>
-    <row r="804" spans="1:25" ht="15.75" customHeight="1">
+    <row r="804" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="40"/>
       <c r="C804" s="41"/>
@@ -26516,7 +26528,7 @@
       <c r="X804" s="5"/>
       <c r="Y804" s="5"/>
     </row>
-    <row r="805" spans="1:25" ht="15.75" customHeight="1">
+    <row r="805" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="40"/>
       <c r="C805" s="41"/>
@@ -26543,7 +26555,7 @@
       <c r="X805" s="5"/>
       <c r="Y805" s="5"/>
     </row>
-    <row r="806" spans="1:25" ht="15.75" customHeight="1">
+    <row r="806" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="40"/>
       <c r="C806" s="41"/>
@@ -26570,7 +26582,7 @@
       <c r="X806" s="5"/>
       <c r="Y806" s="5"/>
     </row>
-    <row r="807" spans="1:25" ht="15.75" customHeight="1">
+    <row r="807" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="40"/>
       <c r="C807" s="41"/>
@@ -26597,7 +26609,7 @@
       <c r="X807" s="5"/>
       <c r="Y807" s="5"/>
     </row>
-    <row r="808" spans="1:25" ht="15.75" customHeight="1">
+    <row r="808" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="40"/>
       <c r="C808" s="41"/>
@@ -26624,7 +26636,7 @@
       <c r="X808" s="5"/>
       <c r="Y808" s="5"/>
     </row>
-    <row r="809" spans="1:25" ht="15.75" customHeight="1">
+    <row r="809" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="40"/>
       <c r="C809" s="41"/>
@@ -26651,7 +26663,7 @@
       <c r="X809" s="5"/>
       <c r="Y809" s="5"/>
     </row>
-    <row r="810" spans="1:25" ht="15.75" customHeight="1">
+    <row r="810" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="40"/>
       <c r="C810" s="41"/>
@@ -26678,7 +26690,7 @@
       <c r="X810" s="5"/>
       <c r="Y810" s="5"/>
     </row>
-    <row r="811" spans="1:25" ht="15.75" customHeight="1">
+    <row r="811" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="40"/>
       <c r="C811" s="41"/>
@@ -26705,7 +26717,7 @@
       <c r="X811" s="5"/>
       <c r="Y811" s="5"/>
     </row>
-    <row r="812" spans="1:25" ht="15.75" customHeight="1">
+    <row r="812" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="40"/>
       <c r="C812" s="41"/>
@@ -26732,7 +26744,7 @@
       <c r="X812" s="5"/>
       <c r="Y812" s="5"/>
     </row>
-    <row r="813" spans="1:25" ht="15.75" customHeight="1">
+    <row r="813" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="40"/>
       <c r="C813" s="41"/>
@@ -26759,7 +26771,7 @@
       <c r="X813" s="5"/>
       <c r="Y813" s="5"/>
     </row>
-    <row r="814" spans="1:25" ht="15.75" customHeight="1">
+    <row r="814" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="40"/>
       <c r="C814" s="41"/>
@@ -26786,7 +26798,7 @@
       <c r="X814" s="5"/>
       <c r="Y814" s="5"/>
     </row>
-    <row r="815" spans="1:25" ht="15.75" customHeight="1">
+    <row r="815" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="40"/>
       <c r="C815" s="41"/>
@@ -26813,7 +26825,7 @@
       <c r="X815" s="5"/>
       <c r="Y815" s="5"/>
     </row>
-    <row r="816" spans="1:25" ht="15.75" customHeight="1">
+    <row r="816" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="40"/>
       <c r="C816" s="41"/>
@@ -26840,7 +26852,7 @@
       <c r="X816" s="5"/>
       <c r="Y816" s="5"/>
     </row>
-    <row r="817" spans="1:25" ht="15.75" customHeight="1">
+    <row r="817" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="40"/>
       <c r="C817" s="41"/>
@@ -26867,7 +26879,7 @@
       <c r="X817" s="5"/>
       <c r="Y817" s="5"/>
     </row>
-    <row r="818" spans="1:25" ht="15.75" customHeight="1">
+    <row r="818" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="40"/>
       <c r="C818" s="41"/>
@@ -26894,7 +26906,7 @@
       <c r="X818" s="5"/>
       <c r="Y818" s="5"/>
     </row>
-    <row r="819" spans="1:25" ht="15.75" customHeight="1">
+    <row r="819" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="40"/>
       <c r="C819" s="41"/>
@@ -26921,7 +26933,7 @@
       <c r="X819" s="5"/>
       <c r="Y819" s="5"/>
     </row>
-    <row r="820" spans="1:25" ht="15.75" customHeight="1">
+    <row r="820" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="40"/>
       <c r="C820" s="41"/>
@@ -26948,7 +26960,7 @@
       <c r="X820" s="5"/>
       <c r="Y820" s="5"/>
     </row>
-    <row r="821" spans="1:25" ht="15.75" customHeight="1">
+    <row r="821" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="40"/>
       <c r="C821" s="41"/>
@@ -26975,7 +26987,7 @@
       <c r="X821" s="5"/>
       <c r="Y821" s="5"/>
     </row>
-    <row r="822" spans="1:25" ht="15.75" customHeight="1">
+    <row r="822" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="40"/>
       <c r="C822" s="41"/>
@@ -27002,7 +27014,7 @@
       <c r="X822" s="5"/>
       <c r="Y822" s="5"/>
     </row>
-    <row r="823" spans="1:25" ht="15.75" customHeight="1">
+    <row r="823" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="40"/>
       <c r="C823" s="41"/>
@@ -27029,7 +27041,7 @@
       <c r="X823" s="5"/>
       <c r="Y823" s="5"/>
     </row>
-    <row r="824" spans="1:25" ht="15.75" customHeight="1">
+    <row r="824" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="40"/>
       <c r="C824" s="41"/>
@@ -27056,7 +27068,7 @@
       <c r="X824" s="5"/>
       <c r="Y824" s="5"/>
     </row>
-    <row r="825" spans="1:25" ht="15.75" customHeight="1">
+    <row r="825" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="40"/>
       <c r="C825" s="41"/>
@@ -27083,7 +27095,7 @@
       <c r="X825" s="5"/>
       <c r="Y825" s="5"/>
     </row>
-    <row r="826" spans="1:25" ht="15.75" customHeight="1">
+    <row r="826" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="40"/>
       <c r="C826" s="41"/>
@@ -27110,7 +27122,7 @@
       <c r="X826" s="5"/>
       <c r="Y826" s="5"/>
     </row>
-    <row r="827" spans="1:25" ht="15.75" customHeight="1">
+    <row r="827" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="40"/>
       <c r="C827" s="41"/>
@@ -27137,7 +27149,7 @@
       <c r="X827" s="5"/>
       <c r="Y827" s="5"/>
     </row>
-    <row r="828" spans="1:25" ht="15.75" customHeight="1">
+    <row r="828" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="40"/>
       <c r="C828" s="41"/>
@@ -27164,7 +27176,7 @@
       <c r="X828" s="5"/>
       <c r="Y828" s="5"/>
     </row>
-    <row r="829" spans="1:25" ht="15.75" customHeight="1">
+    <row r="829" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="40"/>
       <c r="C829" s="41"/>
@@ -27191,7 +27203,7 @@
       <c r="X829" s="5"/>
       <c r="Y829" s="5"/>
     </row>
-    <row r="830" spans="1:25" ht="15.75" customHeight="1">
+    <row r="830" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="40"/>
       <c r="C830" s="41"/>
@@ -27218,7 +27230,7 @@
       <c r="X830" s="5"/>
       <c r="Y830" s="5"/>
     </row>
-    <row r="831" spans="1:25" ht="15.75" customHeight="1">
+    <row r="831" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="40"/>
       <c r="C831" s="41"/>
@@ -27245,7 +27257,7 @@
       <c r="X831" s="5"/>
       <c r="Y831" s="5"/>
     </row>
-    <row r="832" spans="1:25" ht="15.75" customHeight="1">
+    <row r="832" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="40"/>
       <c r="C832" s="41"/>
@@ -27272,7 +27284,7 @@
       <c r="X832" s="5"/>
       <c r="Y832" s="5"/>
     </row>
-    <row r="833" spans="1:25" ht="15.75" customHeight="1">
+    <row r="833" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="40"/>
       <c r="C833" s="41"/>
@@ -27299,7 +27311,7 @@
       <c r="X833" s="5"/>
       <c r="Y833" s="5"/>
     </row>
-    <row r="834" spans="1:25" ht="15.75" customHeight="1">
+    <row r="834" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="40"/>
       <c r="C834" s="41"/>
@@ -27326,7 +27338,7 @@
       <c r="X834" s="5"/>
       <c r="Y834" s="5"/>
     </row>
-    <row r="835" spans="1:25" ht="15.75" customHeight="1">
+    <row r="835" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="40"/>
       <c r="C835" s="41"/>
@@ -27353,7 +27365,7 @@
       <c r="X835" s="5"/>
       <c r="Y835" s="5"/>
     </row>
-    <row r="836" spans="1:25" ht="15.75" customHeight="1">
+    <row r="836" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="40"/>
       <c r="C836" s="41"/>
@@ -27380,7 +27392,7 @@
       <c r="X836" s="5"/>
       <c r="Y836" s="5"/>
     </row>
-    <row r="837" spans="1:25" ht="15.75" customHeight="1">
+    <row r="837" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="40"/>
       <c r="C837" s="41"/>
@@ -27407,7 +27419,7 @@
       <c r="X837" s="5"/>
       <c r="Y837" s="5"/>
     </row>
-    <row r="838" spans="1:25" ht="15.75" customHeight="1">
+    <row r="838" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="40"/>
       <c r="C838" s="41"/>
@@ -27434,7 +27446,7 @@
       <c r="X838" s="5"/>
       <c r="Y838" s="5"/>
     </row>
-    <row r="839" spans="1:25" ht="15.75" customHeight="1">
+    <row r="839" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="40"/>
       <c r="C839" s="41"/>
@@ -27461,7 +27473,7 @@
       <c r="X839" s="5"/>
       <c r="Y839" s="5"/>
     </row>
-    <row r="840" spans="1:25" ht="15.75" customHeight="1">
+    <row r="840" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="40"/>
       <c r="C840" s="41"/>
@@ -27488,7 +27500,7 @@
       <c r="X840" s="5"/>
       <c r="Y840" s="5"/>
     </row>
-    <row r="841" spans="1:25" ht="15.75" customHeight="1">
+    <row r="841" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="40"/>
       <c r="C841" s="41"/>
@@ -27515,7 +27527,7 @@
       <c r="X841" s="5"/>
       <c r="Y841" s="5"/>
     </row>
-    <row r="842" spans="1:25" ht="15.75" customHeight="1">
+    <row r="842" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="40"/>
       <c r="C842" s="41"/>
@@ -27542,7 +27554,7 @@
       <c r="X842" s="5"/>
       <c r="Y842" s="5"/>
     </row>
-    <row r="843" spans="1:25" ht="15.75" customHeight="1">
+    <row r="843" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="40"/>
       <c r="C843" s="41"/>
@@ -27569,7 +27581,7 @@
       <c r="X843" s="5"/>
       <c r="Y843" s="5"/>
     </row>
-    <row r="844" spans="1:25" ht="15.75" customHeight="1">
+    <row r="844" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="40"/>
       <c r="C844" s="41"/>
@@ -27596,7 +27608,7 @@
       <c r="X844" s="5"/>
       <c r="Y844" s="5"/>
     </row>
-    <row r="845" spans="1:25" ht="15.75" customHeight="1">
+    <row r="845" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="40"/>
       <c r="C845" s="41"/>
@@ -27623,7 +27635,7 @@
       <c r="X845" s="5"/>
       <c r="Y845" s="5"/>
     </row>
-    <row r="846" spans="1:25" ht="15.75" customHeight="1">
+    <row r="846" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="40"/>
       <c r="C846" s="41"/>
@@ -27650,7 +27662,7 @@
       <c r="X846" s="5"/>
       <c r="Y846" s="5"/>
     </row>
-    <row r="847" spans="1:25" ht="15.75" customHeight="1">
+    <row r="847" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="40"/>
       <c r="C847" s="41"/>
@@ -27677,7 +27689,7 @@
       <c r="X847" s="5"/>
       <c r="Y847" s="5"/>
     </row>
-    <row r="848" spans="1:25" ht="15.75" customHeight="1">
+    <row r="848" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="40"/>
       <c r="C848" s="41"/>
@@ -27704,7 +27716,7 @@
       <c r="X848" s="5"/>
       <c r="Y848" s="5"/>
     </row>
-    <row r="849" spans="1:25" ht="15.75" customHeight="1">
+    <row r="849" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="40"/>
       <c r="C849" s="41"/>
@@ -27731,7 +27743,7 @@
       <c r="X849" s="5"/>
       <c r="Y849" s="5"/>
     </row>
-    <row r="850" spans="1:25" ht="15.75" customHeight="1">
+    <row r="850" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="40"/>
       <c r="C850" s="41"/>
@@ -27758,7 +27770,7 @@
       <c r="X850" s="5"/>
       <c r="Y850" s="5"/>
     </row>
-    <row r="851" spans="1:25" ht="15.75" customHeight="1">
+    <row r="851" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="40"/>
       <c r="C851" s="41"/>
@@ -27785,7 +27797,7 @@
       <c r="X851" s="5"/>
       <c r="Y851" s="5"/>
     </row>
-    <row r="852" spans="1:25" ht="15.75" customHeight="1">
+    <row r="852" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="40"/>
       <c r="C852" s="41"/>
@@ -27812,7 +27824,7 @@
       <c r="X852" s="5"/>
       <c r="Y852" s="5"/>
     </row>
-    <row r="853" spans="1:25" ht="15.75" customHeight="1">
+    <row r="853" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="40"/>
       <c r="C853" s="41"/>
@@ -27839,7 +27851,7 @@
       <c r="X853" s="5"/>
       <c r="Y853" s="5"/>
     </row>
-    <row r="854" spans="1:25" ht="15.75" customHeight="1">
+    <row r="854" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="40"/>
       <c r="C854" s="41"/>
@@ -27866,7 +27878,7 @@
       <c r="X854" s="5"/>
       <c r="Y854" s="5"/>
     </row>
-    <row r="855" spans="1:25" ht="15.75" customHeight="1">
+    <row r="855" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="40"/>
       <c r="C855" s="41"/>
@@ -27893,7 +27905,7 @@
       <c r="X855" s="5"/>
       <c r="Y855" s="5"/>
     </row>
-    <row r="856" spans="1:25" ht="15.75" customHeight="1">
+    <row r="856" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="40"/>
       <c r="C856" s="41"/>
@@ -27920,7 +27932,7 @@
       <c r="X856" s="5"/>
       <c r="Y856" s="5"/>
     </row>
-    <row r="857" spans="1:25" ht="15.75" customHeight="1">
+    <row r="857" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="40"/>
       <c r="C857" s="41"/>
@@ -27947,7 +27959,7 @@
       <c r="X857" s="5"/>
       <c r="Y857" s="5"/>
     </row>
-    <row r="858" spans="1:25" ht="15.75" customHeight="1">
+    <row r="858" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="40"/>
       <c r="C858" s="41"/>
@@ -27974,7 +27986,7 @@
       <c r="X858" s="5"/>
       <c r="Y858" s="5"/>
     </row>
-    <row r="859" spans="1:25" ht="15.75" customHeight="1">
+    <row r="859" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="40"/>
       <c r="C859" s="41"/>
@@ -28001,7 +28013,7 @@
       <c r="X859" s="5"/>
       <c r="Y859" s="5"/>
     </row>
-    <row r="860" spans="1:25" ht="15.75" customHeight="1">
+    <row r="860" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="40"/>
       <c r="C860" s="41"/>
@@ -28028,7 +28040,7 @@
       <c r="X860" s="5"/>
       <c r="Y860" s="5"/>
     </row>
-    <row r="861" spans="1:25" ht="15.75" customHeight="1">
+    <row r="861" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="40"/>
       <c r="C861" s="41"/>
@@ -28055,7 +28067,7 @@
       <c r="X861" s="5"/>
       <c r="Y861" s="5"/>
     </row>
-    <row r="862" spans="1:25" ht="15.75" customHeight="1">
+    <row r="862" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="40"/>
       <c r="C862" s="41"/>
@@ -28082,7 +28094,7 @@
       <c r="X862" s="5"/>
       <c r="Y862" s="5"/>
     </row>
-    <row r="863" spans="1:25" ht="15.75" customHeight="1">
+    <row r="863" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="40"/>
       <c r="C863" s="41"/>
@@ -28109,7 +28121,7 @@
       <c r="X863" s="5"/>
       <c r="Y863" s="5"/>
     </row>
-    <row r="864" spans="1:25" ht="15.75" customHeight="1">
+    <row r="864" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="40"/>
       <c r="C864" s="41"/>
@@ -28136,7 +28148,7 @@
       <c r="X864" s="5"/>
       <c r="Y864" s="5"/>
     </row>
-    <row r="865" spans="1:25" ht="15.75" customHeight="1">
+    <row r="865" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="40"/>
       <c r="C865" s="41"/>
@@ -28163,7 +28175,7 @@
       <c r="X865" s="5"/>
       <c r="Y865" s="5"/>
     </row>
-    <row r="866" spans="1:25" ht="15.75" customHeight="1">
+    <row r="866" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="40"/>
       <c r="C866" s="41"/>
@@ -28190,7 +28202,7 @@
       <c r="X866" s="5"/>
       <c r="Y866" s="5"/>
     </row>
-    <row r="867" spans="1:25" ht="15.75" customHeight="1">
+    <row r="867" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="40"/>
       <c r="C867" s="41"/>
@@ -28217,7 +28229,7 @@
       <c r="X867" s="5"/>
       <c r="Y867" s="5"/>
     </row>
-    <row r="868" spans="1:25" ht="15.75" customHeight="1">
+    <row r="868" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="40"/>
       <c r="C868" s="41"/>
@@ -28244,7 +28256,7 @@
       <c r="X868" s="5"/>
       <c r="Y868" s="5"/>
     </row>
-    <row r="869" spans="1:25" ht="15.75" customHeight="1">
+    <row r="869" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="40"/>
       <c r="C869" s="41"/>
@@ -28271,7 +28283,7 @@
       <c r="X869" s="5"/>
       <c r="Y869" s="5"/>
     </row>
-    <row r="870" spans="1:25" ht="15.75" customHeight="1">
+    <row r="870" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="40"/>
       <c r="C870" s="41"/>
@@ -28298,7 +28310,7 @@
       <c r="X870" s="5"/>
       <c r="Y870" s="5"/>
     </row>
-    <row r="871" spans="1:25" ht="15.75" customHeight="1">
+    <row r="871" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="40"/>
       <c r="C871" s="41"/>
@@ -28325,7 +28337,7 @@
       <c r="X871" s="5"/>
       <c r="Y871" s="5"/>
     </row>
-    <row r="872" spans="1:25" ht="15.75" customHeight="1">
+    <row r="872" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="40"/>
       <c r="C872" s="41"/>
@@ -28352,7 +28364,7 @@
       <c r="X872" s="5"/>
       <c r="Y872" s="5"/>
     </row>
-    <row r="873" spans="1:25" ht="15.75" customHeight="1">
+    <row r="873" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="40"/>
       <c r="C873" s="41"/>
@@ -28379,7 +28391,7 @@
       <c r="X873" s="5"/>
       <c r="Y873" s="5"/>
     </row>
-    <row r="874" spans="1:25" ht="15.75" customHeight="1">
+    <row r="874" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="40"/>
       <c r="C874" s="41"/>
@@ -28406,7 +28418,7 @@
       <c r="X874" s="5"/>
       <c r="Y874" s="5"/>
     </row>
-    <row r="875" spans="1:25" ht="15.75" customHeight="1">
+    <row r="875" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="40"/>
       <c r="C875" s="41"/>
@@ -28433,7 +28445,7 @@
       <c r="X875" s="5"/>
       <c r="Y875" s="5"/>
     </row>
-    <row r="876" spans="1:25" ht="15.75" customHeight="1">
+    <row r="876" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="40"/>
       <c r="C876" s="41"/>
@@ -28460,7 +28472,7 @@
       <c r="X876" s="5"/>
       <c r="Y876" s="5"/>
     </row>
-    <row r="877" spans="1:25" ht="15.75" customHeight="1">
+    <row r="877" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="40"/>
       <c r="C877" s="41"/>
@@ -28487,7 +28499,7 @@
       <c r="X877" s="5"/>
       <c r="Y877" s="5"/>
     </row>
-    <row r="878" spans="1:25" ht="15.75" customHeight="1">
+    <row r="878" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="40"/>
       <c r="C878" s="41"/>
@@ -28514,7 +28526,7 @@
       <c r="X878" s="5"/>
       <c r="Y878" s="5"/>
     </row>
-    <row r="879" spans="1:25" ht="15.75" customHeight="1">
+    <row r="879" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="40"/>
       <c r="C879" s="41"/>
@@ -28541,7 +28553,7 @@
       <c r="X879" s="5"/>
       <c r="Y879" s="5"/>
     </row>
-    <row r="880" spans="1:25" ht="15.75" customHeight="1">
+    <row r="880" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="40"/>
       <c r="C880" s="41"/>
@@ -28568,7 +28580,7 @@
       <c r="X880" s="5"/>
       <c r="Y880" s="5"/>
     </row>
-    <row r="881" spans="1:25" ht="15.75" customHeight="1">
+    <row r="881" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="40"/>
       <c r="C881" s="41"/>
@@ -28595,7 +28607,7 @@
       <c r="X881" s="5"/>
       <c r="Y881" s="5"/>
     </row>
-    <row r="882" spans="1:25" ht="15.75" customHeight="1">
+    <row r="882" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="40"/>
       <c r="C882" s="41"/>
@@ -28622,7 +28634,7 @@
       <c r="X882" s="5"/>
       <c r="Y882" s="5"/>
     </row>
-    <row r="883" spans="1:25" ht="15.75" customHeight="1">
+    <row r="883" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="40"/>
       <c r="C883" s="41"/>
@@ -28649,7 +28661,7 @@
       <c r="X883" s="5"/>
       <c r="Y883" s="5"/>
     </row>
-    <row r="884" spans="1:25" ht="15.75" customHeight="1">
+    <row r="884" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="40"/>
       <c r="C884" s="41"/>
@@ -28676,7 +28688,7 @@
       <c r="X884" s="5"/>
       <c r="Y884" s="5"/>
     </row>
-    <row r="885" spans="1:25" ht="15.75" customHeight="1">
+    <row r="885" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="40"/>
       <c r="C885" s="41"/>
@@ -28703,7 +28715,7 @@
       <c r="X885" s="5"/>
       <c r="Y885" s="5"/>
     </row>
-    <row r="886" spans="1:25" ht="15.75" customHeight="1">
+    <row r="886" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="40"/>
       <c r="C886" s="41"/>
@@ -28730,7 +28742,7 @@
       <c r="X886" s="5"/>
       <c r="Y886" s="5"/>
     </row>
-    <row r="887" spans="1:25" ht="15.75" customHeight="1">
+    <row r="887" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="40"/>
       <c r="C887" s="41"/>
@@ -28757,7 +28769,7 @@
       <c r="X887" s="5"/>
       <c r="Y887" s="5"/>
     </row>
-    <row r="888" spans="1:25" ht="15.75" customHeight="1">
+    <row r="888" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="40"/>
       <c r="C888" s="41"/>
@@ -28784,7 +28796,7 @@
       <c r="X888" s="5"/>
       <c r="Y888" s="5"/>
     </row>
-    <row r="889" spans="1:25" ht="15.75" customHeight="1">
+    <row r="889" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="40"/>
       <c r="C889" s="41"/>
@@ -28811,7 +28823,7 @@
       <c r="X889" s="5"/>
       <c r="Y889" s="5"/>
     </row>
-    <row r="890" spans="1:25" ht="15.75" customHeight="1">
+    <row r="890" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="40"/>
       <c r="C890" s="41"/>
@@ -28838,7 +28850,7 @@
       <c r="X890" s="5"/>
       <c r="Y890" s="5"/>
     </row>
-    <row r="891" spans="1:25" ht="15.75" customHeight="1">
+    <row r="891" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="40"/>
       <c r="C891" s="41"/>
@@ -28865,7 +28877,7 @@
       <c r="X891" s="5"/>
       <c r="Y891" s="5"/>
     </row>
-    <row r="892" spans="1:25" ht="15.75" customHeight="1">
+    <row r="892" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="40"/>
       <c r="C892" s="41"/>
@@ -28892,7 +28904,7 @@
       <c r="X892" s="5"/>
       <c r="Y892" s="5"/>
     </row>
-    <row r="893" spans="1:25" ht="15.75" customHeight="1">
+    <row r="893" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="40"/>
       <c r="C893" s="41"/>
@@ -28919,7 +28931,7 @@
       <c r="X893" s="5"/>
       <c r="Y893" s="5"/>
     </row>
-    <row r="894" spans="1:25" ht="15.75" customHeight="1">
+    <row r="894" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="40"/>
       <c r="C894" s="41"/>
@@ -28946,7 +28958,7 @@
       <c r="X894" s="5"/>
       <c r="Y894" s="5"/>
     </row>
-    <row r="895" spans="1:25" ht="15.75" customHeight="1">
+    <row r="895" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="40"/>
       <c r="C895" s="41"/>
@@ -28973,7 +28985,7 @@
       <c r="X895" s="5"/>
       <c r="Y895" s="5"/>
     </row>
-    <row r="896" spans="1:25" ht="15.75" customHeight="1">
+    <row r="896" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="40"/>
       <c r="C896" s="41"/>
@@ -29000,7 +29012,7 @@
       <c r="X896" s="5"/>
       <c r="Y896" s="5"/>
     </row>
-    <row r="897" spans="1:25" ht="15.75" customHeight="1">
+    <row r="897" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="40"/>
       <c r="C897" s="41"/>
@@ -29027,7 +29039,7 @@
       <c r="X897" s="5"/>
       <c r="Y897" s="5"/>
     </row>
-    <row r="898" spans="1:25" ht="15.75" customHeight="1">
+    <row r="898" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="40"/>
       <c r="C898" s="41"/>
@@ -29054,7 +29066,7 @@
       <c r="X898" s="5"/>
       <c r="Y898" s="5"/>
     </row>
-    <row r="899" spans="1:25" ht="15.75" customHeight="1">
+    <row r="899" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="40"/>
       <c r="C899" s="41"/>
@@ -29081,7 +29093,7 @@
       <c r="X899" s="5"/>
       <c r="Y899" s="5"/>
     </row>
-    <row r="900" spans="1:25" ht="15.75" customHeight="1">
+    <row r="900" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="40"/>
       <c r="C900" s="41"/>
@@ -29108,7 +29120,7 @@
       <c r="X900" s="5"/>
       <c r="Y900" s="5"/>
     </row>
-    <row r="901" spans="1:25" ht="15.75" customHeight="1">
+    <row r="901" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="40"/>
       <c r="C901" s="41"/>
@@ -29135,7 +29147,7 @@
       <c r="X901" s="5"/>
       <c r="Y901" s="5"/>
     </row>
-    <row r="902" spans="1:25" ht="15.75" customHeight="1">
+    <row r="902" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="40"/>
       <c r="C902" s="41"/>
@@ -29162,7 +29174,7 @@
       <c r="X902" s="5"/>
       <c r="Y902" s="5"/>
     </row>
-    <row r="903" spans="1:25" ht="15.75" customHeight="1">
+    <row r="903" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="40"/>
       <c r="C903" s="41"/>
@@ -29189,7 +29201,7 @@
       <c r="X903" s="5"/>
       <c r="Y903" s="5"/>
     </row>
-    <row r="904" spans="1:25" ht="15.75" customHeight="1">
+    <row r="904" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="40"/>
       <c r="C904" s="41"/>
@@ -29216,7 +29228,7 @@
       <c r="X904" s="5"/>
       <c r="Y904" s="5"/>
     </row>
-    <row r="905" spans="1:25" ht="15.75" customHeight="1">
+    <row r="905" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="40"/>
       <c r="C905" s="41"/>
@@ -29243,7 +29255,7 @@
       <c r="X905" s="5"/>
       <c r="Y905" s="5"/>
     </row>
-    <row r="906" spans="1:25" ht="15.75" customHeight="1">
+    <row r="906" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="40"/>
       <c r="C906" s="41"/>
@@ -29270,7 +29282,7 @@
       <c r="X906" s="5"/>
       <c r="Y906" s="5"/>
     </row>
-    <row r="907" spans="1:25" ht="15.75" customHeight="1">
+    <row r="907" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="40"/>
       <c r="C907" s="41"/>
@@ -29297,7 +29309,7 @@
       <c r="X907" s="5"/>
       <c r="Y907" s="5"/>
     </row>
-    <row r="908" spans="1:25" ht="15.75" customHeight="1">
+    <row r="908" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="40"/>
       <c r="C908" s="41"/>
@@ -29324,7 +29336,7 @@
       <c r="X908" s="5"/>
       <c r="Y908" s="5"/>
     </row>
-    <row r="909" spans="1:25" ht="15.75" customHeight="1">
+    <row r="909" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="40"/>
       <c r="C909" s="41"/>
@@ -29351,7 +29363,7 @@
       <c r="X909" s="5"/>
       <c r="Y909" s="5"/>
     </row>
-    <row r="910" spans="1:25" ht="15.75" customHeight="1">
+    <row r="910" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="40"/>
       <c r="C910" s="41"/>
@@ -29378,7 +29390,7 @@
       <c r="X910" s="5"/>
       <c r="Y910" s="5"/>
     </row>
-    <row r="911" spans="1:25" ht="15.75" customHeight="1">
+    <row r="911" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="40"/>
       <c r="C911" s="41"/>
@@ -29405,7 +29417,7 @@
       <c r="X911" s="5"/>
       <c r="Y911" s="5"/>
     </row>
-    <row r="912" spans="1:25" ht="15.75" customHeight="1">
+    <row r="912" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="40"/>
       <c r="C912" s="41"/>
@@ -29432,7 +29444,7 @@
       <c r="X912" s="5"/>
       <c r="Y912" s="5"/>
     </row>
-    <row r="913" spans="1:25" ht="15.75" customHeight="1">
+    <row r="913" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="40"/>
       <c r="C913" s="41"/>
@@ -29459,7 +29471,7 @@
       <c r="X913" s="5"/>
       <c r="Y913" s="5"/>
     </row>
-    <row r="914" spans="1:25" ht="15.75" customHeight="1">
+    <row r="914" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="40"/>
       <c r="C914" s="41"/>
@@ -29486,7 +29498,7 @@
       <c r="X914" s="5"/>
       <c r="Y914" s="5"/>
     </row>
-    <row r="915" spans="1:25" ht="15.75" customHeight="1">
+    <row r="915" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="40"/>
       <c r="C915" s="41"/>
@@ -29513,7 +29525,7 @@
       <c r="X915" s="5"/>
       <c r="Y915" s="5"/>
     </row>
-    <row r="916" spans="1:25" ht="15.75" customHeight="1">
+    <row r="916" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="40"/>
       <c r="C916" s="41"/>
@@ -29540,7 +29552,7 @@
       <c r="X916" s="5"/>
       <c r="Y916" s="5"/>
     </row>
-    <row r="917" spans="1:25" ht="15.75" customHeight="1">
+    <row r="917" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="40"/>
       <c r="C917" s="41"/>
@@ -29567,7 +29579,7 @@
       <c r="X917" s="5"/>
       <c r="Y917" s="5"/>
     </row>
-    <row r="918" spans="1:25" ht="15.75" customHeight="1">
+    <row r="918" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="40"/>
       <c r="C918" s="41"/>
@@ -29594,7 +29606,7 @@
       <c r="X918" s="5"/>
       <c r="Y918" s="5"/>
     </row>
-    <row r="919" spans="1:25" ht="15.75" customHeight="1">
+    <row r="919" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="40"/>
       <c r="C919" s="41"/>
@@ -29621,7 +29633,7 @@
       <c r="X919" s="5"/>
       <c r="Y919" s="5"/>
     </row>
-    <row r="920" spans="1:25" ht="15.75" customHeight="1">
+    <row r="920" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="40"/>
       <c r="C920" s="41"/>
@@ -29648,7 +29660,7 @@
       <c r="X920" s="5"/>
       <c r="Y920" s="5"/>
     </row>
-    <row r="921" spans="1:25" ht="15.75" customHeight="1">
+    <row r="921" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="40"/>
       <c r="C921" s="41"/>
@@ -29675,7 +29687,7 @@
       <c r="X921" s="5"/>
       <c r="Y921" s="5"/>
     </row>
-    <row r="922" spans="1:25" ht="15.75" customHeight="1">
+    <row r="922" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="40"/>
       <c r="C922" s="41"/>
@@ -29702,7 +29714,7 @@
       <c r="X922" s="5"/>
       <c r="Y922" s="5"/>
     </row>
-    <row r="923" spans="1:25" ht="15.75" customHeight="1">
+    <row r="923" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="40"/>
       <c r="C923" s="41"/>
@@ -29729,7 +29741,7 @@
       <c r="X923" s="5"/>
       <c r="Y923" s="5"/>
     </row>
-    <row r="924" spans="1:25" ht="15.75" customHeight="1">
+    <row r="924" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="40"/>
       <c r="C924" s="41"/>
@@ -29756,7 +29768,7 @@
       <c r="X924" s="5"/>
       <c r="Y924" s="5"/>
     </row>
-    <row r="925" spans="1:25" ht="15.75" customHeight="1">
+    <row r="925" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="40"/>
       <c r="C925" s="41"/>
@@ -29783,7 +29795,7 @@
       <c r="X925" s="5"/>
       <c r="Y925" s="5"/>
     </row>
-    <row r="926" spans="1:25" ht="15.75" customHeight="1">
+    <row r="926" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="40"/>
       <c r="C926" s="41"/>
@@ -29810,7 +29822,7 @@
       <c r="X926" s="5"/>
       <c r="Y926" s="5"/>
     </row>
-    <row r="927" spans="1:25" ht="15.75" customHeight="1">
+    <row r="927" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="40"/>
       <c r="C927" s="41"/>
@@ -29837,7 +29849,7 @@
       <c r="X927" s="5"/>
       <c r="Y927" s="5"/>
     </row>
-    <row r="928" spans="1:25" ht="15.75" customHeight="1">
+    <row r="928" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="40"/>
       <c r="C928" s="41"/>
@@ -29864,7 +29876,7 @@
       <c r="X928" s="5"/>
       <c r="Y928" s="5"/>
     </row>
-    <row r="929" spans="1:25" ht="15.75" customHeight="1">
+    <row r="929" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="40"/>
       <c r="C929" s="41"/>
@@ -29891,7 +29903,7 @@
       <c r="X929" s="5"/>
       <c r="Y929" s="5"/>
     </row>
-    <row r="930" spans="1:25" ht="15.75" customHeight="1">
+    <row r="930" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="40"/>
       <c r="C930" s="41"/>
@@ -29918,7 +29930,7 @@
       <c r="X930" s="5"/>
       <c r="Y930" s="5"/>
     </row>
-    <row r="931" spans="1:25" ht="15.75" customHeight="1">
+    <row r="931" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="40"/>
       <c r="C931" s="41"/>
@@ -29945,7 +29957,7 @@
       <c r="X931" s="5"/>
       <c r="Y931" s="5"/>
     </row>
-    <row r="932" spans="1:25" ht="15.75" customHeight="1">
+    <row r="932" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="40"/>
       <c r="C932" s="41"/>
@@ -29972,7 +29984,7 @@
       <c r="X932" s="5"/>
       <c r="Y932" s="5"/>
     </row>
-    <row r="933" spans="1:25" ht="15.75" customHeight="1">
+    <row r="933" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="40"/>
       <c r="C933" s="41"/>
@@ -29999,7 +30011,7 @@
       <c r="X933" s="5"/>
       <c r="Y933" s="5"/>
     </row>
-    <row r="934" spans="1:25" ht="15.75" customHeight="1">
+    <row r="934" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="40"/>
       <c r="C934" s="41"/>
@@ -30026,7 +30038,7 @@
       <c r="X934" s="5"/>
       <c r="Y934" s="5"/>
     </row>
-    <row r="935" spans="1:25" ht="15.75" customHeight="1">
+    <row r="935" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="40"/>
       <c r="C935" s="41"/>
@@ -30053,7 +30065,7 @@
       <c r="X935" s="5"/>
       <c r="Y935" s="5"/>
     </row>
-    <row r="936" spans="1:25" ht="15.75" customHeight="1">
+    <row r="936" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="40"/>
       <c r="C936" s="41"/>
@@ -30080,7 +30092,7 @@
       <c r="X936" s="5"/>
       <c r="Y936" s="5"/>
     </row>
-    <row r="937" spans="1:25" ht="15.75" customHeight="1">
+    <row r="937" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="40"/>
       <c r="C937" s="41"/>
@@ -30107,7 +30119,7 @@
       <c r="X937" s="5"/>
       <c r="Y937" s="5"/>
     </row>
-    <row r="938" spans="1:25" ht="15.75" customHeight="1">
+    <row r="938" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="40"/>
       <c r="C938" s="41"/>
@@ -30134,7 +30146,7 @@
       <c r="X938" s="5"/>
       <c r="Y938" s="5"/>
     </row>
-    <row r="939" spans="1:25" ht="15.75" customHeight="1">
+    <row r="939" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="40"/>
       <c r="C939" s="41"/>
@@ -30161,7 +30173,7 @@
       <c r="X939" s="5"/>
       <c r="Y939" s="5"/>
     </row>
-    <row r="940" spans="1:25" ht="15.75" customHeight="1">
+    <row r="940" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="40"/>
       <c r="C940" s="41"/>
@@ -30188,7 +30200,7 @@
       <c r="X940" s="5"/>
       <c r="Y940" s="5"/>
     </row>
-    <row r="941" spans="1:25" ht="15.75" customHeight="1">
+    <row r="941" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="40"/>
       <c r="C941" s="41"/>
@@ -30215,7 +30227,7 @@
       <c r="X941" s="5"/>
       <c r="Y941" s="5"/>
     </row>
-    <row r="942" spans="1:25" ht="15.75" customHeight="1">
+    <row r="942" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="40"/>
       <c r="C942" s="41"/>
@@ -30242,7 +30254,7 @@
       <c r="X942" s="5"/>
       <c r="Y942" s="5"/>
     </row>
-    <row r="943" spans="1:25" ht="15.75" customHeight="1">
+    <row r="943" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="40"/>
       <c r="C943" s="41"/>
@@ -30269,7 +30281,7 @@
       <c r="X943" s="5"/>
       <c r="Y943" s="5"/>
     </row>
-    <row r="944" spans="1:25" ht="15.75" customHeight="1">
+    <row r="944" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="40"/>
       <c r="C944" s="41"/>
@@ -30296,7 +30308,7 @@
       <c r="X944" s="5"/>
       <c r="Y944" s="5"/>
     </row>
-    <row r="945" spans="1:25" ht="15.75" customHeight="1">
+    <row r="945" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="40"/>
       <c r="C945" s="41"/>
@@ -30323,7 +30335,7 @@
       <c r="X945" s="5"/>
       <c r="Y945" s="5"/>
     </row>
-    <row r="946" spans="1:25" ht="15.75" customHeight="1">
+    <row r="946" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="40"/>
       <c r="C946" s="41"/>
@@ -30350,7 +30362,7 @@
       <c r="X946" s="5"/>
       <c r="Y946" s="5"/>
     </row>
-    <row r="947" spans="1:25" ht="15.75" customHeight="1">
+    <row r="947" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="40"/>
       <c r="C947" s="41"/>
@@ -30377,7 +30389,7 @@
       <c r="X947" s="5"/>
       <c r="Y947" s="5"/>
     </row>
-    <row r="948" spans="1:25" ht="15.75" customHeight="1">
+    <row r="948" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="40"/>
       <c r="C948" s="41"/>
@@ -30404,7 +30416,7 @@
       <c r="X948" s="5"/>
       <c r="Y948" s="5"/>
     </row>
-    <row r="949" spans="1:25" ht="15.75" customHeight="1">
+    <row r="949" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="40"/>
       <c r="C949" s="41"/>
@@ -30431,7 +30443,7 @@
       <c r="X949" s="5"/>
       <c r="Y949" s="5"/>
     </row>
-    <row r="950" spans="1:25" ht="15.75" customHeight="1">
+    <row r="950" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="40"/>
       <c r="C950" s="41"/>
@@ -30458,7 +30470,7 @@
       <c r="X950" s="5"/>
       <c r="Y950" s="5"/>
     </row>
-    <row r="951" spans="1:25" ht="15.75" customHeight="1">
+    <row r="951" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="40"/>
       <c r="C951" s="41"/>
@@ -30485,7 +30497,7 @@
       <c r="X951" s="5"/>
       <c r="Y951" s="5"/>
     </row>
-    <row r="952" spans="1:25" ht="15.75" customHeight="1">
+    <row r="952" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="40"/>
       <c r="C952" s="41"/>
@@ -30512,7 +30524,7 @@
       <c r="X952" s="5"/>
       <c r="Y952" s="5"/>
     </row>
-    <row r="953" spans="1:25" ht="15.75" customHeight="1">
+    <row r="953" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="40"/>
       <c r="C953" s="41"/>
@@ -30539,7 +30551,7 @@
       <c r="X953" s="5"/>
       <c r="Y953" s="5"/>
     </row>
-    <row r="954" spans="1:25" ht="15.75" customHeight="1">
+    <row r="954" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="40"/>
       <c r="C954" s="41"/>
@@ -30566,7 +30578,7 @@
       <c r="X954" s="5"/>
       <c r="Y954" s="5"/>
     </row>
-    <row r="955" spans="1:25" ht="15.75" customHeight="1">
+    <row r="955" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="40"/>
       <c r="C955" s="41"/>
@@ -30593,7 +30605,7 @@
       <c r="X955" s="5"/>
       <c r="Y955" s="5"/>
     </row>
-    <row r="956" spans="1:25" ht="15.75" customHeight="1">
+    <row r="956" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="40"/>
       <c r="C956" s="41"/>
@@ -30620,7 +30632,7 @@
       <c r="X956" s="5"/>
       <c r="Y956" s="5"/>
     </row>
-    <row r="957" spans="1:25" ht="15.75" customHeight="1">
+    <row r="957" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="40"/>
       <c r="C957" s="41"/>
@@ -30647,7 +30659,7 @@
       <c r="X957" s="5"/>
       <c r="Y957" s="5"/>
     </row>
-    <row r="958" spans="1:25" ht="15.75" customHeight="1">
+    <row r="958" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="40"/>
       <c r="C958" s="41"/>
@@ -30674,7 +30686,7 @@
       <c r="X958" s="5"/>
       <c r="Y958" s="5"/>
     </row>
-    <row r="959" spans="1:25" ht="15.75" customHeight="1">
+    <row r="959" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="40"/>
       <c r="C959" s="41"/>
@@ -30701,7 +30713,7 @@
       <c r="X959" s="5"/>
       <c r="Y959" s="5"/>
     </row>
-    <row r="960" spans="1:25" ht="15.75" customHeight="1">
+    <row r="960" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="40"/>
       <c r="C960" s="41"/>
@@ -30728,7 +30740,7 @@
       <c r="X960" s="5"/>
       <c r="Y960" s="5"/>
     </row>
-    <row r="961" spans="1:25" ht="15.75" customHeight="1">
+    <row r="961" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="40"/>
       <c r="C961" s="41"/>
@@ -30755,7 +30767,7 @@
       <c r="X961" s="5"/>
       <c r="Y961" s="5"/>
     </row>
-    <row r="962" spans="1:25" ht="15.75" customHeight="1">
+    <row r="962" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="40"/>
       <c r="C962" s="41"/>
@@ -30782,7 +30794,7 @@
       <c r="X962" s="5"/>
       <c r="Y962" s="5"/>
     </row>
-    <row r="963" spans="1:25" ht="15.75" customHeight="1">
+    <row r="963" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="40"/>
       <c r="C963" s="41"/>
@@ -30809,7 +30821,7 @@
       <c r="X963" s="5"/>
       <c r="Y963" s="5"/>
     </row>
-    <row r="964" spans="1:25" ht="15.75" customHeight="1">
+    <row r="964" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="40"/>
       <c r="C964" s="41"/>
@@ -30836,7 +30848,7 @@
       <c r="X964" s="5"/>
       <c r="Y964" s="5"/>
     </row>
-    <row r="965" spans="1:25" ht="15.75" customHeight="1">
+    <row r="965" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="40"/>
       <c r="C965" s="41"/>
@@ -30863,7 +30875,7 @@
       <c r="X965" s="5"/>
       <c r="Y965" s="5"/>
     </row>
-    <row r="966" spans="1:25" ht="15.75" customHeight="1">
+    <row r="966" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="40"/>
       <c r="C966" s="41"/>
@@ -30890,7 +30902,7 @@
       <c r="X966" s="5"/>
       <c r="Y966" s="5"/>
     </row>
-    <row r="967" spans="1:25" ht="15.75" customHeight="1">
+    <row r="967" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="40"/>
       <c r="C967" s="41"/>
@@ -30917,7 +30929,7 @@
       <c r="X967" s="5"/>
       <c r="Y967" s="5"/>
     </row>
-    <row r="968" spans="1:25" ht="15.75" customHeight="1">
+    <row r="968" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="40"/>
       <c r="C968" s="41"/>
@@ -30944,7 +30956,7 @@
       <c r="X968" s="5"/>
       <c r="Y968" s="5"/>
     </row>
-    <row r="969" spans="1:25" ht="15.75" customHeight="1">
+    <row r="969" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="40"/>
       <c r="C969" s="41"/>
@@ -30971,7 +30983,7 @@
       <c r="X969" s="5"/>
       <c r="Y969" s="5"/>
     </row>
-    <row r="970" spans="1:25" ht="15.75" customHeight="1">
+    <row r="970" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="40"/>
       <c r="C970" s="41"/>
@@ -30998,7 +31010,7 @@
       <c r="X970" s="5"/>
       <c r="Y970" s="5"/>
     </row>
-    <row r="971" spans="1:25" ht="15.75" customHeight="1">
+    <row r="971" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="40"/>
       <c r="C971" s="41"/>
@@ -31025,7 +31037,7 @@
       <c r="X971" s="5"/>
       <c r="Y971" s="5"/>
     </row>
-    <row r="972" spans="1:25" ht="15.75" customHeight="1">
+    <row r="972" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="40"/>
       <c r="C972" s="41"/>
@@ -31054,18 +31066,57 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A300:H300"/>
+    <mergeCell ref="A301:H301"/>
+    <mergeCell ref="B319:D319"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="B325:D325"/>
+    <mergeCell ref="H319:H325"/>
+    <mergeCell ref="A302:H302"/>
+    <mergeCell ref="A305:H305"/>
+    <mergeCell ref="A306:H306"/>
+    <mergeCell ref="A307:H307"/>
+    <mergeCell ref="A314:H314"/>
+    <mergeCell ref="A315:H315"/>
+    <mergeCell ref="A318:H318"/>
+    <mergeCell ref="A317:H317"/>
+    <mergeCell ref="A138:H138"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="B321:D321"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="B323:D323"/>
+    <mergeCell ref="A249:H249"/>
+    <mergeCell ref="A250:H250"/>
+    <mergeCell ref="A273:H273"/>
+    <mergeCell ref="A274:H274"/>
+    <mergeCell ref="A275:H275"/>
+    <mergeCell ref="A281:H281"/>
+    <mergeCell ref="A282:H282"/>
+    <mergeCell ref="A283:H283"/>
+    <mergeCell ref="A291:H291"/>
+    <mergeCell ref="A292:H292"/>
+    <mergeCell ref="A293:H293"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A134:H134"/>
+    <mergeCell ref="A136:H136"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A232:H232"/>
+    <mergeCell ref="A233:H233"/>
+    <mergeCell ref="A234:H234"/>
+    <mergeCell ref="A248:H248"/>
+    <mergeCell ref="A218:H218"/>
+    <mergeCell ref="A219:H219"/>
+    <mergeCell ref="A220:H220"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="A226:H226"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A199:H199"/>
     <mergeCell ref="A200:H200"/>
@@ -31082,57 +31133,18 @@
     <mergeCell ref="A151:H151"/>
     <mergeCell ref="A153:H153"/>
     <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A218:H218"/>
-    <mergeCell ref="A219:H219"/>
-    <mergeCell ref="A220:H220"/>
-    <mergeCell ref="A225:H225"/>
-    <mergeCell ref="A226:H226"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A232:H232"/>
-    <mergeCell ref="A233:H233"/>
-    <mergeCell ref="A234:H234"/>
-    <mergeCell ref="A248:H248"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A132:H132"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A134:H134"/>
-    <mergeCell ref="A136:H136"/>
-    <mergeCell ref="A137:H137"/>
-    <mergeCell ref="A138:H138"/>
-    <mergeCell ref="A198:H198"/>
-    <mergeCell ref="B321:D321"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="B323:D323"/>
-    <mergeCell ref="A249:H249"/>
-    <mergeCell ref="A250:H250"/>
-    <mergeCell ref="A273:H273"/>
-    <mergeCell ref="A274:H274"/>
-    <mergeCell ref="A275:H275"/>
-    <mergeCell ref="A281:H281"/>
-    <mergeCell ref="A282:H282"/>
-    <mergeCell ref="A283:H283"/>
-    <mergeCell ref="A291:H291"/>
-    <mergeCell ref="A292:H292"/>
-    <mergeCell ref="A293:H293"/>
-    <mergeCell ref="B325:D325"/>
-    <mergeCell ref="H319:H325"/>
-    <mergeCell ref="A302:H302"/>
-    <mergeCell ref="A305:H305"/>
-    <mergeCell ref="A306:H306"/>
-    <mergeCell ref="A307:H307"/>
-    <mergeCell ref="A314:H314"/>
-    <mergeCell ref="A315:H315"/>
-    <mergeCell ref="A318:H318"/>
-    <mergeCell ref="A317:H317"/>
-    <mergeCell ref="A300:H300"/>
-    <mergeCell ref="A301:H301"/>
-    <mergeCell ref="B319:D319"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C16:C23 C26:C47 C51 C55:C58 C60:C61 C63:C86 C90:C94 C98:C131 C135 C139:C145 C149:C150 C154:C168 C172:C175 C179:C197 C201:C217 C221:C224 C228:C231 C235:C247 C251:C272 C276:C280 C284:C290 C294:C299 C303:C304 C308:C313" xr:uid="{00000000-0002-0000-0000-000000000000}">
